--- a/Pruebas/Mu.xlsx
+++ b/Pruebas/Mu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:ADX1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,124 +435,2404 @@
         <v>0.08833915720544963</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.108990088642652</v>
+        <v>-0.1089892126536535</v>
       </c>
       <c r="F1" t="n">
-        <v>0.07958838168946497</v>
+        <v>0.07958796396664725</v>
       </c>
       <c r="G1" t="n">
-        <v>0.1606025831975106</v>
+        <v>0.160602582699097</v>
       </c>
       <c r="H1" t="n">
-        <v>0.07324633744206105</v>
+        <v>0.1022031777096026</v>
       </c>
       <c r="I1" t="n">
-        <v>0.04614260717711338</v>
+        <v>-0.09889492526559335</v>
       </c>
       <c r="J1" t="n">
-        <v>0.05975573784787594</v>
+        <v>0.0979419453829628</v>
       </c>
       <c r="K1" t="n">
-        <v>0.09357168221426884</v>
+        <v>0.2327744036070858</v>
       </c>
       <c r="L1" t="n">
-        <v>0.1020174343017276</v>
+        <v>0.1016840033024797</v>
       </c>
       <c r="M1" t="n">
-        <v>0.08223427554116353</v>
+        <v>-0.08746008987434559</v>
       </c>
       <c r="N1" t="n">
-        <v>0.0912666133227984</v>
+        <v>0.1088362584971359</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1272041961755638</v>
+        <v>0.3111272770115009</v>
       </c>
       <c r="P1" t="n">
-        <v>0.1368841631718083</v>
+        <v>0.1458826146935729</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1210087368628907</v>
+        <v>-0.07443501552955237</v>
       </c>
       <c r="R1" t="n">
-        <v>0.1263454836203638</v>
+        <v>0.1111992187326633</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1549676096997286</v>
+        <v>0.3493963578793727</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1729327079253493</v>
+        <v>0.2661174155373005</v>
       </c>
       <c r="U1" t="n">
-        <v>0.159662021102214</v>
+        <v>-0.05950877167941272</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1618710280161605</v>
+        <v>0.1052290027182203</v>
       </c>
       <c r="W1" t="n">
-        <v>0.1871468382543124</v>
+        <v>0.4559442621623566</v>
       </c>
       <c r="X1" t="n">
-        <v>0.2161140020955452</v>
+        <v>0.4556622831931256</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.204658978507363</v>
+        <v>-0.04084176475929283</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.2113381704233567</v>
+        <v>0.1924628123934184</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.2363363153100069</v>
+        <v>0.4831905288865743</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.2723747734630526</v>
+        <v>0.7153837133457965</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.2619561101320645</v>
+        <v>-0.02005593451892665</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.2714092693940534</v>
+        <v>0.3167198738953751</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.3115477434727705</v>
+        <v>0.6991278004554902</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3492552636912754</v>
+        <v>0.9432493237874623</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3392027060112525</v>
+        <v>0.003788576586712262</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3463746538693021</v>
+        <v>0.3893693197195044</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.74758688393466</v>
+        <v>0.8586014075107775</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.8290053041238201</v>
+        <v>1.367975967478227</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.2168102686524335</v>
+        <v>0.03199327983842466</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.622895595873763</v>
+        <v>0.6157401537000264</v>
       </c>
       <c r="AM1" t="n">
-        <v>1.058990543725177</v>
+        <v>1.534162522068748</v>
       </c>
       <c r="AN1" t="n">
-        <v>1.086332268363805</v>
+        <v>1.847440586935873</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.2598065123076124</v>
+        <v>0.06569167126321684</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.8037429710484388</v>
+        <v>0.9832649467379078</v>
       </c>
       <c r="AQ1" t="n">
-        <v>1.27354891020983</v>
+        <v>2.856261910602901</v>
       </c>
       <c r="AR1" t="n">
-        <v>1.389503215274506</v>
+        <v>2.879806946593181</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.1043926547642608</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>1.399170849476152</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>3.638645434221706</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>3.102325520271284</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.1533671634395139</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>2.013692840464205</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>3.762302585692571</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>4.154220043787162</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.2191178400908348</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>2.379055097176765</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>4.140924303433055</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>4.390944427025634</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>0.2952513931056928</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>3.179158309836906</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>5.521232404577408</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>4.471020558249667</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>0.3963728677610099</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>3.766384289432155</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>3.703242055559915</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>3.759013555732153</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>0.5279849002799099</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>3.759312721108347</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>6.211386455149581</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>3.807278454813366</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>0.644195144401426</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>3.621942620430136</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>5.854592569367519</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>6.586416640538454</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>0.8472871857355317</v>
+      </c>
+      <c r="BV1" t="n">
+        <v>3.73893343005073</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>4.388369870893191</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>3.815527771235574</v>
+      </c>
+      <c r="BY1" t="n">
+        <v>1.214118569996644</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>5.012018074309543</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>5.638520333598233</v>
+      </c>
+      <c r="CB1" t="n">
+        <v>5.076371273084485</v>
+      </c>
+      <c r="CC1" t="n">
+        <v>1.854269907993748</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>5.087370361647423</v>
+      </c>
+      <c r="CE1" t="n">
+        <v>4.955741054099247</v>
+      </c>
+      <c r="CF1" t="n">
+        <v>5.961360744332905</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>2.616868351334843</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>4.89921844720897</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>4.641344697671491</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>4.926173888112401</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>4.851527245628946</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>4.180709675091176</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>4.965693843715677</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>6.568231850816532</v>
+      </c>
+      <c r="CO1" t="n">
+        <v>4.610974737152762</v>
+      </c>
+      <c r="CP1" t="n">
+        <v>4.443654095395051</v>
+      </c>
+      <c r="CQ1" t="n">
+        <v>4.475071834376762</v>
+      </c>
+      <c r="CR1" t="n">
+        <v>7.389260832168592</v>
+      </c>
+      <c r="CS1" t="n">
+        <v>6.607654738799005</v>
+      </c>
+      <c r="CT1" t="n">
+        <v>6.532291262945296</v>
+      </c>
+      <c r="CU1" t="n">
+        <v>6.620925124954236</v>
+      </c>
+      <c r="CV1" t="n">
+        <v>7.448540765573508</v>
+      </c>
+      <c r="CW1" t="n">
+        <v>4.413739927307804</v>
+      </c>
+      <c r="CX1" t="n">
+        <v>5.016403447590108</v>
+      </c>
+      <c r="CY1" t="n">
+        <v>6.188459596895341</v>
+      </c>
+      <c r="CZ1" t="n">
+        <v>7.945110149945071</v>
+      </c>
+      <c r="DA1" t="n">
+        <v>5.884986569743734</v>
+      </c>
+      <c r="DB1" t="n">
+        <v>7.348827670813447</v>
+      </c>
+      <c r="DC1" t="n">
+        <v>7.433611581148877</v>
+      </c>
+      <c r="DD1" t="n">
+        <v>8.276156406192781</v>
+      </c>
+      <c r="DE1" t="n">
+        <v>7.929185686558799</v>
+      </c>
+      <c r="DF1" t="n">
+        <v>4.768556385990808</v>
+      </c>
+      <c r="DG1" t="n">
+        <v>6.620609890961704</v>
+      </c>
+      <c r="DH1" t="n">
+        <v>8.512618017798289</v>
+      </c>
+      <c r="DI1" t="n">
+        <v>6.147966316203665</v>
+      </c>
+      <c r="DJ1" t="n">
+        <v>7.838749515534341</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>8.689964226502418</v>
+      </c>
+      <c r="DL1" t="n">
+        <v>8.82790016660563</v>
+      </c>
+      <c r="DM1" t="n">
+        <v>6.962017046507253</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>5.643453878538867</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>7.426151516274399</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>8.938248918688199</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>8.259568423498747</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>4.937656074079891</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>9.028534261301211</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>8.495556092741566</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>5.851159827857591</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>4.789343401192917</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>7.061983883692482</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>4.412770895055059</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>7.881878220979836</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>4.279455906295775</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>6.358075181321075</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>9.103772046812056</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>8.21028981352066</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>8.672546844673681</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>8.44486952247839</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>8.810206318398659</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>6.385791201590534</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>6.706530837374514</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>8.620804304196689</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>8.920333897378642</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>7.184015101789338</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>7.153632893199476</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>9.010438280180448</v>
+      </c>
+      <c r="EN1" t="n">
+        <v>9.167434788398152</v>
+      </c>
+      <c r="EO1" t="n">
+        <v>5.883694526740063</v>
+      </c>
+      <c r="EP1" t="n">
+        <v>8.757642467755367</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>7.1528345789862</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>5.924872127193412</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>9.085525265848617</v>
+      </c>
+      <c r="ET1" t="n">
+        <v>6.619156342582565</v>
+      </c>
+      <c r="EU1" t="n">
+        <v>9.222002852614805</v>
+      </c>
+      <c r="EV1" t="n">
+        <v>9.149060407567836</v>
+      </c>
+      <c r="EW1" t="n">
+        <v>6.582554806339793</v>
+      </c>
+      <c r="EX1" t="n">
+        <v>9.203519100470027</v>
+      </c>
+      <c r="EY1" t="n">
+        <v>8.867112998602305</v>
+      </c>
+      <c r="EZ1" t="n">
+        <v>9.250716634318589</v>
+      </c>
+      <c r="FA1" t="n">
+        <v>9.269295174935907</v>
+      </c>
+      <c r="FB1" t="n">
+        <v>7.451700930416118</v>
+      </c>
+      <c r="FC1" t="n">
+        <v>9.292014476436083</v>
+      </c>
+      <c r="FD1" t="n">
+        <v>6.665481143092583</v>
+      </c>
+      <c r="FE1" t="n">
+        <v>7.060433432088066</v>
+      </c>
+      <c r="FF1" t="n">
+        <v>9.310675956966874</v>
+      </c>
+      <c r="FG1" t="n">
+        <v>7.662949441908625</v>
+      </c>
+      <c r="FH1" t="n">
+        <v>7.109846552632082</v>
+      </c>
+      <c r="FI1" t="n">
+        <v>9.328453748892695</v>
+      </c>
+      <c r="FJ1" t="n">
+        <v>7.406090158991751</v>
+      </c>
+      <c r="FK1" t="n">
+        <v>9.347188411700076</v>
+      </c>
+      <c r="FL1" t="n">
+        <v>9.360844213298572</v>
+      </c>
+      <c r="FM1" t="n">
+        <v>9.389825155135409</v>
+      </c>
+      <c r="FN1" t="n">
+        <v>9.415908002788562</v>
+      </c>
+      <c r="FO1" t="n">
+        <v>8.956679796567986</v>
+      </c>
+      <c r="FP1" t="n">
+        <v>9.439506769712846</v>
+      </c>
+      <c r="FQ1" t="n">
+        <v>9.379643927018483</v>
+      </c>
+      <c r="FR1" t="n">
+        <v>7.664606671285151</v>
+      </c>
+      <c r="FS1" t="n">
+        <v>9.031318794872718</v>
+      </c>
+      <c r="FT1" t="n">
+        <v>9.094474870361337</v>
+      </c>
+      <c r="FU1" t="n">
+        <v>9.148608649351583</v>
+      </c>
+      <c r="FV1" t="n">
+        <v>9.408683072303369</v>
+      </c>
+      <c r="FW1" t="n">
+        <v>7.629690217585276</v>
+      </c>
+      <c r="FX1" t="n">
+        <v>7.354618158425065</v>
+      </c>
+      <c r="FY1" t="n">
+        <v>9.460960194189465</v>
+      </c>
+      <c r="FZ1" t="n">
+        <v>3.650826734077576</v>
+      </c>
+      <c r="GA1" t="n">
+        <v>9.434818303059762</v>
+      </c>
+      <c r="GB1" t="n">
+        <v>7.982239001988146</v>
+      </c>
+      <c r="GC1" t="n">
+        <v>9.458464464220311</v>
+      </c>
+      <c r="GD1" t="n">
+        <v>9.19552459114313</v>
+      </c>
+      <c r="GE1" t="n">
+        <v>9.236576040210734</v>
+      </c>
+      <c r="GF1" t="n">
+        <v>9.480548103494204</v>
+      </c>
+      <c r="GG1" t="n">
+        <v>9.272797907035088</v>
+      </c>
+      <c r="GH1" t="n">
+        <v>7.025511083241022</v>
+      </c>
+      <c r="GI1" t="n">
+        <v>7.947593976651325</v>
+      </c>
+      <c r="GJ1" t="n">
+        <v>7.564750105808637</v>
+      </c>
+      <c r="GK1" t="n">
+        <v>8.165364078681606</v>
+      </c>
+      <c r="GL1" t="n">
+        <v>9.479960974366268</v>
+      </c>
+      <c r="GM1" t="n">
+        <v>8.174668090269931</v>
+      </c>
+      <c r="GN1" t="n">
+        <v>8.398660195215363</v>
+      </c>
+      <c r="GO1" t="n">
+        <v>9.498503687023549</v>
+      </c>
+      <c r="GP1" t="n">
+        <v>5.705941208394366</v>
+      </c>
+      <c r="GQ1" t="n">
+        <v>9.304995121990071</v>
+      </c>
+      <c r="GR1" t="n">
+        <v>8.210302973473519</v>
+      </c>
+      <c r="GS1" t="n">
+        <v>7.617692734962944</v>
+      </c>
+      <c r="GT1" t="n">
+        <v>9.515022823870547</v>
+      </c>
+      <c r="GU1" t="n">
+        <v>8.344973675483887</v>
+      </c>
+      <c r="GV1" t="n">
+        <v>9.499588222760401</v>
+      </c>
+      <c r="GW1" t="n">
+        <v>7.776394666941336</v>
+      </c>
+      <c r="GX1" t="n">
+        <v>9.530271257883157</v>
+      </c>
+      <c r="GY1" t="n">
+        <v>9.51757986712169</v>
+      </c>
+      <c r="GZ1" t="n">
+        <v>9.333803156423475</v>
+      </c>
+      <c r="HA1" t="n">
+        <v>9.544390178265207</v>
+      </c>
+      <c r="HB1" t="n">
+        <v>9.359730387413542</v>
+      </c>
+      <c r="HC1" t="n">
+        <v>9.383188358309313</v>
+      </c>
+      <c r="HD1" t="n">
+        <v>9.404513786396381</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>9.557500604334251</v>
+      </c>
+      <c r="HF1" t="n">
+        <v>6.419183859443654</v>
+      </c>
+      <c r="HG1" t="n">
+        <v>9.534132179934076</v>
+      </c>
+      <c r="HH1" t="n">
+        <v>8.477433575094739</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>9.54941123791474</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>8.381350952087551</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>9.563558513822761</v>
+      </c>
+      <c r="HL1" t="n">
+        <v>9.423984829432399</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>7.899829502924532</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>7.722349066346316</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>9.576695270023068</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>9.441833285548746</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>9.588926043037146</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>5.574279566788244</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>9.600341431183621</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>7.73557449611917</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>9.569706863088191</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>9.611020342675481</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>9.6210318221991</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>9.630436545387957</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>9.581099371258537</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>5.966762445835701</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>9.639288049565701</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>8.583401494783423</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>9.647633753504717</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>7.998577371711087</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>9.655515807224901</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>9.45825386517579</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>9.662971803987237</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>7.844926035653401</v>
+      </c>
+      <c r="II1" t="n">
+        <v>9.670035379867347</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>9.676736721086936</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>9.59175687890176</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>8.670102519983256</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>9.683102995245545</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>9.689158719445198</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>9.694926075825821</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>9.601748292317286</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>9.700425183072463</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>9.47341132329306</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>9.7056743308988</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>7.942987611099067</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>9.710690183266188</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>9.715487955095865</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>9.72008156642215</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>9.724483777276506</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>9.728706306055178</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>9.732759933682702</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>9.736654595520911</v>
+      </c>
+      <c r="JB1" t="n">
+        <v>9.740399462673036</v>
+      </c>
+      <c r="JC1" t="n">
+        <v>9.744003014083566</v>
+      </c>
+      <c r="JD1" t="n">
+        <v>9.48744600673497</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>9.747473100627042</v>
+      </c>
+      <c r="JF1" t="n">
+        <v>9.611134165525801</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>9.750817002205302</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>9.619967928545588</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>9.754041478727196</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>8.023219809190977</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>9.757152815722005</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>9.760156865234235</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>9.763059082559611</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>8.742353374316455</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>9.76586455930747</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>9.500478212788174</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>9.76857805321114</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>6.712607751565157</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>9.771204015053403</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>8.573632282615677</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>9.773746613027656</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>9.776209754815213</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>9.512611646010127</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>9.778597107624691</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>9.780912116409642</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>7.956590910293999</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>8.803488712598387</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>9.783158020454739</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>9.785337868498512</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>9.628296905107096</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>9.787454532541014</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>9.523936183683951</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>9.789510720468023</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>8.079371082536451</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>9.791508987608349</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>9.793451747328117</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>9.795341280754181</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>9.534530106023981</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>8.855890431125761</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>9.797179745709281</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>9.79896918493224</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>9.636163160748527</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>9.800711533649332</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>9.544461908217754</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>9.802408626555591</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>8.146699174890921</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>9.804062204259127</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>9.805673919235993</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>9.807245341338437</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>8.090079974267566</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>9.808777962895133</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>9.810273203438262</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>9.81173241408878</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>9.553791783005849</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>9.813156881628569</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>9.562572841629935</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>9.814547832285072</v>
+      </c>
+      <c r="LF1" t="n">
+        <v>8.51438826878735</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>9.815906435251895</v>
+      </c>
+      <c r="LH1" t="n">
+        <v>9.817233805966593</v>
+      </c>
+      <c r="LI1" t="n">
+        <v>9.818531009165062</v>
+      </c>
+      <c r="LJ1" t="n">
+        <v>9.570852125475501</v>
+      </c>
+      <c r="LK1" t="n">
+        <v>9.819799061729851</v>
+      </c>
+      <c r="LL1" t="n">
+        <v>9.643604213382314</v>
+      </c>
+      <c r="LM1" t="n">
+        <v>9.821038935348758</v>
+      </c>
+      <c r="LN1" t="n">
+        <v>9.822251558998014</v>
+      </c>
+      <c r="LO1" t="n">
+        <v>9.823437821263591</v>
+      </c>
+      <c r="LP1" t="n">
+        <v>9.824598572512706</v>
+      </c>
+      <c r="LQ1" t="n">
+        <v>9.825734626926735</v>
+      </c>
+      <c r="LR1" t="n">
+        <v>9.826846764405726</v>
+      </c>
+      <c r="LS1" t="n">
+        <v>9.827935732353911</v>
+      </c>
+      <c r="LT1" t="n">
+        <v>9.829002247354717</v>
+      </c>
+      <c r="LU1" t="n">
+        <v>9.830046996743256</v>
+      </c>
+      <c r="LV1" t="n">
+        <v>9.57867144910743</v>
+      </c>
+      <c r="LW1" t="n">
+        <v>9.831070640083535</v>
+      </c>
+      <c r="LX1" t="n">
+        <v>9.832073810557016</v>
+      </c>
+      <c r="LY1" t="n">
+        <v>9.833057116268641</v>
+      </c>
+      <c r="LZ1" t="n">
+        <v>9.834021141476118</v>
+      </c>
+      <c r="MA1" t="n">
+        <v>9.834966447747528</v>
+      </c>
+      <c r="MB1" t="n">
+        <v>9.835893575052182</v>
+      </c>
+      <c r="MC1" t="n">
+        <v>9.836803042789123</v>
+      </c>
+      <c r="MD1" t="n">
+        <v>9.837695350757441</v>
+      </c>
+      <c r="ME1" t="n">
+        <v>9.838570980072157</v>
+      </c>
+      <c r="MF1" t="n">
+        <v>9.839430394029185</v>
+      </c>
+      <c r="MG1" t="n">
+        <v>9.840274038922784</v>
+      </c>
+      <c r="MH1" t="n">
+        <v>9.586068106597088</v>
+      </c>
+      <c r="MI1" t="n">
+        <v>9.841102344818314</v>
+      </c>
+      <c r="MJ1" t="n">
+        <v>9.841915726283293</v>
+      </c>
+      <c r="MK1" t="n">
+        <v>9.59307546632413</v>
+      </c>
+      <c r="ML1" t="n">
+        <v>9.842714583079259</v>
+      </c>
+      <c r="MM1" t="n">
+        <v>9.843499300816891</v>
+      </c>
+      <c r="MN1" t="n">
+        <v>9.84427025157666</v>
+      </c>
+      <c r="MO1" t="n">
+        <v>8.901305253849472</v>
+      </c>
+      <c r="MP1" t="n">
+        <v>8.941043223732727</v>
+      </c>
+      <c r="MQ1" t="n">
+        <v>9.845027794497145</v>
+      </c>
+      <c r="MR1" t="n">
+        <v>9.845772276332777</v>
+      </c>
+      <c r="MS1" t="n">
+        <v>9.846504031983196</v>
+      </c>
+      <c r="MT1" t="n">
+        <v>9.599723474270306</v>
+      </c>
+      <c r="MU1" t="n">
+        <v>9.847223384995464</v>
+      </c>
+      <c r="MV1" t="n">
+        <v>9.606039081819166</v>
+      </c>
+      <c r="MW1" t="n">
+        <v>9.847930648041151</v>
+      </c>
+      <c r="MX1" t="n">
+        <v>8.122353220925122</v>
+      </c>
+      <c r="MY1" t="n">
+        <v>9.848626123369401</v>
+      </c>
+      <c r="MZ1" t="n">
+        <v>9.849310103237674</v>
+      </c>
+      <c r="NA1" t="n">
+        <v>9.849982870321236</v>
+      </c>
+      <c r="NB1" t="n">
+        <v>9.850644698102613</v>
+      </c>
+      <c r="NC1" t="n">
+        <v>9.851295851242368</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>9.851936585931879</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>9.852567150229488</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>8.9761061383356</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>9.853187784380687</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>9.853798721123265</v>
+      </c>
+      <c r="NI1" t="n">
+        <v>9.854400185978363</v>
+      </c>
+      <c r="NJ1" t="n">
+        <v>9.612046610951007</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>9.854992397528012</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>9.855575567679946</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>9.856149901920485</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>9.617768067267052</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>9.856715599555899</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>9.623223409335836</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>9.857272853943037</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>9.857821852709611</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>9.858362777964913</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>9.628430781310586</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>9.858895806501172</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>9.859421109986167</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>9.859938855147643</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>9.860449203949676</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>9.860952313761596</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>9.861448337519844</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>9.86193742388285</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>9.862419717379716</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>9.862895358552493</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>9.633406714530897</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>9.863364484092758</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>9.863827226972614</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>9.864283716570302</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>9.864734078790852</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>9.865178436181781</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>9.638166302828582</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>9.642723355454031</v>
+      </c>
+      <c r="OL1" t="n">
+        <v>9.865616908044368</v>
+      </c>
+      <c r="OM1" t="n">
+        <v>9.866049610540337</v>
+      </c>
+      <c r="ON1" t="n">
+        <v>9.866476656794525</v>
+      </c>
+      <c r="OO1" t="n">
+        <v>9.866898156993463</v>
+      </c>
+      <c r="OP1" t="n">
+        <v>9.647090530886755</v>
+      </c>
+      <c r="OQ1" t="n">
+        <v>9.867314218480152</v>
+      </c>
+      <c r="OR1" t="n">
+        <v>9.867724945845229</v>
+      </c>
+      <c r="OS1" t="n">
+        <v>9.868130441014564</v>
+      </c>
+      <c r="OT1" t="n">
+        <v>9.868530803333655</v>
+      </c>
+      <c r="OU1" t="n">
+        <v>9.868926129648735</v>
+      </c>
+      <c r="OV1" t="n">
+        <v>9.651279454261001</v>
+      </c>
+      <c r="OW1" t="n">
+        <v>9.869316514384884</v>
+      </c>
+      <c r="OX1" t="n">
+        <v>9.655300820700278</v>
+      </c>
+      <c r="OY1" t="n">
+        <v>9.869702049621189</v>
+      </c>
+      <c r="OZ1" t="n">
+        <v>9.870082825163232</v>
+      </c>
+      <c r="PA1" t="n">
+        <v>9.870458928612734</v>
+      </c>
+      <c r="PB1" t="n">
+        <v>9.870830445434796</v>
+      </c>
+      <c r="PC1" t="n">
+        <v>9.871197459022655</v>
+      </c>
+      <c r="PD1" t="n">
+        <v>9.007273173538147</v>
+      </c>
+      <c r="PE1" t="n">
+        <v>9.871560050760054</v>
+      </c>
+      <c r="PF1" t="n">
+        <v>9.871918300081443</v>
+      </c>
+      <c r="PG1" t="n">
+        <v>9.872272284529954</v>
+      </c>
+      <c r="PH1" t="n">
+        <v>9.659164486494873</v>
+      </c>
+      <c r="PI1" t="n">
+        <v>9.872622079813384</v>
+      </c>
+      <c r="PJ1" t="n">
+        <v>8.203669099190842</v>
+      </c>
+      <c r="PK1" t="n">
+        <v>9.872967759858195</v>
+      </c>
+      <c r="PL1" t="n">
+        <v>9.035159468193061</v>
+      </c>
+      <c r="PM1" t="n">
+        <v>9.873309396861552</v>
+      </c>
+      <c r="PN1" t="n">
+        <v>9.650653631666929</v>
+      </c>
+      <c r="PO1" t="n">
+        <v>9.873647061341613</v>
+      </c>
+      <c r="PP1" t="n">
+        <v>9.873980822186063</v>
+      </c>
+      <c r="PQ1" t="n">
+        <v>9.874310746698967</v>
+      </c>
+      <c r="PR1" t="n">
+        <v>8.252500462876517</v>
+      </c>
+      <c r="PS1" t="n">
+        <v>9.87463690064601</v>
+      </c>
+      <c r="PT1" t="n">
+        <v>9.662879549758916</v>
+      </c>
+      <c r="PU1" t="n">
+        <v>9.874959348298189</v>
+      </c>
+      <c r="PV1" t="n">
+        <v>8.294820978070756</v>
+      </c>
+      <c r="PW1" t="n">
+        <v>9.875278152474094</v>
+      </c>
+      <c r="PX1" t="n">
+        <v>9.666454421956386</v>
+      </c>
+      <c r="PY1" t="n">
+        <v>9.875593374580582</v>
+      </c>
+      <c r="PZ1" t="n">
+        <v>9.657341541321584</v>
+      </c>
+      <c r="QA1" t="n">
+        <v>9.875905074652383</v>
+      </c>
+      <c r="QB1" t="n">
+        <v>9.060257133382487</v>
+      </c>
+      <c r="QC1" t="n">
+        <v>9.876213311390037</v>
+      </c>
+      <c r="QD1" t="n">
+        <v>8.331851428865715</v>
+      </c>
+      <c r="QE1" t="n">
+        <v>9.876518142196892</v>
+      </c>
+      <c r="QF1" t="n">
+        <v>9.876819623214665</v>
+      </c>
+      <c r="QG1" t="n">
+        <v>9.877117809357925</v>
+      </c>
+      <c r="QH1" t="n">
+        <v>8.364525356037738</v>
+      </c>
+      <c r="QI1" t="n">
+        <v>9.877412754347464</v>
+      </c>
+      <c r="QJ1" t="n">
+        <v>9.669896891479876</v>
+      </c>
+      <c r="QK1" t="n">
+        <v>9.877704510742502</v>
+      </c>
+      <c r="QL1" t="n">
+        <v>9.87799312997201</v>
+      </c>
+      <c r="QM1" t="n">
+        <v>9.878278662364846</v>
+      </c>
+      <c r="QN1" t="n">
+        <v>9.87856115717903</v>
+      </c>
+      <c r="QO1" t="n">
+        <v>9.878840662630108</v>
+      </c>
+      <c r="QP1" t="n">
+        <v>9.663695055493509</v>
+      </c>
+      <c r="QQ1" t="n">
+        <v>9.879117225918533</v>
+      </c>
+      <c r="QR1" t="n">
+        <v>9.673214180293419</v>
+      </c>
+      <c r="QS1" t="n">
+        <v>9.879390893256286</v>
+      </c>
+      <c r="QT1" t="n">
+        <v>9.879661709892629</v>
+      </c>
+      <c r="QU1" t="n">
+        <v>9.879929720138945</v>
+      </c>
+      <c r="QV1" t="n">
+        <v>9.880194967393027</v>
+      </c>
+      <c r="QW1" t="n">
+        <v>9.880457494162441</v>
+      </c>
+      <c r="QX1" t="n">
+        <v>9.880717342087285</v>
+      </c>
+      <c r="QY1" t="n">
+        <v>9.880974551962126</v>
+      </c>
+      <c r="QZ1" t="n">
+        <v>9.881229163757435</v>
+      </c>
+      <c r="RA1" t="n">
+        <v>9.881481216640205</v>
+      </c>
+      <c r="RB1" t="n">
+        <v>9.881730748994176</v>
+      </c>
+      <c r="RC1" t="n">
+        <v>9.881977798439138</v>
+      </c>
+      <c r="RD1" t="n">
+        <v>9.882222401849976</v>
+      </c>
+      <c r="RE1" t="n">
+        <v>9.882464595375009</v>
+      </c>
+      <c r="RF1" t="n">
+        <v>9.882704414453727</v>
+      </c>
+      <c r="RG1" t="n">
+        <v>9.882941893834095</v>
+      </c>
+      <c r="RH1" t="n">
+        <v>9.676412994506476</v>
+      </c>
+      <c r="RI1" t="n">
+        <v>9.883177067589431</v>
+      </c>
+      <c r="RJ1" t="n">
+        <v>9.883409969134551</v>
+      </c>
+      <c r="RK1" t="n">
+        <v>9.883640631241757</v>
+      </c>
+      <c r="RL1" t="n">
+        <v>9.67949956962434</v>
+      </c>
+      <c r="RM1" t="n">
+        <v>9.883869086056052</v>
+      </c>
+      <c r="RN1" t="n">
+        <v>9.884095365110225</v>
+      </c>
+      <c r="RO1" t="n">
+        <v>9.884319499339242</v>
+      </c>
+      <c r="RP1" t="n">
+        <v>9.082964544744344</v>
+      </c>
+      <c r="RQ1" t="n">
+        <v>9.884541519094395</v>
+      </c>
+      <c r="RR1" t="n">
+        <v>9.669738642144843</v>
+      </c>
+      <c r="RS1" t="n">
+        <v>9.884761454157006</v>
+      </c>
+      <c r="RT1" t="n">
+        <v>9.68247971111745</v>
+      </c>
+      <c r="RU1" t="n">
+        <v>9.884979333751749</v>
+      </c>
+      <c r="RV1" t="n">
+        <v>9.88519518655955</v>
+      </c>
+      <c r="RW1" t="n">
+        <v>9.885409040730254</v>
+      </c>
+      <c r="RX1" t="n">
+        <v>9.885620923894781</v>
+      </c>
+      <c r="RY1" t="n">
+        <v>9.885830863177047</v>
+      </c>
+      <c r="RZ1" t="n">
+        <v>9.886038885205604</v>
+      </c>
+      <c r="SA1" t="n">
+        <v>9.88624501612483</v>
+      </c>
+      <c r="SB1" t="n">
+        <v>9.886449281605843</v>
+      </c>
+      <c r="SC1" t="n">
+        <v>9.886651706857316</v>
+      </c>
+      <c r="SD1" t="n">
+        <v>9.675494438955642</v>
+      </c>
+      <c r="SE1" t="n">
+        <v>9.886852316635677</v>
+      </c>
+      <c r="SF1" t="n">
+        <v>9.887051135255302</v>
+      </c>
+      <c r="SG1" t="n">
+        <v>9.887248186598292</v>
+      </c>
+      <c r="SH1" t="n">
+        <v>9.887443494124105</v>
+      </c>
+      <c r="SI1" t="n">
+        <v>9.887637080878756</v>
+      </c>
+      <c r="SJ1" t="n">
+        <v>9.887828969504</v>
+      </c>
+      <c r="SK1" t="n">
+        <v>9.888019182246049</v>
+      </c>
+      <c r="SL1" t="n">
+        <v>9.888207740964235</v>
+      </c>
+      <c r="SM1" t="n">
+        <v>9.888394667139412</v>
+      </c>
+      <c r="SN1" t="n">
+        <v>9.888579981882057</v>
+      </c>
+      <c r="SO1" t="n">
+        <v>9.888763705940212</v>
+      </c>
+      <c r="SP1" t="n">
+        <v>9.888945859707261</v>
+      </c>
+      <c r="SQ1" t="n">
+        <v>9.889126463229482</v>
+      </c>
+      <c r="SR1" t="n">
+        <v>9.889305536213403</v>
+      </c>
+      <c r="SS1" t="n">
+        <v>9.88948309803289</v>
+      </c>
+      <c r="ST1" t="n">
+        <v>9.889659167736244</v>
+      </c>
+      <c r="SU1" t="n">
+        <v>9.889833764052952</v>
+      </c>
+      <c r="SV1" t="n">
+        <v>9.685358830865036</v>
+      </c>
+      <c r="SW1" t="n">
+        <v>9.890006905400355</v>
+      </c>
+      <c r="SX1" t="n">
+        <v>9.890178609890123</v>
+      </c>
+      <c r="SY1" t="n">
+        <v>9.890348895334498</v>
+      </c>
+      <c r="SZ1" t="n">
+        <v>9.890517779252605</v>
+      </c>
+      <c r="TA1" t="n">
+        <v>9.890685278876278</v>
+      </c>
+      <c r="TB1" t="n">
+        <v>9.89085141115609</v>
+      </c>
+      <c r="TC1" t="n">
+        <v>9.89101619276698</v>
+      </c>
+      <c r="TD1" t="n">
+        <v>9.891179640113801</v>
+      </c>
+      <c r="TE1" t="n">
+        <v>9.891341769336846</v>
+      </c>
+      <c r="TF1" t="n">
+        <v>9.891502596317141</v>
+      </c>
+      <c r="TG1" t="n">
+        <v>9.8916621366816</v>
+      </c>
+      <c r="TH1" t="n">
+        <v>9.688141979954365</v>
+      </c>
+      <c r="TI1" t="n">
+        <v>9.891820405808083</v>
+      </c>
+      <c r="TJ1" t="n">
+        <v>9.891977418830411</v>
+      </c>
+      <c r="TK1" t="n">
+        <v>9.892133190643071</v>
+      </c>
+      <c r="TL1" t="n">
+        <v>9.892287735905997</v>
+      </c>
+      <c r="TM1" t="n">
+        <v>9.892441069049234</v>
+      </c>
+      <c r="TN1" t="n">
+        <v>9.892593204277286</v>
+      </c>
+      <c r="TO1" t="n">
+        <v>9.892744155573608</v>
+      </c>
+      <c r="TP1" t="n">
+        <v>9.892893936704855</v>
+      </c>
+      <c r="TQ1" t="n">
+        <v>9.893042561225016</v>
+      </c>
+      <c r="TR1" t="n">
+        <v>9.893190042479674</v>
+      </c>
+      <c r="TS1" t="n">
+        <v>9.893336393609742</v>
+      </c>
+      <c r="TT1" t="n">
+        <v>9.690833878253882</v>
+      </c>
+      <c r="TU1" t="n">
+        <v>9.89348162755563</v>
+      </c>
+      <c r="TV1" t="n">
+        <v>9.893625757060853</v>
+      </c>
+      <c r="TW1" t="n">
+        <v>9.893768794675903</v>
+      </c>
+      <c r="TX1" t="n">
+        <v>9.693438941124377</v>
+      </c>
+      <c r="TY1" t="n">
+        <v>9.893910752761782</v>
+      </c>
+      <c r="TZ1" t="n">
+        <v>9.695961303586291</v>
+      </c>
+      <c r="UA1" t="n">
+        <v>9.894051643493619</v>
+      </c>
+      <c r="UB1" t="n">
+        <v>9.894191478864157</v>
+      </c>
+      <c r="UC1" t="n">
+        <v>9.894330270687174</v>
+      </c>
+      <c r="UD1" t="n">
+        <v>9.894468030600736</v>
+      </c>
+      <c r="UE1" t="n">
+        <v>9.894604770070458</v>
+      </c>
+      <c r="UF1" t="n">
+        <v>9.698404842221269</v>
+      </c>
+      <c r="UG1" t="n">
+        <v>9.894740500392839</v>
+      </c>
+      <c r="UH1" t="n">
+        <v>9.894875232698132</v>
+      </c>
+      <c r="UI1" t="n">
+        <v>9.895008977953552</v>
+      </c>
+      <c r="UJ1" t="n">
+        <v>9.895141746966253</v>
+      </c>
+      <c r="UK1" t="n">
+        <v>9.895273550386133</v>
+      </c>
+      <c r="UL1" t="n">
+        <v>9.895404398708743</v>
+      </c>
+      <c r="UM1" t="n">
+        <v>9.895534302278136</v>
+      </c>
+      <c r="UN1" t="n">
+        <v>9.895663271289479</v>
+      </c>
+      <c r="UO1" t="n">
+        <v>9.895791315791779</v>
+      </c>
+      <c r="UP1" t="n">
+        <v>9.700773195052088</v>
+      </c>
+      <c r="UQ1" t="n">
+        <v>9.895918445690493</v>
+      </c>
+      <c r="UR1" t="n">
+        <v>9.896044670750069</v>
+      </c>
+      <c r="US1" t="n">
+        <v>9.896170000596465</v>
+      </c>
+      <c r="UT1" t="n">
+        <v>9.896294444719553</v>
+      </c>
+      <c r="UU1" t="n">
+        <v>9.896418012475577</v>
+      </c>
+      <c r="UV1" t="n">
+        <v>9.896540713089468</v>
+      </c>
+      <c r="UW1" t="n">
+        <v>9.896662555657084</v>
+      </c>
+      <c r="UX1" t="n">
+        <v>9.896783549147591</v>
+      </c>
+      <c r="UY1" t="n">
+        <v>9.896903702405526</v>
+      </c>
+      <c r="UZ1" t="n">
+        <v>9.897023024153029</v>
+      </c>
+      <c r="VA1" t="n">
+        <v>9.89714152299192</v>
+      </c>
+      <c r="VB1" t="n">
+        <v>9.897259207405794</v>
+      </c>
+      <c r="VC1" t="n">
+        <v>9.897376085762051</v>
+      </c>
+      <c r="VD1" t="n">
+        <v>9.897492166313803</v>
+      </c>
+      <c r="VE1" t="n">
+        <v>9.897607457201977</v>
+      </c>
+      <c r="VF1" t="n">
+        <v>9.897721966456977</v>
+      </c>
+      <c r="VG1" t="n">
+        <v>9.897835702000821</v>
+      </c>
+      <c r="VH1" t="n">
+        <v>9.897948671648724</v>
+      </c>
+      <c r="VI1" t="n">
+        <v>9.898060883111098</v>
+      </c>
+      <c r="VJ1" t="n">
+        <v>9.680982524286874</v>
+      </c>
+      <c r="VK1" t="n">
+        <v>9.898172343995107</v>
+      </c>
+      <c r="VL1" t="n">
+        <v>9.898283061806564</v>
+      </c>
+      <c r="VM1" t="n">
+        <v>9.898393043951478</v>
+      </c>
+      <c r="VN1" t="n">
+        <v>8.39356884685729</v>
+      </c>
+      <c r="VO1" t="n">
+        <v>9.898502297737849</v>
+      </c>
+      <c r="VP1" t="n">
+        <v>9.898610830377105</v>
+      </c>
+      <c r="VQ1" t="n">
+        <v>9.898718648985826</v>
+      </c>
+      <c r="VR1" t="n">
+        <v>4.867768978770095</v>
+      </c>
+      <c r="VS1" t="n">
+        <v>9.898825760587291</v>
+      </c>
+      <c r="VT1" t="n">
+        <v>9.898932172112938</v>
+      </c>
+      <c r="VU1" t="n">
+        <v>9.899037890403857</v>
+      </c>
+      <c r="VV1" t="n">
+        <v>9.899142922212405</v>
+      </c>
+      <c r="VW1" t="n">
+        <v>9.899247274203406</v>
+      </c>
+      <c r="VX1" t="n">
+        <v>9.899350952955732</v>
+      </c>
+      <c r="VY1" t="n">
+        <v>9.899453964963687</v>
+      </c>
+      <c r="VZ1" t="n">
+        <v>9.686221151193953</v>
+      </c>
+      <c r="WA1" t="n">
+        <v>9.89955631663827</v>
+      </c>
+      <c r="WB1" t="n">
+        <v>9.89965801430855</v>
+      </c>
+      <c r="WC1" t="n">
+        <v>9.899759064222932</v>
+      </c>
+      <c r="WD1" t="n">
+        <v>9.899859472550586</v>
+      </c>
+      <c r="WE1" t="n">
+        <v>9.899959245382496</v>
+      </c>
+      <c r="WF1" t="n">
+        <v>9.691226950238498</v>
+      </c>
+      <c r="WG1" t="n">
+        <v>9.900058388732791</v>
+      </c>
+      <c r="WH1" t="n">
+        <v>8.419555128116912</v>
+      </c>
+      <c r="WI1" t="n">
+        <v>9.900156908540028</v>
+      </c>
+      <c r="WJ1" t="n">
+        <v>9.900254810668221</v>
+      </c>
+      <c r="WK1" t="n">
+        <v>9.900352100908108</v>
+      </c>
+      <c r="WL1" t="n">
+        <v>9.900448784978256</v>
+      </c>
+      <c r="WM1" t="n">
+        <v>9.900544868526246</v>
+      </c>
+      <c r="WN1" t="n">
+        <v>9.900640357129669</v>
+      </c>
+      <c r="WO1" t="n">
+        <v>9.90073525629729</v>
+      </c>
+      <c r="WP1" t="n">
+        <v>9.696015105846323</v>
+      </c>
+      <c r="WQ1" t="n">
+        <v>9.900829571470005</v>
+      </c>
+      <c r="WR1" t="n">
+        <v>9.700599510151687</v>
+      </c>
+      <c r="WS1" t="n">
+        <v>9.900923308022021</v>
+      </c>
+      <c r="WT1" t="n">
+        <v>9.901016471261816</v>
+      </c>
+      <c r="WU1" t="n">
+        <v>9.901109066433053</v>
+      </c>
+      <c r="WV1" t="n">
+        <v>8.442942781250569</v>
+      </c>
+      <c r="WW1" t="n">
+        <v>9.703069779615292</v>
+      </c>
+      <c r="WX1" t="n">
+        <v>9.901201098715715</v>
+      </c>
+      <c r="WY1" t="n">
+        <v>9.901292573226982</v>
+      </c>
+      <c r="WZ1" t="n">
+        <v>9.90138349502217</v>
+      </c>
+      <c r="XA1" t="n">
+        <v>9.103607645982397</v>
+      </c>
+      <c r="XB1" t="n">
+        <v>9.901473869095696</v>
+      </c>
+      <c r="XC1" t="n">
+        <v>9.901563700381995</v>
+      </c>
+      <c r="XD1" t="n">
+        <v>9.704992897610996</v>
+      </c>
+      <c r="XE1" t="n">
+        <v>9.12245569493888</v>
+      </c>
+      <c r="XF1" t="n">
+        <v>9.901652993756375</v>
+      </c>
+      <c r="XG1" t="n">
+        <v>9.90174175403599</v>
+      </c>
+      <c r="XH1" t="n">
+        <v>9.709206963133191</v>
+      </c>
+      <c r="XI1" t="n">
+        <v>9.901829985980639</v>
+      </c>
+      <c r="XJ1" t="n">
+        <v>9.901917694293532</v>
+      </c>
+      <c r="XK1" t="n">
+        <v>9.902004883622364</v>
+      </c>
+      <c r="XL1" t="n">
+        <v>9.902091558559846</v>
+      </c>
+      <c r="XM1" t="n">
+        <v>9.902177723644758</v>
+      </c>
+      <c r="XN1" t="n">
+        <v>9.902263383362614</v>
+      </c>
+      <c r="XO1" t="n">
+        <v>9.902348542146424</v>
+      </c>
+      <c r="XP1" t="n">
+        <v>8.464103038847687</v>
+      </c>
+      <c r="XQ1" t="n">
+        <v>9.139733073148992</v>
+      </c>
+      <c r="XR1" t="n">
+        <v>9.705297809415434</v>
+      </c>
+      <c r="XS1" t="n">
+        <v>9.902433204377603</v>
+      </c>
+      <c r="XT1" t="n">
+        <v>9.713252466034493</v>
+      </c>
+      <c r="XU1" t="n">
+        <v>9.155628261102295</v>
+      </c>
+      <c r="XV1" t="n">
+        <v>9.902517374386454</v>
+      </c>
+      <c r="XW1" t="n">
+        <v>9.902601056453273</v>
+      </c>
+      <c r="XX1" t="n">
+        <v>9.90268425480869</v>
+      </c>
+      <c r="XY1" t="n">
+        <v>9.707460308927336</v>
+      </c>
+      <c r="XZ1" t="n">
+        <v>9.90276697363468</v>
+      </c>
+      <c r="YA1" t="n">
+        <v>9.902849217065155</v>
+      </c>
+      <c r="YB1" t="n">
+        <v>9.902930989186519</v>
+      </c>
+      <c r="YC1" t="n">
+        <v>9.170300742289959</v>
+      </c>
+      <c r="YD1" t="n">
+        <v>9.709560127293965</v>
+      </c>
+      <c r="YE1" t="n">
+        <v>9.903012294038678</v>
+      </c>
+      <c r="YF1" t="n">
+        <v>9.717139321763199</v>
+      </c>
+      <c r="YG1" t="n">
+        <v>9.711599950850117</v>
+      </c>
+      <c r="YH1" t="n">
+        <v>9.183886373019277</v>
+      </c>
+      <c r="YI1" t="n">
+        <v>9.903093135615279</v>
+      </c>
+      <c r="YJ1" t="n">
+        <v>8.483339636663253</v>
+      </c>
+      <c r="YK1" t="n">
+        <v>9.713582314587788</v>
+      </c>
+      <c r="YL1" t="n">
+        <v>9.903173517864746</v>
+      </c>
+      <c r="YM1" t="n">
+        <v>9.903253444690737</v>
+      </c>
+      <c r="YN1" t="n">
+        <v>8.500903486842677</v>
+      </c>
+      <c r="YO1" t="n">
+        <v>9.196501601553644</v>
+      </c>
+      <c r="YP1" t="n">
+        <v>9.903332919952721</v>
+      </c>
+      <c r="YQ1" t="n">
+        <v>9.90341194746674</v>
+      </c>
+      <c r="YR1" t="n">
+        <v>9.720876683040801</v>
+      </c>
+      <c r="YS1" t="n">
+        <v>9.71550961266608</v>
+      </c>
+      <c r="YT1" t="n">
+        <v>9.903490531005943</v>
+      </c>
+      <c r="YU1" t="n">
+        <v>9.903568674301265</v>
+      </c>
+      <c r="YV1" t="n">
+        <v>9.903646381041863</v>
+      </c>
+      <c r="YW1" t="n">
+        <v>9.903723654875812</v>
+      </c>
+      <c r="YX1" t="n">
+        <v>8.517003682840485</v>
+      </c>
+      <c r="YY1" t="n">
+        <v>9.903800499410671</v>
+      </c>
+      <c r="YZ1" t="n">
+        <v>9.903876918214054</v>
+      </c>
+      <c r="ZA1" t="n">
+        <v>9.903952914814109</v>
+      </c>
+      <c r="ZB1" t="n">
+        <v>9.724473011817361</v>
+      </c>
+      <c r="ZC1" t="n">
+        <v>9.904028492700105</v>
+      </c>
+      <c r="ZD1" t="n">
+        <v>9.904103655322984</v>
+      </c>
+      <c r="ZE1" t="n">
+        <v>9.90417840609588</v>
+      </c>
+      <c r="ZF1" t="n">
+        <v>9.90425274839464</v>
+      </c>
+      <c r="ZG1" t="n">
+        <v>9.904326685558216</v>
+      </c>
+      <c r="ZH1" t="n">
+        <v>9.904400220889411</v>
+      </c>
+      <c r="ZI1" t="n">
+        <v>9.904473357655087</v>
+      </c>
+      <c r="ZJ1" t="n">
+        <v>9.904546099086925</v>
+      </c>
+      <c r="ZK1" t="n">
+        <v>9.904618448381656</v>
+      </c>
+      <c r="ZL1" t="n">
+        <v>9.904690408701688</v>
+      </c>
+      <c r="ZM1" t="n">
+        <v>9.904761983175465</v>
+      </c>
+      <c r="ZN1" t="n">
+        <v>9.904833174898078</v>
+      </c>
+      <c r="ZO1" t="n">
+        <v>9.904903986931522</v>
+      </c>
+      <c r="ZP1" t="n">
+        <v>9.904974422305177</v>
+      </c>
+      <c r="ZQ1" t="n">
+        <v>9.90504448401639</v>
+      </c>
+      <c r="ZR1" t="n">
+        <v>9.905114175030706</v>
+      </c>
+      <c r="ZS1" t="n">
+        <v>9.905183498282446</v>
+      </c>
+      <c r="ZT1" t="n">
+        <v>9.905252456674948</v>
+      </c>
+      <c r="ZU1" t="n">
+        <v>9.905321053081099</v>
+      </c>
+      <c r="ZV1" t="n">
+        <v>9.905389290343795</v>
+      </c>
+      <c r="ZW1" t="n">
+        <v>9.90545717127616</v>
+      </c>
+      <c r="ZX1" t="n">
+        <v>9.90552469866198</v>
+      </c>
+      <c r="ZY1" t="n">
+        <v>9.905591875256169</v>
+      </c>
+      <c r="ZZ1" t="n">
+        <v>9.905658703785125</v>
+      </c>
+      <c r="AAA1" t="n">
+        <v>9.905725186947009</v>
+      </c>
+      <c r="AAB1" t="n">
+        <v>9.727936143231826</v>
+      </c>
+      <c r="AAC1" t="n">
+        <v>9.905791327412167</v>
+      </c>
+      <c r="AAD1" t="n">
+        <v>9.905857127823548</v>
+      </c>
+      <c r="AAE1" t="n">
+        <v>9.905922590796896</v>
+      </c>
+      <c r="AAF1" t="n">
+        <v>8.531815863158467</v>
+      </c>
+      <c r="AAG1" t="n">
+        <v>9.905987718921269</v>
+      </c>
+      <c r="AAH1" t="n">
+        <v>9.906052514759315</v>
+      </c>
+      <c r="AAI1" t="n">
+        <v>9.906116980847543</v>
+      </c>
+      <c r="AAJ1" t="n">
+        <v>9.731273342594855</v>
+      </c>
+      <c r="AAK1" t="n">
+        <v>9.906181119696722</v>
+      </c>
+      <c r="AAL1" t="n">
+        <v>9.906244933792262</v>
+      </c>
+      <c r="AAM1" t="n">
+        <v>9.906308425594382</v>
+      </c>
+      <c r="AAN1" t="n">
+        <v>9.906371597538566</v>
+      </c>
+      <c r="AAO1" t="n">
+        <v>9.90643445203577</v>
+      </c>
+      <c r="AAP1" t="n">
+        <v>9.906496991472844</v>
+      </c>
+      <c r="AAQ1" t="n">
+        <v>9.906559218212754</v>
+      </c>
+      <c r="AAR1" t="n">
+        <v>9.906621134594856</v>
+      </c>
+      <c r="AAS1" t="n">
+        <v>9.906682742935244</v>
+      </c>
+      <c r="AAT1" t="n">
+        <v>9.906744045527034</v>
+      </c>
+      <c r="AAU1" t="n">
+        <v>9.906805044640652</v>
+      </c>
+      <c r="AAV1" t="n">
+        <v>9.906865742524078</v>
+      </c>
+      <c r="AAW1" t="n">
+        <v>9.90692614140316</v>
+      </c>
+      <c r="AAX1" t="n">
+        <v>9.734491356266354</v>
+      </c>
+      <c r="AAY1" t="n">
+        <v>9.906986243481878</v>
+      </c>
+      <c r="AAZ1" t="n">
+        <v>9.907046050942521</v>
+      </c>
+      <c r="ABA1" t="n">
+        <v>9.907105565946154</v>
+      </c>
+      <c r="ABB1" t="n">
+        <v>8.545488644990451</v>
+      </c>
+      <c r="ABC1" t="n">
+        <v>9.907164790632701</v>
+      </c>
+      <c r="ABD1" t="n">
+        <v>9.907223727121284</v>
+      </c>
+      <c r="ABE1" t="n">
+        <v>9.907282377510372</v>
+      </c>
+      <c r="ABF1" t="n">
+        <v>9.907340743878207</v>
+      </c>
+      <c r="ABG1" t="n">
+        <v>9.907398828282934</v>
+      </c>
+      <c r="ABH1" t="n">
+        <v>9.907456632762829</v>
+      </c>
+      <c r="ABI1" t="n">
+        <v>9.90751415933655</v>
+      </c>
+      <c r="ABJ1" t="n">
+        <v>9.907571410003435</v>
+      </c>
+      <c r="ABK1" t="n">
+        <v>9.90762838674368</v>
+      </c>
+      <c r="ABL1" t="n">
+        <v>9.907685091518619</v>
+      </c>
+      <c r="ABM1" t="n">
+        <v>9.90774152627078</v>
+      </c>
+      <c r="ABN1" t="n">
+        <v>9.907797692924344</v>
+      </c>
+      <c r="ABO1" t="n">
+        <v>9.907853593385269</v>
+      </c>
+      <c r="ABP1" t="n">
+        <v>9.907909229541403</v>
+      </c>
+      <c r="ABQ1" t="n">
+        <v>9.907964603262855</v>
+      </c>
+      <c r="ABR1" t="n">
+        <v>9.717384108057296</v>
+      </c>
+      <c r="ABS1" t="n">
+        <v>9.908019716402055</v>
+      </c>
+      <c r="ABT1" t="n">
+        <v>9.908074570794177</v>
+      </c>
+      <c r="ABU1" t="n">
+        <v>9.908129168256998</v>
+      </c>
+      <c r="ABV1" t="n">
+        <v>9.908183510591524</v>
+      </c>
+      <c r="ABW1" t="n">
+        <v>9.908237599581838</v>
+      </c>
+      <c r="ABX1" t="n">
+        <v>9.908291436995427</v>
+      </c>
+      <c r="ABY1" t="n">
+        <v>9.908345024583459</v>
+      </c>
+      <c r="ABZ1" t="n">
+        <v>9.90839836408078</v>
+      </c>
+      <c r="ACA1" t="n">
+        <v>9.908451457206311</v>
+      </c>
+      <c r="ACB1" t="n">
+        <v>9.908504305663051</v>
+      </c>
+      <c r="ACC1" t="n">
+        <v>9.908556911138399</v>
+      </c>
+      <c r="ACD1" t="n">
+        <v>9.908609275304171</v>
+      </c>
+      <c r="ACE1" t="n">
+        <v>9.908661399817076</v>
+      </c>
+      <c r="ACF1" t="n">
+        <v>9.908713286318452</v>
+      </c>
+      <c r="ACG1" t="n">
+        <v>9.908764936434915</v>
+      </c>
+      <c r="ACH1" t="n">
+        <v>9.908816351778089</v>
+      </c>
+      <c r="ACI1" t="n">
+        <v>9.908867533945068</v>
+      </c>
+      <c r="ACJ1" t="n">
+        <v>9.908918484518594</v>
+      </c>
+      <c r="ACK1" t="n">
+        <v>9.908969205066905</v>
+      </c>
+      <c r="ACL1" t="n">
+        <v>9.909019697144316</v>
+      </c>
+      <c r="ACM1" t="n">
+        <v>9.909069962291044</v>
+      </c>
+      <c r="ACN1" t="n">
+        <v>9.90912000203349</v>
+      </c>
+      <c r="ACO1" t="n">
+        <v>9.909169817884514</v>
+      </c>
+      <c r="ACP1" t="n">
+        <v>9.909219411343335</v>
+      </c>
+      <c r="ACQ1" t="n">
+        <v>9.909268783895845</v>
+      </c>
+      <c r="ACR1" t="n">
+        <v>9.909317937014812</v>
+      </c>
+      <c r="ACS1" t="n">
+        <v>9.909366872159868</v>
+      </c>
+      <c r="ACT1" t="n">
+        <v>9.909415590777716</v>
+      </c>
+      <c r="ACU1" t="n">
+        <v>9.909464094302349</v>
+      </c>
+      <c r="ACV1" t="n">
+        <v>9.90951238415504</v>
+      </c>
+      <c r="ACW1" t="n">
+        <v>9.909560461744661</v>
+      </c>
+      <c r="ACX1" t="n">
+        <v>9.909608328467677</v>
+      </c>
+      <c r="ACY1" t="n">
+        <v>9.909655985708278</v>
+      </c>
+      <c r="ACZ1" t="n">
+        <v>9.909703434838697</v>
+      </c>
+      <c r="ADA1" t="n">
+        <v>9.909750677219074</v>
+      </c>
+      <c r="ADB1" t="n">
+        <v>9.909797714197788</v>
+      </c>
+      <c r="ADC1" t="n">
+        <v>9.909844547111502</v>
+      </c>
+      <c r="ADD1" t="n">
+        <v>9.909891177285376</v>
+      </c>
+      <c r="ADE1" t="n">
+        <v>9.90993760603298</v>
+      </c>
+      <c r="ADF1" t="n">
+        <v>9.719207941410907</v>
+      </c>
+      <c r="ADG1" t="n">
+        <v>9.909983834656686</v>
+      </c>
+      <c r="ADH1" t="n">
+        <v>9.910029864447599</v>
+      </c>
+      <c r="ADI1" t="n">
+        <v>9.910075696685773</v>
+      </c>
+      <c r="ADJ1" t="n">
+        <v>9.910121332640241</v>
+      </c>
+      <c r="ADK1" t="n">
+        <v>9.910166773569294</v>
+      </c>
+      <c r="ADL1" t="n">
+        <v>9.910212020720387</v>
+      </c>
+      <c r="ADM1" t="n">
+        <v>9.910257075330387</v>
+      </c>
+      <c r="ADN1" t="n">
+        <v>9.910301938625725</v>
+      </c>
+      <c r="ADO1" t="n">
+        <v>9.910346611822362</v>
+      </c>
+      <c r="ADP1" t="n">
+        <v>9.910391096125986</v>
+      </c>
+      <c r="ADQ1" t="n">
+        <v>9.910435392732094</v>
+      </c>
+      <c r="ADR1" t="n">
+        <v>9.910479502826201</v>
+      </c>
+      <c r="ADS1" t="n">
+        <v>9.910523427583767</v>
+      </c>
+      <c r="ADT1" t="n">
+        <v>9.910567168170463</v>
+      </c>
+      <c r="ADU1" t="n">
+        <v>9.91061072574214</v>
+      </c>
+      <c r="ADV1" t="n">
+        <v>9.910654101445054</v>
+      </c>
+      <c r="ADW1" t="n">
+        <v>9.910697296415854</v>
+      </c>
+      <c r="ADX1" t="n">
+        <v>9.910740311781771</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Mu.xlsx
+++ b/Pruebas/Mu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ADX1"/>
+  <dimension ref="A1:BIR1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,2404 +435,4804 @@
         <v>0.08833915720544963</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.1089892126536535</v>
+        <v>-0.1089892192497072</v>
       </c>
       <c r="F1" t="n">
-        <v>0.07958796396664725</v>
+        <v>0.07958796711204318</v>
       </c>
       <c r="G1" t="n">
-        <v>0.160602582699097</v>
+        <v>0.1606025826992737</v>
       </c>
       <c r="H1" t="n">
-        <v>0.1022031777096026</v>
+        <v>0.07324621926403885</v>
       </c>
       <c r="I1" t="n">
-        <v>-0.09889492526559335</v>
+        <v>0.04614155690302965</v>
       </c>
       <c r="J1" t="n">
-        <v>0.0979419453829628</v>
+        <v>0.05975711850577171</v>
       </c>
       <c r="K1" t="n">
-        <v>0.2327744036070858</v>
+        <v>0.09357180517271232</v>
       </c>
       <c r="L1" t="n">
-        <v>0.1016840033024797</v>
+        <v>0.1020174416519904</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.08746008987434559</v>
+        <v>0.08223485708523809</v>
       </c>
       <c r="N1" t="n">
-        <v>0.1088362584971359</v>
+        <v>0.09126711208666888</v>
       </c>
       <c r="O1" t="n">
-        <v>0.3111272770115009</v>
+        <v>0.1244522380394462</v>
       </c>
       <c r="P1" t="n">
-        <v>0.1458826146935729</v>
+        <v>0.1342940616498632</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.07443501552955237</v>
+        <v>0.1185615399748871</v>
       </c>
       <c r="R1" t="n">
-        <v>0.1111992187326633</v>
+        <v>0.1240293602948712</v>
       </c>
       <c r="S1" t="n">
-        <v>0.3493963578793727</v>
+        <v>0.152766069029832</v>
       </c>
       <c r="T1" t="n">
-        <v>0.2661174155373005</v>
+        <v>0.1708360017439987</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.05950877167941272</v>
+        <v>0.1576606220073716</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1052290027182203</v>
+        <v>0.1599567632432743</v>
       </c>
       <c r="W1" t="n">
-        <v>0.4559442621623566</v>
+        <v>0.191286868890959</v>
       </c>
       <c r="X1" t="n">
-        <v>0.4556622831931256</v>
+        <v>0.2200884476308809</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.04084176475929283</v>
+        <v>0.2084802926514626</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.1924628123934184</v>
+        <v>0.2150185229166932</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.4831905288865743</v>
+        <v>0.2418510694148602</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7153837133457965</v>
+        <v>0.282848358459215</v>
       </c>
       <c r="AC1" t="n">
-        <v>-0.02005593451892665</v>
+        <v>0.2720805927123164</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.3167198738953751</v>
+        <v>0.2837427160682553</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.6991278004554902</v>
+        <v>0.498242351256593</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.9432493237874623</v>
+        <v>0.3660815023104393</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.003788576586712262</v>
+        <v>0.3555340467635869</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3893693197195044</v>
+        <v>0.3676333407326106</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.8586014075107775</v>
+        <v>0.8232320294915562</v>
       </c>
       <c r="AJ1" t="n">
-        <v>1.367975967478227</v>
+        <v>1.234855560531765</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.03199327983842466</v>
+        <v>0.2207546871571971</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.6157401537000264</v>
+        <v>0.7950960305688557</v>
       </c>
       <c r="AM1" t="n">
-        <v>1.534162522068748</v>
+        <v>1.570026051383809</v>
       </c>
       <c r="AN1" t="n">
-        <v>1.847440586935873</v>
+        <v>2.001559209868002</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.06569167126321684</v>
+        <v>0.214249571600083</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.9832649467379078</v>
+        <v>1.226238678768307</v>
       </c>
       <c r="AQ1" t="n">
-        <v>2.856261910602901</v>
+        <v>2.862263466681305</v>
       </c>
       <c r="AR1" t="n">
-        <v>2.879806946593181</v>
+        <v>3.544449249367361</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.1043926547642608</v>
+        <v>0.1441787244858545</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.399170849476152</v>
+        <v>1.81245801989193</v>
       </c>
       <c r="AU1" t="n">
-        <v>3.638645434221706</v>
+        <v>4.757051115643497</v>
       </c>
       <c r="AV1" t="n">
-        <v>3.102325520271284</v>
+        <v>4.846255521260764</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.1533671634395139</v>
+        <v>0.1979292076987686</v>
       </c>
       <c r="AX1" t="n">
-        <v>2.013692840464205</v>
+        <v>2.960690204931416</v>
       </c>
       <c r="AY1" t="n">
-        <v>3.762302585692571</v>
+        <v>4.988546998506417</v>
       </c>
       <c r="AZ1" t="n">
-        <v>4.154220043787162</v>
+        <v>4.443361966709867</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.2191178400908348</v>
+        <v>0.4692489725207014</v>
       </c>
       <c r="BB1" t="n">
-        <v>2.379055097176765</v>
+        <v>4.762641029978935</v>
       </c>
       <c r="BC1" t="n">
-        <v>4.140924303433055</v>
+        <v>5.515544257536559</v>
       </c>
       <c r="BD1" t="n">
-        <v>4.390944427025634</v>
+        <v>4.938295049405876</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.2952513931056928</v>
+        <v>0.7348855950171965</v>
       </c>
       <c r="BF1" t="n">
-        <v>3.179158309836906</v>
+        <v>6.326735273456505</v>
       </c>
       <c r="BG1" t="n">
-        <v>5.521232404577408</v>
+        <v>4.594956774813499</v>
       </c>
       <c r="BH1" t="n">
-        <v>4.471020558249667</v>
+        <v>3.618275981127111</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.3963728677610099</v>
+        <v>0.5471180675742238</v>
       </c>
       <c r="BJ1" t="n">
-        <v>3.766384289432155</v>
+        <v>6.394799683093793</v>
       </c>
       <c r="BK1" t="n">
-        <v>3.703242055559915</v>
+        <v>3.462638350433262</v>
       </c>
       <c r="BL1" t="n">
-        <v>3.759013555732153</v>
+        <v>2.041192426305897</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.5279849002799099</v>
+        <v>0.3668348254473911</v>
       </c>
       <c r="BN1" t="n">
-        <v>3.759312721108347</v>
+        <v>5.034988423438345</v>
       </c>
       <c r="BO1" t="n">
-        <v>6.211386455149581</v>
+        <v>1.767121453398677</v>
       </c>
       <c r="BP1" t="n">
-        <v>3.807278454813366</v>
+        <v>1.698471991634249</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.644195144401426</v>
+        <v>0.247342001130178</v>
       </c>
       <c r="BR1" t="n">
-        <v>3.621942620430136</v>
+        <v>3.157447504191019</v>
       </c>
       <c r="BS1" t="n">
-        <v>5.854592569367519</v>
+        <v>1.22169549657165</v>
       </c>
       <c r="BT1" t="n">
-        <v>6.586416640538454</v>
+        <v>1.572893578104208</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.8472871857355317</v>
+        <v>0.1743086703363098</v>
       </c>
       <c r="BV1" t="n">
-        <v>3.73893343005073</v>
+        <v>1.648527846498957</v>
       </c>
       <c r="BW1" t="n">
-        <v>4.388369870893191</v>
+        <v>0.8299767009298378</v>
       </c>
       <c r="BX1" t="n">
-        <v>3.815527771235574</v>
+        <v>0.7157290317249096</v>
       </c>
       <c r="BY1" t="n">
-        <v>1.214118569996644</v>
+        <v>0.1349042614341133</v>
       </c>
       <c r="BZ1" t="n">
-        <v>5.012018074309543</v>
+        <v>0.7300409530525138</v>
       </c>
       <c r="CA1" t="n">
-        <v>5.638520333598233</v>
+        <v>0.3499979299774832</v>
       </c>
       <c r="CB1" t="n">
-        <v>5.076371273084485</v>
+        <v>0.4913327174912668</v>
       </c>
       <c r="CC1" t="n">
-        <v>1.854269907993748</v>
+        <v>0.1868852052198442</v>
       </c>
       <c r="CD1" t="n">
-        <v>5.087370361647423</v>
+        <v>1.105525267722864</v>
       </c>
       <c r="CE1" t="n">
-        <v>4.955741054099247</v>
+        <v>0.1928830581339885</v>
       </c>
       <c r="CF1" t="n">
-        <v>5.961360744332905</v>
+        <v>0.2703125771528336</v>
       </c>
       <c r="CG1" t="n">
-        <v>2.616868351334843</v>
+        <v>0.1908432287415929</v>
       </c>
       <c r="CH1" t="n">
-        <v>4.89921844720897</v>
+        <v>0.4978092388540158</v>
       </c>
       <c r="CI1" t="n">
-        <v>4.641344697671491</v>
+        <v>0.1875974965075903</v>
       </c>
       <c r="CJ1" t="n">
-        <v>4.926173888112401</v>
+        <v>0.2107783430971551</v>
       </c>
       <c r="CK1" t="n">
-        <v>4.851527245628946</v>
+        <v>0.2138461304402735</v>
       </c>
       <c r="CL1" t="n">
-        <v>4.180709675091176</v>
+        <v>1.142190956702322</v>
       </c>
       <c r="CM1" t="n">
-        <v>4.965693843715677</v>
+        <v>0.2420936739653259</v>
       </c>
       <c r="CN1" t="n">
-        <v>6.568231850816532</v>
+        <v>0.2993577324962288</v>
       </c>
       <c r="CO1" t="n">
-        <v>4.610974737152762</v>
+        <v>0.2877152837384546</v>
       </c>
       <c r="CP1" t="n">
-        <v>4.443654095395051</v>
+        <v>2.171317418450558</v>
       </c>
       <c r="CQ1" t="n">
-        <v>4.475071834376762</v>
+        <v>0.4712939111072623</v>
       </c>
       <c r="CR1" t="n">
-        <v>7.389260832168592</v>
+        <v>0.5769811667691606</v>
       </c>
       <c r="CS1" t="n">
-        <v>6.607654738799005</v>
+        <v>0.4999467128291391</v>
       </c>
       <c r="CT1" t="n">
-        <v>6.532291262945296</v>
+        <v>3.482094020923019</v>
       </c>
       <c r="CU1" t="n">
-        <v>6.620925124954236</v>
+        <v>0.9791939102945639</v>
       </c>
       <c r="CV1" t="n">
-        <v>7.448540765573508</v>
+        <v>1.146367273621868</v>
       </c>
       <c r="CW1" t="n">
-        <v>4.413739927307804</v>
+        <v>0.9586461304655335</v>
       </c>
       <c r="CX1" t="n">
-        <v>5.016403447590108</v>
+        <v>4.92322726520037</v>
       </c>
       <c r="CY1" t="n">
-        <v>6.188459596895341</v>
+        <v>1.871998616947967</v>
       </c>
       <c r="CZ1" t="n">
-        <v>7.945110149945071</v>
+        <v>2.082284559912191</v>
       </c>
       <c r="DA1" t="n">
-        <v>5.884986569743734</v>
+        <v>1.746267438723607</v>
       </c>
       <c r="DB1" t="n">
-        <v>7.348827670813447</v>
+        <v>6.244478257575788</v>
       </c>
       <c r="DC1" t="n">
-        <v>7.433611581148877</v>
+        <v>3.172286795911657</v>
       </c>
       <c r="DD1" t="n">
-        <v>8.276156406192781</v>
+        <v>3.383190544394321</v>
       </c>
       <c r="DE1" t="n">
-        <v>7.929185686558799</v>
+        <v>2.88096084578724</v>
       </c>
       <c r="DF1" t="n">
-        <v>4.768556385990808</v>
+        <v>6.974685966997582</v>
       </c>
       <c r="DG1" t="n">
-        <v>6.620609890961704</v>
+        <v>4.720567837034094</v>
       </c>
       <c r="DH1" t="n">
-        <v>8.512618017798289</v>
+        <v>4.912947574071547</v>
       </c>
       <c r="DI1" t="n">
-        <v>6.147966316203665</v>
+        <v>4.311196868767865</v>
       </c>
       <c r="DJ1" t="n">
-        <v>7.838749515534341</v>
+        <v>6.461001565870199</v>
       </c>
       <c r="DK1" t="n">
-        <v>8.689964226502418</v>
+        <v>6.16181874999247</v>
       </c>
       <c r="DL1" t="n">
-        <v>8.82790016660563</v>
+        <v>6.317925641034909</v>
       </c>
       <c r="DM1" t="n">
-        <v>6.962017046507253</v>
+        <v>5.835320658672887</v>
       </c>
       <c r="DN1" t="n">
-        <v>5.643453878538867</v>
+        <v>4.971820586356341</v>
       </c>
       <c r="DO1" t="n">
-        <v>7.426151516274399</v>
+        <v>6.997530434419788</v>
       </c>
       <c r="DP1" t="n">
-        <v>8.938248918688199</v>
+        <v>7.022496713988291</v>
       </c>
       <c r="DQ1" t="n">
-        <v>8.259568423498747</v>
+        <v>6.872035658658592</v>
       </c>
       <c r="DR1" t="n">
-        <v>4.937656074079891</v>
+        <v>3.147483114110182</v>
       </c>
       <c r="DS1" t="n">
-        <v>9.028534261301211</v>
+        <v>6.636957127475588</v>
       </c>
       <c r="DT1" t="n">
-        <v>8.495556092741566</v>
+        <v>6.423770405550934</v>
       </c>
       <c r="DU1" t="n">
-        <v>5.851159827857591</v>
+        <v>6.624794411888248</v>
       </c>
       <c r="DV1" t="n">
-        <v>4.789343401192917</v>
+        <v>2.523821385132659</v>
       </c>
       <c r="DW1" t="n">
-        <v>7.061983883692482</v>
+        <v>5.003044791566428</v>
       </c>
       <c r="DX1" t="n">
-        <v>4.412770895055059</v>
+        <v>4.633100075652843</v>
       </c>
       <c r="DY1" t="n">
-        <v>7.881878220979836</v>
+        <v>5.056390381005869</v>
       </c>
       <c r="DZ1" t="n">
-        <v>4.279455906295775</v>
+        <v>1.07270215071339</v>
       </c>
       <c r="EA1" t="n">
-        <v>6.358075181321075</v>
+        <v>3.040146640221671</v>
       </c>
       <c r="EB1" t="n">
-        <v>9.103772046812056</v>
+        <v>5.020554989495881</v>
       </c>
       <c r="EC1" t="n">
-        <v>8.21028981352066</v>
+        <v>5.6449956830853</v>
       </c>
       <c r="ED1" t="n">
-        <v>8.672546844673681</v>
+        <v>0.5370855653690798</v>
       </c>
       <c r="EE1" t="n">
-        <v>8.44486952247839</v>
+        <v>1.635951363031436</v>
       </c>
       <c r="EF1" t="n">
-        <v>8.810206318398659</v>
+        <v>3.211537048193968</v>
       </c>
       <c r="EG1" t="n">
-        <v>6.385791201590534</v>
+        <v>3.840796471637874</v>
       </c>
       <c r="EH1" t="n">
-        <v>6.706530837374514</v>
+        <v>1.108869919189555</v>
       </c>
       <c r="EI1" t="n">
-        <v>8.620804304196689</v>
+        <v>1.259675377109915</v>
       </c>
       <c r="EJ1" t="n">
-        <v>8.920333897378642</v>
+        <v>1.780903731802015</v>
       </c>
       <c r="EK1" t="n">
-        <v>7.184015101789338</v>
+        <v>2.231226121014378</v>
       </c>
       <c r="EL1" t="n">
-        <v>7.153632893199476</v>
+        <v>0.6337022559897535</v>
       </c>
       <c r="EM1" t="n">
-        <v>9.010438280180448</v>
+        <v>0.7038108994273933</v>
       </c>
       <c r="EN1" t="n">
-        <v>9.167434788398152</v>
+        <v>1.934320825704239</v>
       </c>
       <c r="EO1" t="n">
-        <v>5.883694526740063</v>
+        <v>2.521588153019457</v>
       </c>
       <c r="EP1" t="n">
-        <v>8.757642467755367</v>
+        <v>0.4955618424296702</v>
       </c>
       <c r="EQ1" t="n">
-        <v>7.1528345789862</v>
+        <v>0.5086909662001021</v>
       </c>
       <c r="ER1" t="n">
-        <v>5.924872127193412</v>
+        <v>1.091624260423468</v>
       </c>
       <c r="ES1" t="n">
-        <v>9.085525265848617</v>
+        <v>2.517931803967357</v>
       </c>
       <c r="ET1" t="n">
-        <v>6.619156342582565</v>
+        <v>0.5861409062976851</v>
       </c>
       <c r="EU1" t="n">
-        <v>9.222002852614805</v>
+        <v>0.6152774857651719</v>
       </c>
       <c r="EV1" t="n">
-        <v>9.149060407567836</v>
+        <v>0.6980433667846497</v>
       </c>
       <c r="EW1" t="n">
-        <v>6.582554806339793</v>
+        <v>1.47166091407988</v>
       </c>
       <c r="EX1" t="n">
-        <v>9.203519100470027</v>
+        <v>0.4522081142775862</v>
       </c>
       <c r="EY1" t="n">
-        <v>8.867112998602305</v>
+        <v>0.4639209663801971</v>
       </c>
       <c r="EZ1" t="n">
-        <v>9.250716634318589</v>
+        <v>0.4867495743915914</v>
       </c>
       <c r="FA1" t="n">
-        <v>9.269295174935907</v>
+        <v>1.432050648510432</v>
       </c>
       <c r="FB1" t="n">
-        <v>7.451700930416118</v>
+        <v>0.2844048183740354</v>
       </c>
       <c r="FC1" t="n">
-        <v>9.292014476436083</v>
+        <v>0.6043631455638208</v>
       </c>
       <c r="FD1" t="n">
-        <v>6.665481143092583</v>
+        <v>0.4680801132762361</v>
       </c>
       <c r="FE1" t="n">
-        <v>7.060433432088066</v>
+        <v>0.8494369382979274</v>
       </c>
       <c r="FF1" t="n">
-        <v>9.310675956966874</v>
+        <v>0.2356749952138063</v>
       </c>
       <c r="FG1" t="n">
-        <v>7.662949441908625</v>
+        <v>0.437801774606732</v>
       </c>
       <c r="FH1" t="n">
-        <v>7.109846552632082</v>
+        <v>0.3596292760916588</v>
       </c>
       <c r="FI1" t="n">
-        <v>9.328453748892695</v>
+        <v>0.5680234233346614</v>
       </c>
       <c r="FJ1" t="n">
-        <v>7.406090158991751</v>
+        <v>0.2456001151000708</v>
       </c>
       <c r="FK1" t="n">
-        <v>9.347188411700076</v>
+        <v>0.4700611935419946</v>
       </c>
       <c r="FL1" t="n">
-        <v>9.360844213298572</v>
+        <v>0.3811008359490552</v>
       </c>
       <c r="FM1" t="n">
-        <v>9.389825155135409</v>
+        <v>0.3791330522209455</v>
       </c>
       <c r="FN1" t="n">
-        <v>9.415908002788562</v>
+        <v>0.3975864962242098</v>
       </c>
       <c r="FO1" t="n">
-        <v>8.956679796567986</v>
+        <v>0.2911085098464358</v>
       </c>
       <c r="FP1" t="n">
-        <v>9.439506769712846</v>
+        <v>0.208194861953119</v>
       </c>
       <c r="FQ1" t="n">
-        <v>9.379643927018483</v>
+        <v>0.3778988352649491</v>
       </c>
       <c r="FR1" t="n">
-        <v>7.664606671285151</v>
+        <v>0.4215699371124732</v>
       </c>
       <c r="FS1" t="n">
-        <v>9.031318794872718</v>
+        <v>0.4621551589873541</v>
       </c>
       <c r="FT1" t="n">
-        <v>9.094474870361337</v>
+        <v>0.07215882837666551</v>
       </c>
       <c r="FU1" t="n">
-        <v>9.148608649351583</v>
+        <v>0.5775588477355988</v>
       </c>
       <c r="FV1" t="n">
-        <v>9.408683072303369</v>
+        <v>0.6322756760818516</v>
       </c>
       <c r="FW1" t="n">
-        <v>7.629690217585276</v>
+        <v>0.6882953482512433</v>
       </c>
       <c r="FX1" t="n">
-        <v>7.354618158425065</v>
+        <v>0.2055331150446958</v>
       </c>
       <c r="FY1" t="n">
-        <v>9.460960194189465</v>
+        <v>0.904577097284082</v>
       </c>
       <c r="FZ1" t="n">
-        <v>3.650826734077576</v>
+        <v>0.9988336378538609</v>
       </c>
       <c r="GA1" t="n">
-        <v>9.434818303059762</v>
+        <v>1.111110336412065</v>
       </c>
       <c r="GB1" t="n">
-        <v>7.982239001988146</v>
+        <v>0.377328586773839</v>
       </c>
       <c r="GC1" t="n">
-        <v>9.458464464220311</v>
+        <v>1.521484417111863</v>
       </c>
       <c r="GD1" t="n">
-        <v>9.19552459114313</v>
+        <v>1.722930020286707</v>
       </c>
       <c r="GE1" t="n">
-        <v>9.236576040210734</v>
+        <v>1.944906024855862</v>
       </c>
       <c r="GF1" t="n">
-        <v>9.480548103494204</v>
+        <v>0.5742138846399866</v>
       </c>
       <c r="GG1" t="n">
-        <v>9.272797907035088</v>
+        <v>2.566168060593838</v>
       </c>
       <c r="GH1" t="n">
-        <v>7.025511083241022</v>
+        <v>2.949627801088151</v>
       </c>
       <c r="GI1" t="n">
-        <v>7.947593976651325</v>
+        <v>3.300519969006726</v>
       </c>
       <c r="GJ1" t="n">
-        <v>7.564750105808637</v>
+        <v>0.8684595339582772</v>
       </c>
       <c r="GK1" t="n">
-        <v>8.165364078681606</v>
+        <v>4.005238284047173</v>
       </c>
       <c r="GL1" t="n">
-        <v>9.479960974366268</v>
+        <v>4.597674924870771</v>
       </c>
       <c r="GM1" t="n">
-        <v>8.174668090269931</v>
+        <v>5.034574895693542</v>
       </c>
       <c r="GN1" t="n">
-        <v>8.398660195215363</v>
+        <v>1.461816998025349</v>
       </c>
       <c r="GO1" t="n">
-        <v>9.498503687023549</v>
+        <v>5.658569871660307</v>
       </c>
       <c r="GP1" t="n">
-        <v>5.705941208394366</v>
+        <v>6.437855836233215</v>
       </c>
       <c r="GQ1" t="n">
-        <v>9.304995121990071</v>
+        <v>6.910619732434995</v>
       </c>
       <c r="GR1" t="n">
-        <v>8.210302973473519</v>
+        <v>2.601583237478178</v>
       </c>
       <c r="GS1" t="n">
-        <v>7.617692734962944</v>
+        <v>6.999650362070554</v>
       </c>
       <c r="GT1" t="n">
-        <v>9.515022823870547</v>
+        <v>7.685976615892692</v>
       </c>
       <c r="GU1" t="n">
-        <v>8.344973675483887</v>
+        <v>7.832091681390428</v>
       </c>
       <c r="GV1" t="n">
-        <v>9.499588222760401</v>
+        <v>4.435422187976074</v>
       </c>
       <c r="GW1" t="n">
-        <v>7.776394666941336</v>
+        <v>6.656046506080141</v>
       </c>
       <c r="GX1" t="n">
-        <v>9.530271257883157</v>
+        <v>6.84601440116462</v>
       </c>
       <c r="GY1" t="n">
-        <v>9.51757986712169</v>
+        <v>6.475690442074725</v>
       </c>
       <c r="GZ1" t="n">
-        <v>9.333803156423475</v>
+        <v>6.567291447004552</v>
       </c>
       <c r="HA1" t="n">
-        <v>9.544390178265207</v>
+        <v>4.478129660831569</v>
       </c>
       <c r="HB1" t="n">
-        <v>9.359730387413542</v>
+        <v>4.479301663165995</v>
       </c>
       <c r="HC1" t="n">
-        <v>9.383188358309313</v>
+        <v>6.511165183503708</v>
       </c>
       <c r="HD1" t="n">
-        <v>9.404513786396381</v>
+        <v>7.962139901131229</v>
       </c>
       <c r="HE1" t="n">
-        <v>9.557500604334251</v>
+        <v>2.186812621224846</v>
       </c>
       <c r="HF1" t="n">
-        <v>6.419183859443654</v>
+        <v>2.2906238062652</v>
       </c>
       <c r="HG1" t="n">
-        <v>9.534132179934076</v>
+        <v>4.529631450046766</v>
       </c>
       <c r="HH1" t="n">
-        <v>8.477433575094739</v>
+        <v>7.373861522507403</v>
       </c>
       <c r="HI1" t="n">
-        <v>9.54941123791474</v>
+        <v>2.901473166108259</v>
       </c>
       <c r="HJ1" t="n">
-        <v>8.381350952087551</v>
+        <v>1.098046805090513</v>
       </c>
       <c r="HK1" t="n">
-        <v>9.563558513822761</v>
+        <v>2.638188376684116</v>
       </c>
       <c r="HL1" t="n">
-        <v>9.423984829432399</v>
+        <v>5.199183231467023</v>
       </c>
       <c r="HM1" t="n">
-        <v>7.899829502924532</v>
+        <v>1.442708582301762</v>
       </c>
       <c r="HN1" t="n">
-        <v>7.722349066346316</v>
+        <v>0.8737891094349335</v>
       </c>
       <c r="HO1" t="n">
-        <v>9.576695270023068</v>
+        <v>1.513471237831127</v>
       </c>
       <c r="HP1" t="n">
-        <v>9.441833285548746</v>
+        <v>2.899724810501515</v>
       </c>
       <c r="HQ1" t="n">
-        <v>9.588926043037146</v>
+        <v>0.8921502971290796</v>
       </c>
       <c r="HR1" t="n">
-        <v>5.574279566788244</v>
+        <v>0.6181320231756726</v>
       </c>
       <c r="HS1" t="n">
-        <v>9.600341431183621</v>
+        <v>0.998622227810492</v>
       </c>
       <c r="HT1" t="n">
-        <v>7.73557449611917</v>
+        <v>1.484882908199035</v>
       </c>
       <c r="HU1" t="n">
-        <v>9.569706863088191</v>
+        <v>0.7145667418863132</v>
       </c>
       <c r="HV1" t="n">
-        <v>9.611020342675481</v>
+        <v>0.4102858476328479</v>
       </c>
       <c r="HW1" t="n">
-        <v>9.6210318221991</v>
+        <v>0.8123039136992248</v>
       </c>
       <c r="HX1" t="n">
-        <v>9.630436545387957</v>
+        <v>0.9339796098023968</v>
       </c>
       <c r="HY1" t="n">
-        <v>9.581099371258537</v>
+        <v>0.513763842928638</v>
       </c>
       <c r="HZ1" t="n">
-        <v>5.966762445835701</v>
+        <v>0.3788352433911188</v>
       </c>
       <c r="IA1" t="n">
-        <v>9.639288049565701</v>
+        <v>0.6085142732333146</v>
       </c>
       <c r="IB1" t="n">
-        <v>8.583401494783423</v>
+        <v>1.21597525575272</v>
       </c>
       <c r="IC1" t="n">
-        <v>9.647633753504717</v>
+        <v>0.5521531926176053</v>
       </c>
       <c r="ID1" t="n">
-        <v>7.998577371711087</v>
+        <v>0.252591955594186</v>
       </c>
       <c r="IE1" t="n">
-        <v>9.655515807224901</v>
+        <v>0.3548555055677119</v>
       </c>
       <c r="IF1" t="n">
-        <v>9.45825386517579</v>
+        <v>1.547917392516942</v>
       </c>
       <c r="IG1" t="n">
-        <v>9.662971803987237</v>
+        <v>0.3000901365921502</v>
       </c>
       <c r="IH1" t="n">
-        <v>7.844926035653401</v>
+        <v>0.3548719547518194</v>
       </c>
       <c r="II1" t="n">
-        <v>9.670035379867347</v>
+        <v>0.1362003867396333</v>
       </c>
       <c r="IJ1" t="n">
-        <v>9.676736721086936</v>
+        <v>1.220867172541931</v>
       </c>
       <c r="IK1" t="n">
-        <v>9.59175687890176</v>
+        <v>0.3486869987326913</v>
       </c>
       <c r="IL1" t="n">
-        <v>8.670102519983256</v>
+        <v>0.2887278282631194</v>
       </c>
       <c r="IM1" t="n">
-        <v>9.683102995245545</v>
+        <v>0.202736192110522</v>
       </c>
       <c r="IN1" t="n">
-        <v>9.689158719445198</v>
+        <v>0.9308117562015505</v>
       </c>
       <c r="IO1" t="n">
-        <v>9.694926075825821</v>
+        <v>0.1936751657131776</v>
       </c>
       <c r="IP1" t="n">
-        <v>9.601748292317286</v>
+        <v>0.157147035733808</v>
       </c>
       <c r="IQ1" t="n">
-        <v>9.700425183072463</v>
+        <v>0.076756891015675</v>
       </c>
       <c r="IR1" t="n">
-        <v>9.47341132329306</v>
+        <v>0.6940795786667586</v>
       </c>
       <c r="IS1" t="n">
-        <v>9.7056743308988</v>
+        <v>0.3505013947013634</v>
       </c>
       <c r="IT1" t="n">
-        <v>7.942987611099067</v>
+        <v>0.05110362190988479</v>
       </c>
       <c r="IU1" t="n">
-        <v>9.710690183266188</v>
+        <v>0.1394892227331697</v>
       </c>
       <c r="IV1" t="n">
-        <v>9.715487955095865</v>
+        <v>0.4616422596984212</v>
       </c>
       <c r="IW1" t="n">
-        <v>9.72008156642215</v>
+        <v>0.1944931452494028</v>
       </c>
       <c r="IX1" t="n">
-        <v>9.724483777276506</v>
+        <v>0.1499878328504523</v>
       </c>
       <c r="IY1" t="n">
-        <v>9.728706306055178</v>
+        <v>0.2641908445913163</v>
       </c>
       <c r="IZ1" t="n">
-        <v>9.732759933682702</v>
+        <v>0.5429863145647682</v>
       </c>
       <c r="JA1" t="n">
-        <v>9.736654595520911</v>
+        <v>0.1287480848526903</v>
       </c>
       <c r="JB1" t="n">
-        <v>9.740399462673036</v>
+        <v>0.2739097405486178</v>
       </c>
       <c r="JC1" t="n">
-        <v>9.744003014083566</v>
+        <v>0.1404695552698877</v>
       </c>
       <c r="JD1" t="n">
-        <v>9.48744600673497</v>
+        <v>0.2967734542797544</v>
       </c>
       <c r="JE1" t="n">
-        <v>9.747473100627042</v>
+        <v>0.1946270098230916</v>
       </c>
       <c r="JF1" t="n">
-        <v>9.611134165525801</v>
+        <v>0.4165073842738555</v>
       </c>
       <c r="JG1" t="n">
-        <v>9.750817002205302</v>
+        <v>0.05653273731900924</v>
       </c>
       <c r="JH1" t="n">
-        <v>9.619967928545588</v>
+        <v>0.1268868404018464</v>
       </c>
       <c r="JI1" t="n">
-        <v>9.754041478727196</v>
+        <v>0.3519281770110108</v>
       </c>
       <c r="JJ1" t="n">
-        <v>8.023219809190977</v>
+        <v>0.5420271198889106</v>
       </c>
       <c r="JK1" t="n">
-        <v>9.757152815722005</v>
+        <v>0.09002393118195032</v>
       </c>
       <c r="JL1" t="n">
-        <v>9.760156865234235</v>
+        <v>0.1918725504688802</v>
       </c>
       <c r="JM1" t="n">
-        <v>9.763059082559611</v>
+        <v>0.5913919590034263</v>
       </c>
       <c r="JN1" t="n">
-        <v>8.742353374316455</v>
+        <v>0.7796667086038755</v>
       </c>
       <c r="JO1" t="n">
-        <v>9.76586455930747</v>
+        <v>0.1850845616138514</v>
       </c>
       <c r="JP1" t="n">
-        <v>9.500478212788174</v>
+        <v>0.3535308938992742</v>
       </c>
       <c r="JQ1" t="n">
-        <v>9.76857805321114</v>
+        <v>0.9552790901038796</v>
       </c>
       <c r="JR1" t="n">
-        <v>6.712607751565157</v>
+        <v>1.105141195730087</v>
       </c>
       <c r="JS1" t="n">
-        <v>9.771204015053403</v>
+        <v>0.3126863213840033</v>
       </c>
       <c r="JT1" t="n">
-        <v>8.573632282615677</v>
+        <v>0.5947645993662946</v>
       </c>
       <c r="JU1" t="n">
-        <v>9.773746613027656</v>
+        <v>1.557820165593073</v>
       </c>
       <c r="JV1" t="n">
-        <v>9.776209754815213</v>
+        <v>1.914056363324139</v>
       </c>
       <c r="JW1" t="n">
-        <v>9.512611646010127</v>
+        <v>0.4985550941497246</v>
       </c>
       <c r="JX1" t="n">
-        <v>9.778597107624691</v>
+        <v>0.9599383947681157</v>
       </c>
       <c r="JY1" t="n">
-        <v>9.780912116409642</v>
+        <v>2.577611910210845</v>
       </c>
       <c r="JZ1" t="n">
-        <v>7.956590910293999</v>
+        <v>3.592086040243752</v>
       </c>
       <c r="KA1" t="n">
-        <v>8.803488712598387</v>
+        <v>0.8316251847290252</v>
       </c>
       <c r="KB1" t="n">
-        <v>9.783158020454739</v>
+        <v>1.557654348243822</v>
       </c>
       <c r="KC1" t="n">
-        <v>9.785337868498512</v>
+        <v>4.068636054783907</v>
       </c>
       <c r="KD1" t="n">
-        <v>9.628296905107096</v>
+        <v>5.895041563638444</v>
       </c>
       <c r="KE1" t="n">
-        <v>9.787454532541014</v>
+        <v>1.453154187572673</v>
       </c>
       <c r="KF1" t="n">
-        <v>9.523936183683951</v>
+        <v>2.561757720665262</v>
       </c>
       <c r="KG1" t="n">
-        <v>9.789510720468023</v>
+        <v>5.702591932864027</v>
       </c>
       <c r="KH1" t="n">
-        <v>8.079371082536451</v>
+        <v>7.758094082013232</v>
       </c>
       <c r="KI1" t="n">
-        <v>9.791508987608349</v>
+        <v>2.482069089028221</v>
       </c>
       <c r="KJ1" t="n">
-        <v>9.793451747328117</v>
+        <v>4.049002071224299</v>
       </c>
       <c r="KK1" t="n">
-        <v>9.795341280754181</v>
+        <v>6.707318926678777</v>
       </c>
       <c r="KL1" t="n">
-        <v>9.534530106023981</v>
+        <v>7.895612105076212</v>
       </c>
       <c r="KM1" t="n">
-        <v>8.855890431125761</v>
+        <v>3.897615102915157</v>
       </c>
       <c r="KN1" t="n">
-        <v>9.797179745709281</v>
+        <v>5.731851119590603</v>
       </c>
       <c r="KO1" t="n">
-        <v>9.79896918493224</v>
+        <v>6.311215093331117</v>
       </c>
       <c r="KP1" t="n">
-        <v>9.636163160748527</v>
+        <v>6.124917615255454</v>
       </c>
       <c r="KQ1" t="n">
-        <v>9.800711533649332</v>
+        <v>5.430153997506349</v>
       </c>
       <c r="KR1" t="n">
-        <v>9.544461908217754</v>
+        <v>6.801262321791789</v>
       </c>
       <c r="KS1" t="n">
-        <v>9.802408626555591</v>
+        <v>4.643939109195548</v>
       </c>
       <c r="KT1" t="n">
-        <v>8.146699174890921</v>
+        <v>5.070159186776671</v>
       </c>
       <c r="KU1" t="n">
-        <v>9.804062204259127</v>
+        <v>6.566203741800833</v>
       </c>
       <c r="KV1" t="n">
-        <v>9.805673919235993</v>
+        <v>6.446259366452434</v>
       </c>
       <c r="KW1" t="n">
-        <v>9.807245341338437</v>
+        <v>5.898924929151837</v>
       </c>
       <c r="KX1" t="n">
-        <v>8.090079974267566</v>
+        <v>2.915339911968926</v>
       </c>
       <c r="KY1" t="n">
-        <v>9.808777962895133</v>
+        <v>6.427737694724401</v>
       </c>
       <c r="KZ1" t="n">
-        <v>9.810273203438262</v>
+        <v>4.723966977961185</v>
       </c>
       <c r="LA1" t="n">
-        <v>9.81173241408878</v>
+        <v>6.743225889409486</v>
       </c>
       <c r="LB1" t="n">
-        <v>9.553791783005849</v>
+        <v>1.570287403966003</v>
       </c>
       <c r="LC1" t="n">
-        <v>9.813156881628569</v>
+        <v>4.860473455465767</v>
       </c>
       <c r="LD1" t="n">
-        <v>9.562572841629935</v>
+        <v>2.740645935355449</v>
       </c>
       <c r="LE1" t="n">
-        <v>9.814547832285072</v>
+        <v>4.410590015307508</v>
       </c>
       <c r="LF1" t="n">
-        <v>8.51438826878735</v>
+        <v>1.199812008549727</v>
       </c>
       <c r="LG1" t="n">
-        <v>9.815906435251895</v>
+        <v>2.963153735175069</v>
       </c>
       <c r="LH1" t="n">
-        <v>9.817233805966593</v>
+        <v>1.504936105040324</v>
       </c>
       <c r="LI1" t="n">
-        <v>9.818531009165062</v>
+        <v>2.451896159893876</v>
       </c>
       <c r="LJ1" t="n">
-        <v>9.570852125475501</v>
+        <v>1.047933879774918</v>
       </c>
       <c r="LK1" t="n">
-        <v>9.819799061729851</v>
+        <v>1.661802685508536</v>
       </c>
       <c r="LL1" t="n">
-        <v>9.643604213382314</v>
+        <v>1.011326954722247</v>
       </c>
       <c r="LM1" t="n">
-        <v>9.821038935348758</v>
+        <v>1.390258470782485</v>
       </c>
       <c r="LN1" t="n">
-        <v>9.822251558998014</v>
+        <v>1.307610737954924</v>
       </c>
       <c r="LO1" t="n">
-        <v>9.823437821263591</v>
+        <v>1.064692688411824</v>
       </c>
       <c r="LP1" t="n">
-        <v>9.824598572512706</v>
+        <v>0.7767859899046852</v>
       </c>
       <c r="LQ1" t="n">
-        <v>9.825734626926735</v>
+        <v>1.207058399053238</v>
       </c>
       <c r="LR1" t="n">
-        <v>9.826846764405726</v>
+        <v>0.9370885304751067</v>
       </c>
       <c r="LS1" t="n">
-        <v>9.827935732353911</v>
+        <v>1.248597356377982</v>
       </c>
       <c r="LT1" t="n">
-        <v>9.829002247354717</v>
+        <v>0.8597057732550828</v>
       </c>
       <c r="LU1" t="n">
-        <v>9.830046996743256</v>
+        <v>1.050371469278136</v>
       </c>
       <c r="LV1" t="n">
-        <v>9.57867144910743</v>
+        <v>0.6984127496320915</v>
       </c>
       <c r="LW1" t="n">
-        <v>9.831070640083535</v>
+        <v>2.116708688603307</v>
       </c>
       <c r="LX1" t="n">
-        <v>9.832073810557016</v>
+        <v>0.5673838483554954</v>
       </c>
       <c r="LY1" t="n">
-        <v>9.833057116268641</v>
+        <v>0.7756777222434712</v>
       </c>
       <c r="LZ1" t="n">
-        <v>9.834021141476118</v>
+        <v>0.7625908631168595</v>
       </c>
       <c r="MA1" t="n">
-        <v>9.834966447747528</v>
+        <v>1.452094925202903</v>
       </c>
       <c r="MB1" t="n">
-        <v>9.835893575052182</v>
+        <v>0.5331117305419366</v>
       </c>
       <c r="MC1" t="n">
-        <v>9.836803042789123</v>
+        <v>0.8502351257701577</v>
       </c>
       <c r="MD1" t="n">
-        <v>9.837695350757441</v>
+        <v>0.8237267313250726</v>
       </c>
       <c r="ME1" t="n">
-        <v>9.838570980072157</v>
+        <v>1.801835934197243</v>
       </c>
       <c r="MF1" t="n">
-        <v>9.839430394029185</v>
+        <v>0.2846808715933646</v>
       </c>
       <c r="MG1" t="n">
-        <v>9.840274038922784</v>
+        <v>0.7718727273377641</v>
       </c>
       <c r="MH1" t="n">
-        <v>9.586068106597088</v>
+        <v>0.5317412020182206</v>
       </c>
       <c r="MI1" t="n">
-        <v>9.841102344818314</v>
+        <v>1.131705895608432</v>
       </c>
       <c r="MJ1" t="n">
-        <v>9.841915726283293</v>
+        <v>0.4217484784039631</v>
       </c>
       <c r="MK1" t="n">
-        <v>9.59307546632413</v>
+        <v>0.851415986641617</v>
       </c>
       <c r="ML1" t="n">
-        <v>9.842714583079259</v>
+        <v>0.5558116423107342</v>
       </c>
       <c r="MM1" t="n">
-        <v>9.843499300816891</v>
+        <v>0.8115461416135483</v>
       </c>
       <c r="MN1" t="n">
-        <v>9.84427025157666</v>
+        <v>0.4323489642127965</v>
       </c>
       <c r="MO1" t="n">
-        <v>8.901305253849472</v>
+        <v>0.9169270826137443</v>
       </c>
       <c r="MP1" t="n">
-        <v>8.941043223732727</v>
+        <v>0.5226168074252956</v>
       </c>
       <c r="MQ1" t="n">
-        <v>9.845027794497145</v>
+        <v>0.8874461274887058</v>
       </c>
       <c r="MR1" t="n">
-        <v>9.845772276332777</v>
+        <v>0.2515334363882558</v>
       </c>
       <c r="MS1" t="n">
-        <v>9.846504031983196</v>
+        <v>0.6129426526828283</v>
       </c>
       <c r="MT1" t="n">
-        <v>9.599723474270306</v>
+        <v>0.3330080791828984</v>
       </c>
       <c r="MU1" t="n">
-        <v>9.847223384995464</v>
+        <v>0.5876216977906277</v>
       </c>
       <c r="MV1" t="n">
-        <v>9.606039081819166</v>
+        <v>0.2509325539317616</v>
       </c>
       <c r="MW1" t="n">
-        <v>9.847930648041151</v>
+        <v>0.3519721116582968</v>
       </c>
       <c r="MX1" t="n">
-        <v>8.122353220925122</v>
+        <v>0.1927876576961604</v>
       </c>
       <c r="MY1" t="n">
-        <v>9.848626123369401</v>
+        <v>0.3224212805670741</v>
       </c>
       <c r="MZ1" t="n">
-        <v>9.849310103237674</v>
+        <v>0.253021382727285</v>
       </c>
       <c r="NA1" t="n">
-        <v>9.849982870321236</v>
+        <v>0.1707223903381854</v>
       </c>
       <c r="NB1" t="n">
-        <v>9.850644698102613</v>
+        <v>0.3348731530403206</v>
       </c>
       <c r="NC1" t="n">
-        <v>9.851295851242368</v>
+        <v>0.3752146520155099</v>
       </c>
       <c r="ND1" t="n">
-        <v>9.851936585931879</v>
+        <v>0.1322289467289946</v>
       </c>
       <c r="NE1" t="n">
-        <v>9.852567150229488</v>
+        <v>0.07387906874994477</v>
       </c>
       <c r="NF1" t="n">
-        <v>8.9761061383356</v>
+        <v>0.3299705035346405</v>
       </c>
       <c r="NG1" t="n">
-        <v>9.853187784380687</v>
+        <v>0.3850944504027474</v>
       </c>
       <c r="NH1" t="n">
-        <v>9.853798721123265</v>
+        <v>0.05119119325495566</v>
       </c>
       <c r="NI1" t="n">
-        <v>9.854400185978363</v>
+        <v>0.1679201111524152</v>
       </c>
       <c r="NJ1" t="n">
-        <v>9.612046610951007</v>
+        <v>0.5616640394785012</v>
       </c>
       <c r="NK1" t="n">
-        <v>9.854992397528012</v>
+        <v>0.6031107168360256</v>
       </c>
       <c r="NL1" t="n">
-        <v>9.855575567679946</v>
+        <v>0.1232127461144797</v>
       </c>
       <c r="NM1" t="n">
-        <v>9.856149901920485</v>
+        <v>0.3534495366647274</v>
       </c>
       <c r="NN1" t="n">
-        <v>9.617768067267052</v>
+        <v>0.845253638997345</v>
       </c>
       <c r="NO1" t="n">
-        <v>9.856715599555899</v>
+        <v>0.8948618122633213</v>
       </c>
       <c r="NP1" t="n">
-        <v>9.623223409335836</v>
+        <v>0.2510067353061872</v>
       </c>
       <c r="NQ1" t="n">
-        <v>9.857272853943037</v>
+        <v>0.6141863367134542</v>
       </c>
       <c r="NR1" t="n">
-        <v>9.857821852709611</v>
+        <v>1.294424041297277</v>
       </c>
       <c r="NS1" t="n">
-        <v>9.858362777964913</v>
+        <v>1.427693833163039</v>
       </c>
       <c r="NT1" t="n">
-        <v>9.628430781310586</v>
+        <v>0.4480884686389863</v>
       </c>
       <c r="NU1" t="n">
-        <v>9.858895806501172</v>
+        <v>0.9208918451810127</v>
       </c>
       <c r="NV1" t="n">
-        <v>9.859421109986167</v>
+        <v>2.249648694492892</v>
       </c>
       <c r="NW1" t="n">
-        <v>9.859938855147643</v>
+        <v>2.492990603513598</v>
       </c>
       <c r="NX1" t="n">
-        <v>9.860449203949676</v>
+        <v>0.7015767986509425</v>
       </c>
       <c r="NY1" t="n">
-        <v>9.860952313761596</v>
+        <v>1.404730899646536</v>
       </c>
       <c r="NZ1" t="n">
-        <v>9.861448337519844</v>
+        <v>3.993910103110988</v>
       </c>
       <c r="OA1" t="n">
-        <v>9.86193742388285</v>
+        <v>4.178329026218639</v>
       </c>
       <c r="OB1" t="n">
-        <v>9.862419717379716</v>
+        <v>1.041058898373723</v>
       </c>
       <c r="OC1" t="n">
-        <v>9.862895358552493</v>
+        <v>2.462371413131804</v>
       </c>
       <c r="OD1" t="n">
-        <v>9.633406714530897</v>
+        <v>6.197456432090633</v>
       </c>
       <c r="OE1" t="n">
-        <v>9.863364484092758</v>
+        <v>6.001883908201187</v>
       </c>
       <c r="OF1" t="n">
-        <v>9.863827226972614</v>
+        <v>1.677076487655391</v>
       </c>
       <c r="OG1" t="n">
-        <v>9.864283716570302</v>
+        <v>4.398966329817455</v>
       </c>
       <c r="OH1" t="n">
-        <v>9.864734078790852</v>
+        <v>7.749413508640782</v>
       </c>
       <c r="OI1" t="n">
-        <v>9.865178436181781</v>
+        <v>6.787088089492236</v>
       </c>
       <c r="OJ1" t="n">
-        <v>9.638166302828582</v>
+        <v>2.950844421180495</v>
       </c>
       <c r="OK1" t="n">
-        <v>9.642723355454031</v>
+        <v>6.755189473439072</v>
       </c>
       <c r="OL1" t="n">
-        <v>9.865616908044368</v>
+        <v>7.296102670295367</v>
       </c>
       <c r="OM1" t="n">
-        <v>9.866049610540337</v>
+        <v>5.598101134266277</v>
       </c>
       <c r="ON1" t="n">
-        <v>9.866476656794525</v>
+        <v>4.888053153962808</v>
       </c>
       <c r="OO1" t="n">
-        <v>9.866898156993463</v>
+        <v>8.198104501928903</v>
       </c>
       <c r="OP1" t="n">
-        <v>9.647090530886755</v>
+        <v>5.032762852957626</v>
       </c>
       <c r="OQ1" t="n">
-        <v>9.867314218480152</v>
+        <v>3.273840475000269</v>
       </c>
       <c r="OR1" t="n">
-        <v>9.867724945845229</v>
+        <v>6.710399473937681</v>
       </c>
       <c r="OS1" t="n">
-        <v>9.868130441014564</v>
+        <v>7.470168221130267</v>
       </c>
       <c r="OT1" t="n">
-        <v>9.868530803333655</v>
+        <v>2.601322842814255</v>
       </c>
       <c r="OU1" t="n">
-        <v>9.868926129648735</v>
+        <v>1.487084594222003</v>
       </c>
       <c r="OV1" t="n">
-        <v>9.651279454261001</v>
+        <v>6.996932906494393</v>
       </c>
       <c r="OW1" t="n">
-        <v>9.869316514384884</v>
+        <v>5.087840215572468</v>
       </c>
       <c r="OX1" t="n">
-        <v>9.655300820700278</v>
+        <v>1.264727052511301</v>
       </c>
       <c r="OY1" t="n">
-        <v>9.869702049621189</v>
+        <v>1.805980837950369</v>
       </c>
       <c r="OZ1" t="n">
-        <v>9.870082825163232</v>
+        <v>5.338042906165044</v>
       </c>
       <c r="PA1" t="n">
-        <v>9.870458928612734</v>
+        <v>2.764496069883575</v>
       </c>
       <c r="PB1" t="n">
-        <v>9.870830445434796</v>
+        <v>0.8407586622790418</v>
       </c>
       <c r="PC1" t="n">
-        <v>9.871197459022655</v>
+        <v>1.001900544615516</v>
       </c>
       <c r="PD1" t="n">
-        <v>9.007273173538147</v>
+        <v>2.998972429290745</v>
       </c>
       <c r="PE1" t="n">
-        <v>9.871560050760054</v>
+        <v>1.495679444128414</v>
       </c>
       <c r="PF1" t="n">
-        <v>9.871918300081443</v>
+        <v>0.6607922329697279</v>
       </c>
       <c r="PG1" t="n">
-        <v>9.872272284529954</v>
+        <v>0.5927130859848804</v>
       </c>
       <c r="PH1" t="n">
-        <v>9.659164486494873</v>
+        <v>2.583691273312819</v>
       </c>
       <c r="PI1" t="n">
-        <v>9.872622079813384</v>
+        <v>1.971367281307321</v>
       </c>
       <c r="PJ1" t="n">
-        <v>8.203669099190842</v>
+        <v>0.8387523271905678</v>
       </c>
       <c r="PK1" t="n">
-        <v>9.872967759858195</v>
+        <v>1.028613992876579</v>
       </c>
       <c r="PL1" t="n">
-        <v>9.035159468193061</v>
+        <v>1.315565266684084</v>
       </c>
       <c r="PM1" t="n">
-        <v>9.873309396861552</v>
+        <v>1.252736787486175</v>
       </c>
       <c r="PN1" t="n">
-        <v>9.650653631666929</v>
+        <v>0.9716392826183574</v>
       </c>
       <c r="PO1" t="n">
-        <v>9.873647061341613</v>
+        <v>0.7843219132151069</v>
       </c>
       <c r="PP1" t="n">
-        <v>9.873980822186063</v>
+        <v>0.7753649409652019</v>
       </c>
       <c r="PQ1" t="n">
-        <v>9.874310746698967</v>
+        <v>1.026733961993128</v>
       </c>
       <c r="PR1" t="n">
-        <v>8.252500462876517</v>
+        <v>0.6249672206339445</v>
       </c>
       <c r="PS1" t="n">
-        <v>9.87463690064601</v>
+        <v>0.5366095806493212</v>
       </c>
       <c r="PT1" t="n">
-        <v>9.662879549758916</v>
+        <v>1.339879279543386</v>
       </c>
       <c r="PU1" t="n">
-        <v>9.874959348298189</v>
+        <v>1.252324869237975</v>
       </c>
       <c r="PV1" t="n">
-        <v>8.294820978070756</v>
+        <v>0.7018156462976093</v>
       </c>
       <c r="PW1" t="n">
-        <v>9.875278152474094</v>
+        <v>0.6757493649666827</v>
       </c>
       <c r="PX1" t="n">
-        <v>9.666454421956386</v>
+        <v>1.872953685033441</v>
       </c>
       <c r="PY1" t="n">
-        <v>9.875593374580582</v>
+        <v>0.8470984073583994</v>
       </c>
       <c r="PZ1" t="n">
-        <v>9.657341541321584</v>
+        <v>0.5848994122818365</v>
       </c>
       <c r="QA1" t="n">
-        <v>9.875905074652383</v>
+        <v>0.3667015818846643</v>
       </c>
       <c r="QB1" t="n">
-        <v>9.060257133382487</v>
+        <v>2.405249371393863</v>
       </c>
       <c r="QC1" t="n">
-        <v>9.876213311390037</v>
+        <v>0.9592937972060406</v>
       </c>
       <c r="QD1" t="n">
-        <v>8.331851428865715</v>
+        <v>0.5237545794067645</v>
       </c>
       <c r="QE1" t="n">
-        <v>9.876518142196892</v>
+        <v>0.4782759852345823</v>
       </c>
       <c r="QF1" t="n">
-        <v>9.876819623214665</v>
+        <v>1.878208315971809</v>
       </c>
       <c r="QG1" t="n">
-        <v>9.877117809357925</v>
+        <v>1.523574462639275</v>
       </c>
       <c r="QH1" t="n">
-        <v>8.364525356037738</v>
+        <v>0.8361663028051978</v>
       </c>
       <c r="QI1" t="n">
-        <v>9.877412754347464</v>
+        <v>0.2555932301261167</v>
       </c>
       <c r="QJ1" t="n">
-        <v>9.669896891479876</v>
+        <v>1.189114189729977</v>
       </c>
       <c r="QK1" t="n">
-        <v>9.877704510742502</v>
+        <v>0.9612457543326861</v>
       </c>
       <c r="QL1" t="n">
-        <v>9.87799312997201</v>
+        <v>1.296303500551752</v>
       </c>
       <c r="QM1" t="n">
-        <v>9.878278662364846</v>
+        <v>0.3381826792201754</v>
       </c>
       <c r="QN1" t="n">
-        <v>9.87856115717903</v>
+        <v>0.90961420498005</v>
       </c>
       <c r="QO1" t="n">
-        <v>9.878840662630108</v>
+        <v>0.8497782599533749</v>
       </c>
       <c r="QP1" t="n">
-        <v>9.663695055493509</v>
+        <v>1.541740491596615</v>
       </c>
       <c r="QQ1" t="n">
-        <v>9.879117225918533</v>
+        <v>0.2555282993998959</v>
       </c>
       <c r="QR1" t="n">
-        <v>9.673214180293419</v>
+        <v>1.191396685538144</v>
       </c>
       <c r="QS1" t="n">
-        <v>9.879390893256286</v>
+        <v>0.8379510587421723</v>
       </c>
       <c r="QT1" t="n">
-        <v>9.879661709892629</v>
+        <v>0.9285595104251565</v>
       </c>
       <c r="QU1" t="n">
-        <v>9.879929720138945</v>
+        <v>0.157205423972101</v>
       </c>
       <c r="QV1" t="n">
-        <v>9.880194967393027</v>
+        <v>0.8360590072401209</v>
       </c>
       <c r="QW1" t="n">
-        <v>9.880457494162441</v>
+        <v>0.9724586962967483</v>
       </c>
       <c r="QX1" t="n">
-        <v>9.880717342087285</v>
+        <v>0.5902795277497155</v>
       </c>
       <c r="QY1" t="n">
-        <v>9.880974551962126</v>
+        <v>0.2572863857189739</v>
       </c>
       <c r="QZ1" t="n">
-        <v>9.881229163757435</v>
+        <v>0.9724788415648729</v>
       </c>
       <c r="RA1" t="n">
-        <v>9.881481216640205</v>
+        <v>0.8344963012894184</v>
       </c>
       <c r="RB1" t="n">
-        <v>9.881730748994176</v>
+        <v>0.3695237669418128</v>
       </c>
       <c r="RC1" t="n">
-        <v>9.881977798439138</v>
+        <v>0.1602110212992957</v>
       </c>
       <c r="RD1" t="n">
-        <v>9.882222401849976</v>
+        <v>1.115695924150379</v>
       </c>
       <c r="RE1" t="n">
-        <v>9.882464595375009</v>
+        <v>0.9721984344768645</v>
       </c>
       <c r="RF1" t="n">
-        <v>9.882704414453727</v>
+        <v>0.353994041654443</v>
       </c>
       <c r="RG1" t="n">
-        <v>9.882941893834095</v>
+        <v>0.3669146692381072</v>
       </c>
       <c r="RH1" t="n">
-        <v>9.676412994506476</v>
+        <v>0.709048008918344</v>
       </c>
       <c r="RI1" t="n">
-        <v>9.883177067589431</v>
+        <v>0.6239435948069508</v>
       </c>
       <c r="RJ1" t="n">
-        <v>9.883409969134551</v>
+        <v>0.3097115899637966</v>
       </c>
       <c r="RK1" t="n">
-        <v>9.883640631241757</v>
+        <v>0.4791979305453656</v>
       </c>
       <c r="RL1" t="n">
-        <v>9.67949956962434</v>
+        <v>0.4425667717926095</v>
       </c>
       <c r="RM1" t="n">
-        <v>9.883869086056052</v>
+        <v>0.7091766698593922</v>
       </c>
       <c r="RN1" t="n">
-        <v>9.884095365110225</v>
+        <v>0.3542865530531732</v>
       </c>
       <c r="RO1" t="n">
-        <v>9.884319499339242</v>
+        <v>0.3667270783297916</v>
       </c>
       <c r="RP1" t="n">
-        <v>9.082964544744344</v>
+        <v>0.491693483476424</v>
       </c>
       <c r="RQ1" t="n">
-        <v>9.884541519094395</v>
+        <v>0.4436131770267319</v>
       </c>
       <c r="RR1" t="n">
-        <v>9.669738642144843</v>
+        <v>0.1972647984326032</v>
       </c>
       <c r="RS1" t="n">
-        <v>9.884761454157006</v>
+        <v>0.1618777435554753</v>
       </c>
       <c r="RT1" t="n">
-        <v>9.68247971111745</v>
+        <v>0.302265636782301</v>
       </c>
       <c r="RU1" t="n">
-        <v>9.884979333751749</v>
+        <v>0.492171107439896</v>
       </c>
       <c r="RV1" t="n">
-        <v>9.88519518655955</v>
+        <v>0.2283152400689969</v>
       </c>
       <c r="RW1" t="n">
-        <v>9.885409040730254</v>
+        <v>0.3681445589310335</v>
       </c>
       <c r="RX1" t="n">
-        <v>9.885620923894781</v>
+        <v>0.1510938185821427</v>
       </c>
       <c r="RY1" t="n">
-        <v>9.885830863177047</v>
+        <v>0.301329946758888</v>
       </c>
       <c r="RZ1" t="n">
-        <v>9.886038885205604</v>
+        <v>0.3756017797088862</v>
       </c>
       <c r="SA1" t="n">
-        <v>9.88624501612483</v>
+        <v>0.4800608184224937</v>
       </c>
       <c r="SB1" t="n">
-        <v>9.886449281605843</v>
+        <v>0.1149176560523127</v>
       </c>
       <c r="SC1" t="n">
-        <v>9.886651706857316</v>
+        <v>0.4933205107273851</v>
       </c>
       <c r="SD1" t="n">
-        <v>9.675494438955642</v>
+        <v>0.5649087004874033</v>
       </c>
       <c r="SE1" t="n">
-        <v>9.886852316635677</v>
+        <v>0.3684847988450205</v>
       </c>
       <c r="SF1" t="n">
-        <v>9.887051135255302</v>
+        <v>0.07742514967590447</v>
       </c>
       <c r="SG1" t="n">
-        <v>9.887248186598292</v>
+        <v>0.3040590391259715</v>
       </c>
       <c r="SH1" t="n">
-        <v>9.887443494124105</v>
+        <v>0.3837111606266889</v>
       </c>
       <c r="SI1" t="n">
-        <v>9.887637080878756</v>
+        <v>0.6714468729796907</v>
       </c>
       <c r="SJ1" t="n">
-        <v>9.887828969504</v>
+        <v>0.1130130424072423</v>
       </c>
       <c r="SK1" t="n">
-        <v>9.888019182246049</v>
+        <v>0.1496200884703703</v>
       </c>
       <c r="SL1" t="n">
-        <v>9.888207740964235</v>
+        <v>0.2281506798779673</v>
       </c>
       <c r="SM1" t="n">
-        <v>9.888394667139412</v>
+        <v>0.5288421976807834</v>
       </c>
       <c r="SN1" t="n">
-        <v>9.888579981882057</v>
+        <v>0.2513398880683941</v>
       </c>
       <c r="SO1" t="n">
-        <v>9.888763705940212</v>
+        <v>0.04191129642263832</v>
       </c>
       <c r="SP1" t="n">
-        <v>9.888945859707261</v>
+        <v>0.1917270237491218</v>
       </c>
       <c r="SQ1" t="n">
-        <v>9.889126463229482</v>
+        <v>0.6685847160735875</v>
       </c>
       <c r="SR1" t="n">
-        <v>9.889305536213403</v>
+        <v>0.302770182173971</v>
       </c>
       <c r="SS1" t="n">
-        <v>9.88948309803289</v>
+        <v>0.0219994732212075</v>
       </c>
       <c r="ST1" t="n">
-        <v>9.889659167736244</v>
+        <v>0.06749707658820524</v>
       </c>
       <c r="SU1" t="n">
-        <v>9.889833764052952</v>
+        <v>0.7852730194592333</v>
       </c>
       <c r="SV1" t="n">
-        <v>9.685358830865036</v>
+        <v>0.1460009037677215</v>
       </c>
       <c r="SW1" t="n">
-        <v>9.890006905400355</v>
+        <v>0.03820008886208264</v>
       </c>
       <c r="SX1" t="n">
-        <v>9.890178609890123</v>
+        <v>0.06523927504812344</v>
       </c>
       <c r="SY1" t="n">
-        <v>9.890348895334498</v>
+        <v>0.889654948494656</v>
       </c>
       <c r="SZ1" t="n">
-        <v>9.890517779252605</v>
+        <v>0.1103751295602443</v>
       </c>
       <c r="TA1" t="n">
-        <v>9.890685278876278</v>
+        <v>0.06372803866955469</v>
       </c>
       <c r="TB1" t="n">
-        <v>9.89085141115609</v>
+        <v>-0.007375689742482507</v>
       </c>
       <c r="TC1" t="n">
-        <v>9.89101619276698</v>
+        <v>0.566842218407334</v>
       </c>
       <c r="TD1" t="n">
-        <v>9.891179640113801</v>
+        <v>0.1444136215258355</v>
       </c>
       <c r="TE1" t="n">
-        <v>9.891341769336846</v>
+        <v>0.08551959663107637</v>
       </c>
       <c r="TF1" t="n">
-        <v>9.891502596317141</v>
+        <v>-0.05295009378964538</v>
       </c>
       <c r="TG1" t="n">
-        <v>9.8916621366816</v>
+        <v>0.546698757916052</v>
       </c>
       <c r="TH1" t="n">
-        <v>9.688141979954365</v>
+        <v>0.1112412839135867</v>
       </c>
       <c r="TI1" t="n">
-        <v>9.891820405808083</v>
+        <v>0.2038296032776399</v>
       </c>
       <c r="TJ1" t="n">
-        <v>9.891977418830411</v>
+        <v>-0.0258447956409935</v>
       </c>
       <c r="TK1" t="n">
-        <v>9.892133190643071</v>
+        <v>0.8549532441320679</v>
       </c>
       <c r="TL1" t="n">
-        <v>9.892287735905997</v>
+        <v>0.2522108527959251</v>
       </c>
       <c r="TM1" t="n">
-        <v>9.892441069049234</v>
+        <v>0.3474557839463914</v>
       </c>
       <c r="TN1" t="n">
-        <v>9.892593204277286</v>
+        <v>0.05049848513204135</v>
       </c>
       <c r="TO1" t="n">
-        <v>9.892744155573608</v>
+        <v>1.414013278532645</v>
       </c>
       <c r="TP1" t="n">
-        <v>9.892893936704855</v>
+        <v>0.4459568070744624</v>
       </c>
       <c r="TQ1" t="n">
-        <v>9.893042561225016</v>
+        <v>0.5092665113292218</v>
       </c>
       <c r="TR1" t="n">
-        <v>9.893190042479674</v>
+        <v>0.1767813015319043</v>
       </c>
       <c r="TS1" t="n">
-        <v>9.893336393609742</v>
+        <v>2.430999603986361</v>
       </c>
       <c r="TT1" t="n">
-        <v>9.690833878253882</v>
+        <v>0.7132710987843869</v>
       </c>
       <c r="TU1" t="n">
-        <v>9.89348162755563</v>
+        <v>0.7769774236127794</v>
       </c>
       <c r="TV1" t="n">
-        <v>9.893625757060853</v>
+        <v>0.3402990416174708</v>
       </c>
       <c r="TW1" t="n">
-        <v>9.893768794675903</v>
+        <v>3.972296608702849</v>
       </c>
       <c r="TX1" t="n">
-        <v>9.693438941124377</v>
+        <v>1.116820857535376</v>
       </c>
       <c r="TY1" t="n">
-        <v>9.893910752761782</v>
+        <v>1.315970355830256</v>
       </c>
       <c r="TZ1" t="n">
-        <v>9.695961303586291</v>
+        <v>0.54178397963115</v>
       </c>
       <c r="UA1" t="n">
-        <v>9.894051643493619</v>
+        <v>5.721717733377232</v>
       </c>
       <c r="UB1" t="n">
-        <v>9.894191478864157</v>
+        <v>1.818159881401588</v>
       </c>
       <c r="UC1" t="n">
-        <v>9.894330270687174</v>
+        <v>2.248666332837492</v>
       </c>
       <c r="UD1" t="n">
-        <v>9.894468030600736</v>
+        <v>0.8350012017703791</v>
       </c>
       <c r="UE1" t="n">
-        <v>9.894604770070458</v>
+        <v>6.959754068235569</v>
       </c>
       <c r="UF1" t="n">
-        <v>9.698404842221269</v>
+        <v>3.057652693247123</v>
       </c>
       <c r="UG1" t="n">
-        <v>9.894740500392839</v>
+        <v>3.529774548284058</v>
       </c>
       <c r="UH1" t="n">
-        <v>9.894875232698132</v>
+        <v>1.379321754619319</v>
       </c>
       <c r="UI1" t="n">
-        <v>9.895008977953552</v>
+        <v>6.753883331518582</v>
       </c>
       <c r="UJ1" t="n">
-        <v>9.895141746966253</v>
+        <v>4.864766354475917</v>
       </c>
       <c r="UK1" t="n">
-        <v>9.895273550386133</v>
+        <v>4.819609782487249</v>
       </c>
       <c r="UL1" t="n">
-        <v>9.895404398708743</v>
+        <v>2.400953736040366</v>
       </c>
       <c r="UM1" t="n">
-        <v>9.895534302278136</v>
+        <v>5.082639074762144</v>
       </c>
       <c r="UN1" t="n">
-        <v>9.895663271289479</v>
+        <v>6.622817127696687</v>
       </c>
       <c r="UO1" t="n">
-        <v>9.895791315791779</v>
+        <v>5.409773337421886</v>
       </c>
       <c r="UP1" t="n">
-        <v>9.700773195052088</v>
+        <v>3.974857089614032</v>
       </c>
       <c r="UQ1" t="n">
-        <v>9.895918445690493</v>
+        <v>3.083644123119571</v>
       </c>
       <c r="UR1" t="n">
-        <v>9.896044670750069</v>
+        <v>7.226441233184998</v>
       </c>
       <c r="US1" t="n">
-        <v>9.896170000596465</v>
+        <v>4.773276589638985</v>
       </c>
       <c r="UT1" t="n">
-        <v>9.896294444719553</v>
+        <v>5.751376605688248</v>
       </c>
       <c r="UU1" t="n">
-        <v>9.896418012475577</v>
+        <v>1.728857956608026</v>
       </c>
       <c r="UV1" t="n">
-        <v>9.896540713089468</v>
+        <v>6.103885344519158</v>
       </c>
       <c r="UW1" t="n">
-        <v>9.896662555657084</v>
+        <v>3.229652753083863</v>
       </c>
       <c r="UX1" t="n">
-        <v>9.896783549147591</v>
+        <v>6.92394733722015</v>
       </c>
       <c r="UY1" t="n">
-        <v>9.896903702405526</v>
+        <v>1.288589044785017</v>
       </c>
       <c r="UZ1" t="n">
-        <v>9.897023024153029</v>
+        <v>3.990071829791426</v>
       </c>
       <c r="VA1" t="n">
-        <v>9.89714152299192</v>
+        <v>2.981962482950308</v>
       </c>
       <c r="VB1" t="n">
-        <v>9.897259207405794</v>
+        <v>6.442041105018605</v>
       </c>
       <c r="VC1" t="n">
-        <v>9.897376085762051</v>
+        <v>0.9451077976302736</v>
       </c>
       <c r="VD1" t="n">
-        <v>9.897492166313803</v>
+        <v>2.249482592238785</v>
       </c>
       <c r="VE1" t="n">
-        <v>9.897607457201977</v>
+        <v>3.978688671086964</v>
       </c>
       <c r="VF1" t="n">
-        <v>9.897721966456977</v>
+        <v>4.548674993872374</v>
       </c>
       <c r="VG1" t="n">
-        <v>9.897835702000821</v>
+        <v>0.6086901956237035</v>
       </c>
       <c r="VH1" t="n">
-        <v>9.897948671648724</v>
+        <v>1.389844259465378</v>
       </c>
       <c r="VI1" t="n">
-        <v>9.898060883111098</v>
+        <v>2.175081954342002</v>
       </c>
       <c r="VJ1" t="n">
-        <v>9.680982524286874</v>
+        <v>2.579174839671764</v>
       </c>
       <c r="VK1" t="n">
-        <v>9.898172343995107</v>
+        <v>0.709061812748044</v>
       </c>
       <c r="VL1" t="n">
-        <v>9.898283061806564</v>
+        <v>1.003266567923385</v>
       </c>
       <c r="VM1" t="n">
-        <v>9.898393043951478</v>
+        <v>1.830124478785814</v>
       </c>
       <c r="VN1" t="n">
-        <v>8.39356884685729</v>
+        <v>1.397251783348006</v>
       </c>
       <c r="VO1" t="n">
-        <v>9.898502297737849</v>
+        <v>0.3780211473619952</v>
       </c>
       <c r="VP1" t="n">
-        <v>9.898610830377105</v>
+        <v>0.6578271562703015</v>
       </c>
       <c r="VQ1" t="n">
-        <v>9.898718648985826</v>
+        <v>1.197925354496282</v>
       </c>
       <c r="VR1" t="n">
-        <v>4.867768978770095</v>
+        <v>1.853074637100916</v>
       </c>
       <c r="VS1" t="n">
-        <v>9.898825760587291</v>
+        <v>0.4743450488020501</v>
       </c>
       <c r="VT1" t="n">
-        <v>9.898932172112938</v>
+        <v>0.7479364704998741</v>
       </c>
       <c r="VU1" t="n">
-        <v>9.899037890403857</v>
+        <v>1.403861932820278</v>
       </c>
       <c r="VV1" t="n">
-        <v>9.899142922212405</v>
+        <v>1.211933219152691</v>
       </c>
       <c r="VW1" t="n">
-        <v>9.899247274203406</v>
+        <v>0.242153842981392</v>
       </c>
       <c r="VX1" t="n">
-        <v>9.899350952955732</v>
+        <v>0.8370040094591309</v>
       </c>
       <c r="VY1" t="n">
-        <v>9.899453964963687</v>
+        <v>1.006435228088638</v>
       </c>
       <c r="VZ1" t="n">
-        <v>9.686221151193953</v>
+        <v>0.8693394207219846</v>
       </c>
       <c r="WA1" t="n">
-        <v>9.89955631663827</v>
+        <v>0.3084205061867746</v>
       </c>
       <c r="WB1" t="n">
-        <v>9.89965801430855</v>
+        <v>0.5197166235425923</v>
       </c>
       <c r="WC1" t="n">
-        <v>9.899759064222932</v>
+        <v>0.6497078572934268</v>
       </c>
       <c r="WD1" t="n">
-        <v>9.899859472550586</v>
+        <v>0.9997290474689267</v>
       </c>
       <c r="WE1" t="n">
-        <v>9.899959245382496</v>
+        <v>0.2438180726194993</v>
       </c>
       <c r="WF1" t="n">
-        <v>9.691226950238498</v>
+        <v>0.836930258296796</v>
       </c>
       <c r="WG1" t="n">
-        <v>9.900058388732791</v>
+        <v>0.7447266463000546</v>
       </c>
       <c r="WH1" t="n">
-        <v>8.419555128116912</v>
+        <v>0.6461041788281634</v>
       </c>
       <c r="WI1" t="n">
-        <v>9.900156908540028</v>
+        <v>0.3093858742916337</v>
       </c>
       <c r="WJ1" t="n">
-        <v>9.900254810668221</v>
+        <v>0.5194752300008575</v>
       </c>
       <c r="WK1" t="n">
-        <v>9.900352100908108</v>
+        <v>0.6439593998634775</v>
       </c>
       <c r="WL1" t="n">
-        <v>9.900448784978256</v>
+        <v>0.7422150551669384</v>
       </c>
       <c r="WM1" t="n">
-        <v>9.900544868526246</v>
+        <v>0.337360922894582</v>
       </c>
       <c r="WN1" t="n">
-        <v>9.900640357129669</v>
+        <v>0.5754028082405289</v>
       </c>
       <c r="WO1" t="n">
-        <v>9.90073525629729</v>
+        <v>0.3192406089637128</v>
       </c>
       <c r="WP1" t="n">
-        <v>9.696015105846323</v>
+        <v>1.097534025725713</v>
       </c>
       <c r="WQ1" t="n">
-        <v>9.900829571470005</v>
+        <v>0.1771433267734654</v>
       </c>
       <c r="WR1" t="n">
-        <v>9.700599510151687</v>
+        <v>0.5545548942457301</v>
       </c>
       <c r="WS1" t="n">
-        <v>9.900923308022021</v>
+        <v>0.1365297116293792</v>
       </c>
       <c r="WT1" t="n">
-        <v>9.901016471261816</v>
+        <v>0.7430695363808695</v>
       </c>
       <c r="WU1" t="n">
-        <v>9.901109066433053</v>
+        <v>0.1822782482482772</v>
       </c>
       <c r="WV1" t="n">
-        <v>8.442942781250569</v>
+        <v>0.5747283631290522</v>
       </c>
       <c r="WW1" t="n">
-        <v>9.703069779615292</v>
+        <v>0.07032449588079441</v>
       </c>
       <c r="WX1" t="n">
-        <v>9.901201098715715</v>
+        <v>0.4250626416500409</v>
       </c>
       <c r="WY1" t="n">
-        <v>9.901292573226982</v>
+        <v>0.08747418472325784</v>
       </c>
       <c r="WZ1" t="n">
-        <v>9.90138349502217</v>
+        <v>0.3282423462072503</v>
       </c>
       <c r="XA1" t="n">
-        <v>9.103607645982397</v>
+        <v>0.1089417954940751</v>
       </c>
       <c r="XB1" t="n">
-        <v>9.901473869095696</v>
+        <v>0.3283317219543476</v>
       </c>
       <c r="XC1" t="n">
-        <v>9.901563700381995</v>
+        <v>0.1810920442400804</v>
       </c>
       <c r="XD1" t="n">
-        <v>9.704992897610996</v>
+        <v>0.2808546442802072</v>
       </c>
       <c r="XE1" t="n">
-        <v>9.12245569493888</v>
+        <v>0.06994481845476866</v>
       </c>
       <c r="XF1" t="n">
-        <v>9.901652993756375</v>
+        <v>0.6483291685076549</v>
       </c>
       <c r="XG1" t="n">
-        <v>9.90174175403599</v>
+        <v>0.08539939389469071</v>
       </c>
       <c r="XH1" t="n">
-        <v>9.709206963133191</v>
+        <v>0.3286604607429894</v>
       </c>
       <c r="XI1" t="n">
-        <v>9.901829985980639</v>
+        <v>0.02737894693036831</v>
       </c>
       <c r="XJ1" t="n">
-        <v>9.901917694293532</v>
+        <v>0.9942668968988616</v>
       </c>
       <c r="XK1" t="n">
-        <v>9.902004883622364</v>
+        <v>0.01454996292777031</v>
       </c>
       <c r="XL1" t="n">
-        <v>9.902091558559846</v>
+        <v>0.1676753199561012</v>
       </c>
       <c r="XM1" t="n">
-        <v>9.902177723644758</v>
+        <v>0.05903966634629348</v>
       </c>
       <c r="XN1" t="n">
-        <v>9.902263383362614</v>
+        <v>1.401704008271208</v>
       </c>
       <c r="XO1" t="n">
-        <v>9.902348542146424</v>
+        <v>0.07839140743726936</v>
       </c>
       <c r="XP1" t="n">
-        <v>8.464103038847687</v>
+        <v>0.3297651716511207</v>
       </c>
       <c r="XQ1" t="n">
-        <v>9.139733073148992</v>
+        <v>0.1378954903739706</v>
       </c>
       <c r="XR1" t="n">
-        <v>9.705297809415434</v>
+        <v>2.284581494654744</v>
       </c>
       <c r="XS1" t="n">
-        <v>9.902433204377603</v>
+        <v>0.1786002013533844</v>
       </c>
       <c r="XT1" t="n">
-        <v>9.713252466034493</v>
+        <v>0.5749986187894529</v>
       </c>
       <c r="XU1" t="n">
-        <v>9.155628261102295</v>
+        <v>0.3316797096259393</v>
       </c>
       <c r="XV1" t="n">
-        <v>9.902517374386454</v>
+        <v>4.003467006697898</v>
       </c>
       <c r="XW1" t="n">
-        <v>9.902601056453273</v>
+        <v>0.3231021567936678</v>
       </c>
       <c r="XX1" t="n">
-        <v>9.90268425480869</v>
+        <v>0.885271989411875</v>
       </c>
       <c r="XY1" t="n">
-        <v>9.707460308927336</v>
+        <v>0.6488498633942119</v>
       </c>
       <c r="XZ1" t="n">
-        <v>9.90276697363468</v>
+        <v>6.084803501763036</v>
       </c>
       <c r="YA1" t="n">
-        <v>9.902849217065155</v>
+        <v>0.5225149070692877</v>
       </c>
       <c r="YB1" t="n">
-        <v>9.902930989186519</v>
+        <v>1.319907287091542</v>
       </c>
       <c r="YC1" t="n">
-        <v>9.170300742289959</v>
+        <v>0.9956520374985561</v>
       </c>
       <c r="YD1" t="n">
-        <v>9.709560127293965</v>
+        <v>7.27797531081298</v>
       </c>
       <c r="YE1" t="n">
-        <v>9.903012294038678</v>
+        <v>0.7812277071544508</v>
       </c>
       <c r="YF1" t="n">
-        <v>9.717139321763199</v>
+        <v>2.22293112655808</v>
       </c>
       <c r="YG1" t="n">
-        <v>9.711599950850117</v>
+        <v>1.407025854901057</v>
       </c>
       <c r="YH1" t="n">
-        <v>9.183886373019277</v>
+        <v>6.720468087252862</v>
       </c>
       <c r="YI1" t="n">
-        <v>9.903093135615279</v>
+        <v>1.163831999723307</v>
       </c>
       <c r="YJ1" t="n">
-        <v>8.483339636663253</v>
+        <v>3.997789787802465</v>
       </c>
       <c r="YK1" t="n">
-        <v>9.713582314587788</v>
+        <v>2.29005618410675</v>
       </c>
       <c r="YL1" t="n">
-        <v>9.903173517864746</v>
+        <v>4.895073722171026</v>
       </c>
       <c r="YM1" t="n">
-        <v>9.903253444690737</v>
+        <v>1.869221195027118</v>
       </c>
       <c r="YN1" t="n">
-        <v>8.500903486842677</v>
+        <v>6.325395197140462</v>
       </c>
       <c r="YO1" t="n">
-        <v>9.196501601553644</v>
+        <v>4.005455961235553</v>
       </c>
       <c r="YP1" t="n">
-        <v>9.903332919952721</v>
+        <v>3.00727018088526</v>
       </c>
       <c r="YQ1" t="n">
-        <v>9.90341194746674</v>
+        <v>3.052505747587017</v>
       </c>
       <c r="YR1" t="n">
-        <v>9.720876683040801</v>
+        <v>7.851634950252633</v>
       </c>
       <c r="YS1" t="n">
-        <v>9.71550961266608</v>
+        <v>6.077458983331208</v>
       </c>
       <c r="YT1" t="n">
-        <v>9.903490531005943</v>
+        <v>1.766957329737864</v>
       </c>
       <c r="YU1" t="n">
-        <v>9.903568674301265</v>
+        <v>4.341140568990629</v>
       </c>
       <c r="YV1" t="n">
-        <v>9.903646381041863</v>
+        <v>7.21192074358517</v>
       </c>
       <c r="YW1" t="n">
-        <v>9.903723654875812</v>
+        <v>7.271533347042846</v>
       </c>
       <c r="YX1" t="n">
-        <v>8.517003682840485</v>
+        <v>1.113872643810306</v>
       </c>
       <c r="YY1" t="n">
-        <v>9.903800499410671</v>
+        <v>4.758446696105786</v>
       </c>
       <c r="YZ1" t="n">
-        <v>9.903876918214054</v>
+        <v>4.863837970610618</v>
       </c>
       <c r="ZA1" t="n">
-        <v>9.903952914814109</v>
+        <v>6.705049391187606</v>
       </c>
       <c r="ZB1" t="n">
-        <v>9.724473011817361</v>
+        <v>0.7295150869651106</v>
       </c>
       <c r="ZC1" t="n">
-        <v>9.904028492700105</v>
+        <v>3.775871320227725</v>
       </c>
       <c r="ZD1" t="n">
-        <v>9.904103655322984</v>
+        <v>4.133959832949844</v>
       </c>
       <c r="ZE1" t="n">
-        <v>9.90417840609588</v>
+        <v>4.862498654143802</v>
       </c>
       <c r="ZF1" t="n">
-        <v>9.90425274839464</v>
+        <v>0.6239547985711715</v>
       </c>
       <c r="ZG1" t="n">
-        <v>9.904326685558216</v>
+        <v>2.157925499444273</v>
       </c>
       <c r="ZH1" t="n">
-        <v>9.904400220889411</v>
+        <v>2.177872711240166</v>
       </c>
       <c r="ZI1" t="n">
-        <v>9.904473357655087</v>
+        <v>2.982813382584327</v>
       </c>
       <c r="ZJ1" t="n">
-        <v>9.904546099086925</v>
+        <v>0.3509619766786028</v>
       </c>
       <c r="ZK1" t="n">
-        <v>9.904618448381656</v>
+        <v>3.985212264064223</v>
       </c>
       <c r="ZL1" t="n">
-        <v>9.904690408701688</v>
+        <v>1.42057021797826</v>
       </c>
       <c r="ZM1" t="n">
-        <v>9.904761983175465</v>
+        <v>2.336657426544992</v>
       </c>
       <c r="ZN1" t="n">
-        <v>9.904833174898078</v>
+        <v>0.448829629994226</v>
       </c>
       <c r="ZO1" t="n">
-        <v>9.904903986931522</v>
+        <v>2.016004486940062</v>
       </c>
       <c r="ZP1" t="n">
-        <v>9.904974422305177</v>
+        <v>0.9094633091789589</v>
       </c>
       <c r="ZQ1" t="n">
-        <v>9.90504448401639</v>
+        <v>1.453328938472903</v>
       </c>
       <c r="ZR1" t="n">
-        <v>9.905114175030706</v>
+        <v>0.7306427577859834</v>
       </c>
       <c r="ZS1" t="n">
-        <v>9.905183498282446</v>
+        <v>1.097426307978282</v>
       </c>
       <c r="ZT1" t="n">
-        <v>9.905252456674948</v>
+        <v>1.315821119807013</v>
       </c>
       <c r="ZU1" t="n">
-        <v>9.905321053081099</v>
+        <v>1.7655103489057</v>
       </c>
       <c r="ZV1" t="n">
-        <v>9.905389290343795</v>
+        <v>0.6223462179324665</v>
       </c>
       <c r="ZW1" t="n">
-        <v>9.90545717127616</v>
+        <v>1.648027077566749</v>
       </c>
       <c r="ZX1" t="n">
-        <v>9.90552469866198</v>
+        <v>0.9286477275837868</v>
       </c>
       <c r="ZY1" t="n">
-        <v>9.905591875256169</v>
+        <v>1.118550631140005</v>
       </c>
       <c r="ZZ1" t="n">
-        <v>9.905658703785125</v>
+        <v>0.4877025671697291</v>
       </c>
       <c r="AAA1" t="n">
-        <v>9.905725186947009</v>
+        <v>2.101082106824753</v>
       </c>
       <c r="AAB1" t="n">
-        <v>9.727936143231826</v>
+        <v>1.324318666428029</v>
       </c>
       <c r="AAC1" t="n">
-        <v>9.905791327412167</v>
+        <v>0.730903543154105</v>
       </c>
       <c r="AAD1" t="n">
-        <v>9.905857127823548</v>
+        <v>0.2400748559424658</v>
       </c>
       <c r="AAE1" t="n">
-        <v>9.905922590796896</v>
+        <v>1.34194499471944</v>
       </c>
       <c r="AAF1" t="n">
-        <v>8.531815863158467</v>
+        <v>0.9350412852437198</v>
       </c>
       <c r="AAG1" t="n">
-        <v>9.905987718921269</v>
+        <v>0.62149158428343</v>
       </c>
       <c r="AAH1" t="n">
-        <v>9.906052514759315</v>
+        <v>0.1240199838836001</v>
       </c>
       <c r="AAI1" t="n">
-        <v>9.906116980847543</v>
+        <v>0.9135646707007823</v>
       </c>
       <c r="AAJ1" t="n">
-        <v>9.731273342594855</v>
+        <v>0.5807899478042293</v>
       </c>
       <c r="AAK1" t="n">
-        <v>9.906181119696722</v>
+        <v>0.7305803246665097</v>
       </c>
       <c r="AAL1" t="n">
-        <v>9.906244933792262</v>
+        <v>0.2409809894660456</v>
       </c>
       <c r="AAM1" t="n">
-        <v>9.906308425594382</v>
+        <v>0.5556004353822059</v>
       </c>
       <c r="AAN1" t="n">
-        <v>9.906371597538566</v>
+        <v>0.7259702162711827</v>
       </c>
       <c r="AAO1" t="n">
-        <v>9.90643445203577</v>
+        <v>0.448652238653455</v>
       </c>
       <c r="AAP1" t="n">
-        <v>9.906496991472844</v>
+        <v>0.3515564481956958</v>
       </c>
       <c r="AAQ1" t="n">
-        <v>9.906559218212754</v>
+        <v>0.4162897270108859</v>
       </c>
       <c r="AAR1" t="n">
-        <v>9.906621134594856</v>
+        <v>0.4099338434786441</v>
       </c>
       <c r="AAS1" t="n">
-        <v>9.906682742935244</v>
+        <v>0.5186243059560339</v>
       </c>
       <c r="AAT1" t="n">
-        <v>9.906744045527034</v>
+        <v>0.1869514772119398</v>
       </c>
       <c r="AAU1" t="n">
-        <v>9.906805044640652</v>
+        <v>0.5551925957682338</v>
       </c>
       <c r="AAV1" t="n">
-        <v>9.906865742524078</v>
+        <v>0.2843116790516745</v>
       </c>
       <c r="AAW1" t="n">
-        <v>9.90692614140316</v>
+        <v>0.8090647991287515</v>
       </c>
       <c r="AAX1" t="n">
-        <v>9.734491356266354</v>
+        <v>0.2454139230680759</v>
       </c>
       <c r="AAY1" t="n">
-        <v>9.906986243481878</v>
+        <v>0.6790095856413773</v>
       </c>
       <c r="AAZ1" t="n">
-        <v>9.907046050942521</v>
+        <v>0.4104057912925249</v>
       </c>
       <c r="ABA1" t="n">
-        <v>9.907105565946154</v>
+        <v>0.7301986280177414</v>
       </c>
       <c r="ABB1" t="n">
-        <v>8.545488644990451</v>
+        <v>0.2978119031923828</v>
       </c>
       <c r="ABC1" t="n">
-        <v>9.907164790632701</v>
+        <v>0.7738977320079987</v>
       </c>
       <c r="ABD1" t="n">
-        <v>9.907223727121284</v>
+        <v>0.2153404301383915</v>
       </c>
       <c r="ABE1" t="n">
-        <v>9.907282377510372</v>
+        <v>0.8097653107418753</v>
       </c>
       <c r="ABF1" t="n">
-        <v>9.907340743878207</v>
+        <v>0.1365155952668048</v>
       </c>
       <c r="ABG1" t="n">
-        <v>9.907398828282934</v>
+        <v>0.8360001651858249</v>
       </c>
       <c r="ABH1" t="n">
-        <v>9.907456632762829</v>
+        <v>0.2997436320569844</v>
       </c>
       <c r="ABI1" t="n">
-        <v>9.90751415933655</v>
+        <v>1.266182538099592</v>
       </c>
       <c r="ABJ1" t="n">
-        <v>9.907571410003435</v>
+        <v>0.03136972193562966</v>
       </c>
       <c r="ABK1" t="n">
-        <v>9.90762838674368</v>
+        <v>0.5447316533193155</v>
       </c>
       <c r="ABL1" t="n">
-        <v>9.907685091518619</v>
+        <v>0.5298037341687016</v>
       </c>
       <c r="ABM1" t="n">
-        <v>9.90774152627078</v>
+        <v>0.8128019763577402</v>
       </c>
       <c r="ABN1" t="n">
-        <v>9.907797692924344</v>
+        <v>0.05010760172589337</v>
       </c>
       <c r="ABO1" t="n">
-        <v>9.907853593385269</v>
+        <v>0.320532058213466</v>
       </c>
       <c r="ABP1" t="n">
-        <v>9.907909229541403</v>
+        <v>0.2995294966133191</v>
       </c>
       <c r="ABQ1" t="n">
-        <v>9.907964603262855</v>
+        <v>0.5206694558254907</v>
       </c>
       <c r="ABR1" t="n">
-        <v>9.717384108057296</v>
+        <v>0.03174009356759078</v>
       </c>
       <c r="ABS1" t="n">
-        <v>9.908019716402055</v>
+        <v>0.272500801724207</v>
       </c>
       <c r="ABT1" t="n">
-        <v>9.908074570794177</v>
+        <v>0.151022810385728</v>
       </c>
       <c r="ABU1" t="n">
-        <v>9.908129168256998</v>
+        <v>0.5592849591622092</v>
       </c>
       <c r="ABV1" t="n">
-        <v>9.908183510591524</v>
+        <v>0.1367193894519794</v>
       </c>
       <c r="ABW1" t="n">
-        <v>9.908237599581838</v>
+        <v>0.122224631435558</v>
       </c>
       <c r="ABX1" t="n">
-        <v>9.908291436995427</v>
+        <v>0.1899359652259939</v>
       </c>
       <c r="ABY1" t="n">
-        <v>9.908345024583459</v>
+        <v>0.3959314127500024</v>
       </c>
       <c r="ABZ1" t="n">
-        <v>9.90839836408078</v>
+        <v>0.1683273052435166</v>
       </c>
       <c r="ACA1" t="n">
-        <v>9.908451457206311</v>
+        <v>0.1530404598934691</v>
       </c>
       <c r="ACB1" t="n">
-        <v>9.908504305663051</v>
+        <v>0.1511481017312167</v>
       </c>
       <c r="ACC1" t="n">
-        <v>9.908556911138399</v>
+        <v>0.3604193382338786</v>
       </c>
       <c r="ACD1" t="n">
-        <v>9.908609275304171</v>
+        <v>0.3388285447042417</v>
       </c>
       <c r="ACE1" t="n">
-        <v>9.908661399817076</v>
+        <v>0.04097927083712995</v>
       </c>
       <c r="ACF1" t="n">
-        <v>9.908713286318452</v>
+        <v>0.05452448909162303</v>
       </c>
       <c r="ACG1" t="n">
-        <v>9.908764936434915</v>
+        <v>0.1808599475885335</v>
       </c>
       <c r="ACH1" t="n">
-        <v>9.908816351778089</v>
+        <v>0.2983161594946674</v>
       </c>
       <c r="ACI1" t="n">
-        <v>9.908867533945068</v>
+        <v>-0.02672778961280957</v>
       </c>
       <c r="ACJ1" t="n">
-        <v>9.908918484518594</v>
+        <v>-0.01468649033550763</v>
       </c>
       <c r="ACK1" t="n">
-        <v>9.908969205066905</v>
+        <v>0.05786365713731016</v>
       </c>
       <c r="ACL1" t="n">
-        <v>9.909019697144316</v>
+        <v>0.2458749224829714</v>
       </c>
       <c r="ACM1" t="n">
-        <v>9.909069962291044</v>
+        <v>0.04015000333849744</v>
       </c>
       <c r="ACN1" t="n">
-        <v>9.90912000203349</v>
+        <v>-0.01323568383495416</v>
       </c>
       <c r="ACO1" t="n">
-        <v>9.909169817884514</v>
+        <v>-0.01980169341758349</v>
       </c>
       <c r="ACP1" t="n">
-        <v>9.909219411343335</v>
+        <v>0.186660150845795</v>
       </c>
       <c r="ACQ1" t="n">
-        <v>9.909268783895845</v>
+        <v>0.1541309044529643</v>
       </c>
       <c r="ACR1" t="n">
-        <v>9.909317937014812</v>
+        <v>0.0657766491946189</v>
       </c>
       <c r="ACS1" t="n">
-        <v>9.909366872159868</v>
+        <v>-0.003561746486229361</v>
       </c>
       <c r="ACT1" t="n">
-        <v>9.909415590777716</v>
+        <v>0.150058774883636</v>
       </c>
       <c r="ACU1" t="n">
-        <v>9.909464094302349</v>
+        <v>0.03967966445012785</v>
       </c>
       <c r="ACV1" t="n">
-        <v>9.90951238415504</v>
+        <v>0.09110034912668075</v>
       </c>
       <c r="ACW1" t="n">
-        <v>9.909560461744661</v>
+        <v>0.08292992177059674</v>
       </c>
       <c r="ACX1" t="n">
-        <v>9.909608328467677</v>
+        <v>0.2998909623746921</v>
       </c>
       <c r="ACY1" t="n">
-        <v>9.909655985708278</v>
+        <v>0.1547264418390569</v>
       </c>
       <c r="ACZ1" t="n">
-        <v>9.909703434838697</v>
+        <v>0.06620019552389204</v>
       </c>
       <c r="ADA1" t="n">
-        <v>9.909750677219074</v>
+        <v>-0.003572976703645904</v>
       </c>
       <c r="ADB1" t="n">
-        <v>9.909797714197788</v>
+        <v>0.3727742016468871</v>
       </c>
       <c r="ADC1" t="n">
-        <v>9.909844547111502</v>
+        <v>0.3217638220590658</v>
       </c>
       <c r="ADD1" t="n">
-        <v>9.909891177285376</v>
+        <v>-0.01414301732823944</v>
       </c>
       <c r="ADE1" t="n">
-        <v>9.90993760603298</v>
+        <v>0.08301498209420868</v>
       </c>
       <c r="ADF1" t="n">
-        <v>9.719207941410907</v>
+        <v>0.2421647531709371</v>
       </c>
       <c r="ADG1" t="n">
-        <v>9.909983834656686</v>
+        <v>0.1549018903124566</v>
       </c>
       <c r="ADH1" t="n">
-        <v>9.910029864447599</v>
+        <v>-0.0213740611688305</v>
       </c>
       <c r="ADI1" t="n">
-        <v>9.910075696685773</v>
+        <v>0.2159480179360799</v>
       </c>
       <c r="ADJ1" t="n">
-        <v>9.910121332640241</v>
+        <v>0.0992822198429494</v>
       </c>
       <c r="ADK1" t="n">
-        <v>9.910166773569294</v>
+        <v>0.1847085042798049</v>
       </c>
       <c r="ADL1" t="n">
-        <v>9.910212020720387</v>
+        <v>-0.01695714115188196</v>
       </c>
       <c r="ADM1" t="n">
-        <v>9.910257075330387</v>
+        <v>0.3958814369553332</v>
       </c>
       <c r="ADN1" t="n">
-        <v>9.910301938625725</v>
+        <v>0.1294461039060814</v>
       </c>
       <c r="ADO1" t="n">
-        <v>9.910346611822362</v>
+        <v>0.0634320444783599</v>
       </c>
       <c r="ADP1" t="n">
-        <v>9.910391096125986</v>
+        <v>0.06534547169340048</v>
       </c>
       <c r="ADQ1" t="n">
-        <v>9.910435392732094</v>
+        <v>0.3612586695164856</v>
       </c>
       <c r="ADR1" t="n">
-        <v>9.910479502826201</v>
+        <v>0.09948684744736772</v>
       </c>
       <c r="ADS1" t="n">
-        <v>9.910523427583767</v>
+        <v>0.04016720746130287</v>
       </c>
       <c r="ADT1" t="n">
-        <v>9.910567168170463</v>
+        <v>0.09205786300499391</v>
       </c>
       <c r="ADU1" t="n">
-        <v>9.91061072574214</v>
+        <v>0.1831448697492925</v>
       </c>
       <c r="ADV1" t="n">
-        <v>9.910654101445054</v>
+        <v>0.2428125006649415</v>
       </c>
       <c r="ADW1" t="n">
-        <v>9.910697296415854</v>
+        <v>0.01958155769936385</v>
       </c>
       <c r="ADX1" t="n">
-        <v>9.910740311781771</v>
+        <v>0.05225653709437998</v>
+      </c>
+      <c r="ADY1" t="n">
+        <v>0.3612469604170198</v>
+      </c>
+      <c r="ADZ1" t="n">
+        <v>0.09987822394177423</v>
+      </c>
+      <c r="AEA1" t="n">
+        <v>-0.04464345430190013</v>
+      </c>
+      <c r="AEB1" t="n">
+        <v>0.02889826312819669</v>
+      </c>
+      <c r="AEC1" t="n">
+        <v>0.3064097746017136</v>
+      </c>
+      <c r="AED1" t="n">
+        <v>0.07467868190146153</v>
+      </c>
+      <c r="AEE1" t="n">
+        <v>-0.03258902029983148</v>
+      </c>
+      <c r="AEF1" t="n">
+        <v>0.1392108146146666</v>
+      </c>
+      <c r="AEG1" t="n">
+        <v>0.4492246648956406</v>
+      </c>
+      <c r="AEH1" t="n">
+        <v>0.19426575453711</v>
+      </c>
+      <c r="AEI1" t="n">
+        <v>0.04030960236850296</v>
+      </c>
+      <c r="AEJ1" t="n">
+        <v>0.1076246123285783</v>
+      </c>
+      <c r="AEK1" t="n">
+        <v>0.2465217529076558</v>
+      </c>
+      <c r="AEL1" t="n">
+        <v>0.07466422600285047</v>
+      </c>
+      <c r="AEM1" t="n">
+        <v>0.1561574196623168</v>
+      </c>
+      <c r="AEN1" t="n">
+        <v>0.2465083987602544</v>
+      </c>
+      <c r="AEO1" t="n">
+        <v>0.2999354575373488</v>
+      </c>
+      <c r="AEP1" t="n">
+        <v>0.1942259111902212</v>
+      </c>
+      <c r="AEQ1" t="n">
+        <v>0.122817042341837</v>
+      </c>
+      <c r="AER1" t="n">
+        <v>0.4491509289429736</v>
+      </c>
+      <c r="AES1" t="n">
+        <v>0.4443486376355449</v>
+      </c>
+      <c r="AET1" t="n">
+        <v>0.3706722537119393</v>
+      </c>
+      <c r="AEU1" t="n">
+        <v>0.2742769248735973</v>
+      </c>
+      <c r="AEV1" t="n">
+        <v>0.246412548800038</v>
+      </c>
+      <c r="AEW1" t="n">
+        <v>0.3706635857784882</v>
+      </c>
+      <c r="AEX1" t="n">
+        <v>0.6278806571768717</v>
+      </c>
+      <c r="AEY1" t="n">
+        <v>0.1229053877657353</v>
+      </c>
+      <c r="AEZ1" t="n">
+        <v>0.2430046841385741</v>
+      </c>
+      <c r="AFA1" t="n">
+        <v>0.6277296229557965</v>
+      </c>
+      <c r="AFB1" t="n">
+        <v>0.6206308795159918</v>
+      </c>
+      <c r="AFC1" t="n">
+        <v>0.1563454906636293</v>
+      </c>
+      <c r="AFD1" t="n">
+        <v>0.1942609292975471</v>
+      </c>
+      <c r="AFE1" t="n">
+        <v>0.3704449321583871</v>
+      </c>
+      <c r="AFF1" t="n">
+        <v>0.5294334244758516</v>
+      </c>
+      <c r="AFG1" t="n">
+        <v>0.185415070303285</v>
+      </c>
+      <c r="AFH1" t="n">
+        <v>0.07484641709900805</v>
+      </c>
+      <c r="AFI1" t="n">
+        <v>0.4367344216820637</v>
+      </c>
+      <c r="AFJ1" t="n">
+        <v>0.2996504039871882</v>
+      </c>
+      <c r="AFK1" t="n">
+        <v>0.1563684462073982</v>
+      </c>
+      <c r="AFL1" t="n">
+        <v>-0.009191501159943188</v>
+      </c>
+      <c r="AFM1" t="n">
+        <v>0.6274550251924712</v>
+      </c>
+      <c r="AFN1" t="n">
+        <v>0.3062107077299288</v>
+      </c>
+      <c r="AFO1" t="n">
+        <v>0.04052773354704234</v>
+      </c>
+      <c r="AFP1" t="n">
+        <v>0.002984483407732455</v>
+      </c>
+      <c r="AFQ1" t="n">
+        <v>0.8496060218374674</v>
+      </c>
+      <c r="AFR1" t="n">
+        <v>0.361191302087515</v>
+      </c>
+      <c r="AFS1" t="n">
+        <v>0.01868796294989952</v>
+      </c>
+      <c r="AFT1" t="n">
+        <v>-0.009991799681140806</v>
+      </c>
+      <c r="AFU1" t="n">
+        <v>1.201245898890692</v>
+      </c>
+      <c r="AFV1" t="n">
+        <v>0.3953551884521737</v>
+      </c>
+      <c r="AFW1" t="n">
+        <v>0.1229378589405258</v>
+      </c>
+      <c r="AFX1" t="n">
+        <v>0.002737856139616225</v>
+      </c>
+      <c r="AFY1" t="n">
+        <v>1.044413729633761</v>
+      </c>
+      <c r="AFZ1" t="n">
+        <v>0.4906935692758039</v>
+      </c>
+      <c r="AGA1" t="n">
+        <v>0.01842167344855767</v>
+      </c>
+      <c r="AGB1" t="n">
+        <v>0.02416867553827555</v>
+      </c>
+      <c r="AGC1" t="n">
+        <v>1.547780760562876</v>
+      </c>
+      <c r="AGD1" t="n">
+        <v>0.4437544235225741</v>
+      </c>
+      <c r="AGE1" t="n">
+        <v>0.005245802036877231</v>
+      </c>
+      <c r="AGF1" t="n">
+        <v>0.002570917539426287</v>
+      </c>
+      <c r="AGG1" t="n">
+        <v>1.902484232849845</v>
+      </c>
+      <c r="AGH1" t="n">
+        <v>0.3702085383785754</v>
+      </c>
+      <c r="AGI1" t="n">
+        <v>0.09340770123815638</v>
+      </c>
+      <c r="AGJ1" t="n">
+        <v>0.009649381558250084</v>
+      </c>
+      <c r="AGK1" t="n">
+        <v>1.203941930337126</v>
+      </c>
+      <c r="AGL1" t="n">
+        <v>0.4435340626622218</v>
+      </c>
+      <c r="AGM1" t="n">
+        <v>0.2166591383038658</v>
+      </c>
+      <c r="AGN1" t="n">
+        <v>0.1071510798194013</v>
+      </c>
+      <c r="AGO1" t="n">
+        <v>1.046667439411637</v>
+      </c>
+      <c r="AGP1" t="n">
+        <v>0.4902721951311897</v>
+      </c>
+      <c r="AGQ1" t="n">
+        <v>0.402702662813666</v>
+      </c>
+      <c r="AGR1" t="n">
+        <v>0.009552422756252267</v>
+      </c>
+      <c r="AGS1" t="n">
+        <v>1.204647113660509</v>
+      </c>
+      <c r="AGT1" t="n">
+        <v>0.2848121941819228</v>
+      </c>
+      <c r="AGU1" t="n">
+        <v>0.2166747558600572</v>
+      </c>
+      <c r="AGV1" t="n">
+        <v>0.02870454341793951</v>
+      </c>
+      <c r="AGW1" t="n">
+        <v>0.7897247403312548</v>
+      </c>
+      <c r="AGX1" t="n">
+        <v>0.1310374301268783</v>
+      </c>
+      <c r="AGY1" t="n">
+        <v>0.2742615410540318</v>
+      </c>
+      <c r="AGZ1" t="n">
+        <v>0.05310002029641019</v>
+      </c>
+      <c r="AHA1" t="n">
+        <v>0.883437198103319</v>
+      </c>
+      <c r="AHB1" t="n">
+        <v>0.1002756142394744</v>
+      </c>
+      <c r="AHC1" t="n">
+        <v>0.4870365606673095</v>
+      </c>
+      <c r="AHD1" t="n">
+        <v>0.07441526460538928</v>
+      </c>
+      <c r="AHE1" t="n">
+        <v>0.9403103152187737</v>
+      </c>
+      <c r="AHF1" t="n">
+        <v>0.002689397138339318</v>
+      </c>
+      <c r="AHG1" t="n">
+        <v>0.2741082642413621</v>
+      </c>
+      <c r="AHH1" t="n">
+        <v>0.05303104240621444</v>
+      </c>
+      <c r="AHI1" t="n">
+        <v>0.6155931392327386</v>
+      </c>
+      <c r="AHJ1" t="n">
+        <v>0.009738309376595127</v>
+      </c>
+      <c r="AHK1" t="n">
+        <v>0.216485957060357</v>
+      </c>
+      <c r="AHL1" t="n">
+        <v>0.1721264088145898</v>
+      </c>
+      <c r="AHM1" t="n">
+        <v>0.5689851406555865</v>
+      </c>
+      <c r="AHN1" t="n">
+        <v>0.1072358149655795</v>
+      </c>
+      <c r="AHO1" t="n">
+        <v>0.2741129026406864</v>
+      </c>
+      <c r="AHP1" t="n">
+        <v>0.3394629609233186</v>
+      </c>
+      <c r="AHQ1" t="n">
+        <v>0.6155879932326507</v>
+      </c>
+      <c r="AHR1" t="n">
+        <v>0.2461447335955974</v>
+      </c>
+      <c r="AHS1" t="n">
+        <v>0.1704328578035298</v>
+      </c>
+      <c r="AHT1" t="n">
+        <v>0.2996868036236292</v>
+      </c>
+      <c r="AHU1" t="n">
+        <v>0.3812403234557991</v>
+      </c>
+      <c r="AHV1" t="n">
+        <v>0.4097009463552621</v>
+      </c>
+      <c r="AHW1" t="n">
+        <v>0.2127132937638749</v>
+      </c>
+      <c r="AHX1" t="n">
+        <v>0.13978509830732</v>
+      </c>
+      <c r="AHY1" t="n">
+        <v>0.6156201689177524</v>
+      </c>
+      <c r="AHZ1" t="n">
+        <v>0.6745683133647434</v>
+      </c>
+      <c r="AIA1" t="n">
+        <v>0.4015196677983325</v>
+      </c>
+      <c r="AIB1" t="n">
+        <v>0.1720299602794892</v>
+      </c>
+      <c r="AIC1" t="n">
+        <v>0.5687832034209027</v>
+      </c>
+      <c r="AID1" t="n">
+        <v>0.7429329503866743</v>
+      </c>
+      <c r="AIE1" t="n">
+        <v>0.3376385190663253</v>
+      </c>
+      <c r="AIF1" t="n">
+        <v>0.05311971749526233</v>
+      </c>
+      <c r="AIG1" t="n">
+        <v>0.4876191978932191</v>
+      </c>
+      <c r="AIH1" t="n">
+        <v>0.5429885304361153</v>
+      </c>
+      <c r="AII1" t="n">
+        <v>0.4014058009716874</v>
+      </c>
+      <c r="AIJ1" t="n">
+        <v>0.1720490057411563</v>
+      </c>
+      <c r="AIK1" t="n">
+        <v>0.2728211543113705</v>
+      </c>
+      <c r="AIL1" t="n">
+        <v>0.3216795291821125</v>
+      </c>
+      <c r="AIM1" t="n">
+        <v>0.6538868897683721</v>
+      </c>
+      <c r="AIN1" t="n">
+        <v>0.194418586038806</v>
+      </c>
+      <c r="AIO1" t="n">
+        <v>0.4875558057110915</v>
+      </c>
+      <c r="AIP1" t="n">
+        <v>0.1565212566678581</v>
+      </c>
+      <c r="AIQ1" t="n">
+        <v>0.5785978211981186</v>
+      </c>
+      <c r="AIR1" t="n">
+        <v>0.07378314336570399</v>
+      </c>
+      <c r="AIS1" t="n">
+        <v>0.3794265082963812</v>
+      </c>
+      <c r="AIT1" t="n">
+        <v>0.1443377417343872</v>
+      </c>
+      <c r="AIU1" t="n">
+        <v>0.4725932349388368</v>
+      </c>
+      <c r="AIV1" t="n">
+        <v>-0.006406702524773378</v>
+      </c>
+      <c r="AIW1" t="n">
+        <v>0.3249615348125882</v>
+      </c>
+      <c r="AIX1" t="n">
+        <v>0.2995904498143516</v>
+      </c>
+      <c r="AIY1" t="n">
+        <v>0.2574912980461904</v>
+      </c>
+      <c r="AIZ1" t="n">
+        <v>0.07224489927363573</v>
+      </c>
+      <c r="AJA1" t="n">
+        <v>0.4094632423707233</v>
+      </c>
+      <c r="AJB1" t="n">
+        <v>0.1440731370908992</v>
+      </c>
+      <c r="AJC1" t="n">
+        <v>0.3375769737843728</v>
+      </c>
+      <c r="AJD1" t="n">
+        <v>0.1933721349636078</v>
+      </c>
+      <c r="AJE1" t="n">
+        <v>0.4708700159075114</v>
+      </c>
+      <c r="AJF1" t="n">
+        <v>0.16225012717131</v>
+      </c>
+      <c r="AJG1" t="n">
+        <v>0.4011631553097046</v>
+      </c>
+      <c r="AJH1" t="n">
+        <v>0.1985431213582362</v>
+      </c>
+      <c r="AJI1" t="n">
+        <v>0.4093312726765633</v>
+      </c>
+      <c r="AJJ1" t="n">
+        <v>0.07789347427698862</v>
+      </c>
+      <c r="AJK1" t="n">
+        <v>0.2127930311753299</v>
+      </c>
+      <c r="AJL1" t="n">
+        <v>0.1919545260280216</v>
+      </c>
+      <c r="AJM1" t="n">
+        <v>0.6740734648885998</v>
+      </c>
+      <c r="AJN1" t="n">
+        <v>0.06219482628391921</v>
+      </c>
+      <c r="AJO1" t="n">
+        <v>0.07943430772990678</v>
+      </c>
+      <c r="AJP1" t="n">
+        <v>0.07057737363957982</v>
+      </c>
+      <c r="AJQ1" t="n">
+        <v>0.5734207371098156</v>
+      </c>
+      <c r="AJR1" t="n">
+        <v>0.04119141290939537</v>
+      </c>
+      <c r="AJS1" t="n">
+        <v>0.1063327544108364</v>
+      </c>
+      <c r="AJT1" t="n">
+        <v>0.1918236180457271</v>
+      </c>
+      <c r="AJU1" t="n">
+        <v>0.4482165173438686</v>
+      </c>
+      <c r="AJV1" t="n">
+        <v>0.1567477925285134</v>
+      </c>
+      <c r="AJW1" t="n">
+        <v>0.1257343689469933</v>
+      </c>
+      <c r="AJX1" t="n">
+        <v>0.07044723997691824</v>
+      </c>
+      <c r="AJY1" t="n">
+        <v>0.5733489870416326</v>
+      </c>
+      <c r="AJZ1" t="n">
+        <v>0.04131516092661618</v>
+      </c>
+      <c r="AKA1" t="n">
+        <v>0.2680080006952072</v>
+      </c>
+      <c r="AKB1" t="n">
+        <v>0.1914520492930912</v>
+      </c>
+      <c r="AKC1" t="n">
+        <v>0.9150521362899975</v>
+      </c>
+      <c r="AKD1" t="n">
+        <v>0.1567844355072412</v>
+      </c>
+      <c r="AKE1" t="n">
+        <v>0.2488404706278023</v>
+      </c>
+      <c r="AKF1" t="n">
+        <v>0.2150722677238592</v>
+      </c>
+      <c r="AKG1" t="n">
+        <v>0.573204053256602</v>
+      </c>
+      <c r="AKH1" t="n">
+        <v>0.04140456746887835</v>
+      </c>
+      <c r="AKI1" t="n">
+        <v>0.1063538930272921</v>
+      </c>
+      <c r="AKJ1" t="n">
+        <v>0.2843445420685716</v>
+      </c>
+      <c r="AKK1" t="n">
+        <v>0.672756271345902</v>
+      </c>
+      <c r="AKL1" t="n">
+        <v>0.01883447961227951</v>
+      </c>
+      <c r="AKM1" t="n">
+        <v>0.07977121545744552</v>
+      </c>
+      <c r="AKN1" t="n">
+        <v>0.1309007749673887</v>
+      </c>
+      <c r="AKO1" t="n">
+        <v>0.3794780694702667</v>
+      </c>
+      <c r="AKP1" t="n">
+        <v>0.02720995953453367</v>
+      </c>
+      <c r="AKQ1" t="n">
+        <v>0.21308182692637</v>
+      </c>
+      <c r="AKR1" t="n">
+        <v>0.2843620112661205</v>
+      </c>
+      <c r="AKS1" t="n">
+        <v>0.2006155326342117</v>
+      </c>
+      <c r="AKT1" t="n">
+        <v>0.0384870145387279</v>
+      </c>
+      <c r="AKU1" t="n">
+        <v>0.4012202728359013</v>
+      </c>
+      <c r="AKV1" t="n">
+        <v>0.2431117028514866</v>
+      </c>
+      <c r="AKW1" t="n">
+        <v>0.2728515483606399</v>
+      </c>
+      <c r="AKX1" t="n">
+        <v>0.05391349111045927</v>
+      </c>
+      <c r="AKY1" t="n">
+        <v>0.4411615901380331</v>
+      </c>
+      <c r="AKZ1" t="n">
+        <v>0.1010229575480303</v>
+      </c>
+      <c r="ALA1" t="n">
+        <v>0.4873429888847018</v>
+      </c>
+      <c r="ALB1" t="n">
+        <v>0.1704870214466219</v>
+      </c>
+      <c r="ALC1" t="n">
+        <v>0.4011177712393309</v>
+      </c>
+      <c r="ALD1" t="n">
+        <v>0.00343003820340456</v>
+      </c>
+      <c r="ALE1" t="n">
+        <v>0.3798636823026851</v>
+      </c>
+      <c r="ALF1" t="n">
+        <v>0.3375351266817435</v>
+      </c>
+      <c r="ALG1" t="n">
+        <v>0.4409984815629002</v>
+      </c>
+      <c r="ALH1" t="n">
+        <v>0.1010925424299546</v>
+      </c>
+      <c r="ALI1" t="n">
+        <v>0.4485181869020664</v>
+      </c>
+      <c r="ALJ1" t="n">
+        <v>0.4009919695690275</v>
+      </c>
+      <c r="ALK1" t="n">
+        <v>0.2486444523757103</v>
+      </c>
+      <c r="ALL1" t="n">
+        <v>0.1310287872221708</v>
+      </c>
+      <c r="ALM1" t="n">
+        <v>0.5732311449441341</v>
+      </c>
+      <c r="ALN1" t="n">
+        <v>0.3374715966042603</v>
+      </c>
+      <c r="ALO1" t="n">
+        <v>0.4408395972661104</v>
+      </c>
+      <c r="ALP1" t="n">
+        <v>0.2840749901567698</v>
+      </c>
+      <c r="ALQ1" t="n">
+        <v>0.6734992628031369</v>
+      </c>
+      <c r="ALR1" t="n">
+        <v>0.2574620738466691</v>
+      </c>
+      <c r="ALS1" t="n">
+        <v>0.6884477334677027</v>
+      </c>
+      <c r="ALT1" t="n">
+        <v>0.1309732712198529</v>
+      </c>
+      <c r="ALU1" t="n">
+        <v>0.7425202919146012</v>
+      </c>
+      <c r="ALV1" t="n">
+        <v>0.1287263786477403</v>
+      </c>
+      <c r="ALW1" t="n">
+        <v>0.6534196002701398</v>
+      </c>
+      <c r="ALX1" t="n">
+        <v>0.02495739309097495</v>
+      </c>
+      <c r="ALY1" t="n">
+        <v>0.6736943789284738</v>
+      </c>
+      <c r="ALZ1" t="n">
+        <v>0.1704539088530689</v>
+      </c>
+      <c r="AMA1" t="n">
+        <v>0.6895130661260577</v>
+      </c>
+      <c r="AMB1" t="n">
+        <v>0.1309572049722815</v>
+      </c>
+      <c r="AMC1" t="n">
+        <v>0.4092014798844092</v>
+      </c>
+      <c r="AMD1" t="n">
+        <v>0.1285736800870312</v>
+      </c>
+      <c r="AME1" t="n">
+        <v>0.6536900083733621</v>
+      </c>
+      <c r="AMF1" t="n">
+        <v>0.2842389851107912</v>
+      </c>
+      <c r="AMG1" t="n">
+        <v>0.6736978356355164</v>
+      </c>
+      <c r="AMH1" t="n">
+        <v>0.03696480250443844</v>
+      </c>
+      <c r="AMI1" t="n">
+        <v>0.6901534296940163</v>
+      </c>
+      <c r="AMJ1" t="n">
+        <v>0.3073962714037522</v>
+      </c>
+      <c r="AMK1" t="n">
+        <v>0.4092295564020639</v>
+      </c>
+      <c r="AML1" t="n">
+        <v>0.02094559224986373</v>
+      </c>
+      <c r="AMM1" t="n">
+        <v>0.4417214407359039</v>
+      </c>
+      <c r="AMN1" t="n">
+        <v>0.2145774926604197</v>
+      </c>
+      <c r="AMO1" t="n">
+        <v>0.3352543790098681</v>
+      </c>
+      <c r="AMP1" t="n">
+        <v>0.0814415003651284</v>
+      </c>
+      <c r="AMQ1" t="n">
+        <v>0.2983416540801118</v>
+      </c>
+      <c r="AMR1" t="n">
+        <v>0.08340452787287271</v>
+      </c>
+      <c r="AMS1" t="n">
+        <v>0.5683222767696864</v>
+      </c>
+      <c r="AMT1" t="n">
+        <v>0.125452268398632</v>
+      </c>
+      <c r="AMU1" t="n">
+        <v>0.2652094967043329</v>
+      </c>
+      <c r="AMV1" t="n">
+        <v>0.09967351289473528</v>
+      </c>
+      <c r="AMW1" t="n">
+        <v>0.487442271554258</v>
+      </c>
+      <c r="AMX1" t="n">
+        <v>0.1703011354697921</v>
+      </c>
+      <c r="AMY1" t="n">
+        <v>0.1167719310146186</v>
+      </c>
+      <c r="AMZ1" t="n">
+        <v>0.08344053342101429</v>
+      </c>
+      <c r="ANA1" t="n">
+        <v>0.2728180771463395</v>
+      </c>
+      <c r="ANB1" t="n">
+        <v>0.05327318892212214</v>
+      </c>
+      <c r="ANC1" t="n">
+        <v>0.2652524564632487</v>
+      </c>
+      <c r="AND1" t="n">
+        <v>0.2145286256412494</v>
+      </c>
+      <c r="ANE1" t="n">
+        <v>0.335235504069229</v>
+      </c>
+      <c r="ANF1" t="n">
+        <v>0.080513151998669</v>
+      </c>
+      <c r="ANG1" t="n">
+        <v>0.2191521674690664</v>
+      </c>
+      <c r="ANH1" t="n">
+        <v>0.39426467591495</v>
+      </c>
+      <c r="ANI1" t="n">
+        <v>0.3805627934574121</v>
+      </c>
+      <c r="ANJ1" t="n">
+        <v>0.1064571273378533</v>
+      </c>
+      <c r="ANK1" t="n">
+        <v>0.1668078057050435</v>
+      </c>
+      <c r="ANL1" t="n">
+        <v>0.6234836333249673</v>
+      </c>
+      <c r="ANM1" t="n">
+        <v>0.6163686090102949</v>
+      </c>
+      <c r="ANN1" t="n">
+        <v>0.0805624006490967</v>
+      </c>
+      <c r="ANO1" t="n">
+        <v>0.1118723272929999</v>
+      </c>
+      <c r="ANP1" t="n">
+        <v>0.5971317352391777</v>
+      </c>
+      <c r="ANQ1" t="n">
+        <v>0.3807332295714907</v>
+      </c>
+      <c r="ANR1" t="n">
+        <v>0.1064681006060694</v>
+      </c>
+      <c r="ANS1" t="n">
+        <v>0.06128947553931374</v>
+      </c>
+      <c r="ANT1" t="n">
+        <v>0.3604978963835765</v>
+      </c>
+      <c r="ANU1" t="n">
+        <v>0.3351836454282148</v>
+      </c>
+      <c r="ANV1" t="n">
+        <v>0.08068842595803734</v>
+      </c>
+      <c r="ANW1" t="n">
+        <v>0.09050749844489615</v>
+      </c>
+      <c r="ANX1" t="n">
+        <v>0.1844400390801524</v>
+      </c>
+      <c r="ANY1" t="n">
+        <v>0.5682006956486357</v>
+      </c>
+      <c r="ANZ1" t="n">
+        <v>-0.009072475931016215</v>
+      </c>
+      <c r="AOA1" t="n">
+        <v>0.1238902506300258</v>
+      </c>
+      <c r="AOB1" t="n">
+        <v>0.3604250825506035</v>
+      </c>
+      <c r="AOC1" t="n">
+        <v>0.3351186471213261</v>
+      </c>
+      <c r="AOD1" t="n">
+        <v>0.0807518524779937</v>
+      </c>
+      <c r="AOE1" t="n">
+        <v>0.09050467124171138</v>
+      </c>
+      <c r="AOF1" t="n">
+        <v>0.5968450866173963</v>
+      </c>
+      <c r="AOG1" t="n">
+        <v>0.5680684131738593</v>
+      </c>
+      <c r="AOH1" t="n">
+        <v>0.05324451167102897</v>
+      </c>
+      <c r="AOI1" t="n">
+        <v>0.2155939542331171</v>
+      </c>
+      <c r="AOJ1" t="n">
+        <v>0.6238575556531778</v>
+      </c>
+      <c r="AOK1" t="n">
+        <v>0.4873396864124438</v>
+      </c>
+      <c r="AOL1" t="n">
+        <v>-0.02784931631457752</v>
+      </c>
+      <c r="AOM1" t="n">
+        <v>0.09045646153218122</v>
+      </c>
+      <c r="AON1" t="n">
+        <v>0.3944957354952921</v>
+      </c>
+      <c r="AOO1" t="n">
+        <v>0.7883738060318981</v>
+      </c>
+      <c r="AOP1" t="n">
+        <v>-0.009254773285386198</v>
+      </c>
+      <c r="AOQ1" t="n">
+        <v>0.06009884223064889</v>
+      </c>
+      <c r="AOR1" t="n">
+        <v>0.3603983685669594</v>
+      </c>
+      <c r="AOS1" t="n">
+        <v>0.4873337004979665</v>
+      </c>
+      <c r="AOT1" t="n">
+        <v>0.0807806106270758</v>
+      </c>
+      <c r="AOU1" t="n">
+        <v>0.09009820334447556</v>
+      </c>
+      <c r="AOV1" t="n">
+        <v>0.2838663994057061</v>
+      </c>
+      <c r="AOW1" t="n">
+        <v>0.7883063709699358</v>
+      </c>
+      <c r="AOX1" t="n">
+        <v>0.2132718629942103</v>
+      </c>
+      <c r="AOY1" t="n">
+        <v>0.1239238223830059</v>
+      </c>
+      <c r="AOZ1" t="n">
+        <v>0.306995471122099</v>
+      </c>
+      <c r="APA1" t="n">
+        <v>1.120556034323459</v>
+      </c>
+      <c r="APB1" t="n">
+        <v>0.2481641230652228</v>
+      </c>
+      <c r="APC1" t="n">
+        <v>0.1570994697163935</v>
+      </c>
+      <c r="APD1" t="n">
+        <v>0.3057571448042302</v>
+      </c>
+      <c r="APE1" t="n">
+        <v>0.9793706102470596</v>
+      </c>
+      <c r="APF1" t="n">
+        <v>0.2133256632871884</v>
+      </c>
+      <c r="APG1" t="n">
+        <v>0.1824542655291781</v>
+      </c>
+      <c r="APH1" t="n">
+        <v>0.3068429717651919</v>
+      </c>
+      <c r="API1" t="n">
+        <v>1.121056136481988</v>
+      </c>
+      <c r="APJ1" t="n">
+        <v>0.170231477022202</v>
+      </c>
+      <c r="APK1" t="n">
+        <v>0.1948771165855424</v>
+      </c>
+      <c r="APL1" t="n">
+        <v>0.2837723031167366</v>
+      </c>
+      <c r="APM1" t="n">
+        <v>0.7299500528799405</v>
+      </c>
+      <c r="APN1" t="n">
+        <v>0.124253144355141</v>
+      </c>
+      <c r="APO1" t="n">
+        <v>0.3496142862609261</v>
+      </c>
+      <c r="APP1" t="n">
+        <v>0.4908200507831652</v>
+      </c>
+      <c r="APQ1" t="n">
+        <v>0.4476060602462421</v>
+      </c>
+      <c r="APR1" t="n">
+        <v>0.1702364190719052</v>
+      </c>
+      <c r="APS1" t="n">
+        <v>0.3491385089766579</v>
+      </c>
+      <c r="APT1" t="n">
+        <v>0.2836952291087141</v>
+      </c>
+      <c r="APU1" t="n">
+        <v>0.2459744298253865</v>
+      </c>
+      <c r="APV1" t="n">
+        <v>0.213329012352819</v>
+      </c>
+      <c r="APW1" t="n">
+        <v>0.1822695475218505</v>
+      </c>
+      <c r="APX1" t="n">
+        <v>0.3065599150369431</v>
+      </c>
+      <c r="APY1" t="n">
+        <v>0.1068683897644164</v>
+      </c>
+      <c r="APZ1" t="n">
+        <v>0.08095589580884699</v>
+      </c>
+      <c r="AQA1" t="n">
+        <v>0.06225526942141309</v>
+      </c>
+      <c r="AQB1" t="n">
+        <v>0.2836587813684976</v>
+      </c>
+      <c r="AQC1" t="n">
+        <v>0.1411719988299298</v>
+      </c>
+      <c r="AQD1" t="n">
+        <v>0.05319002719818468</v>
+      </c>
+      <c r="AQE1" t="n">
+        <v>0.04276803812918033</v>
+      </c>
+      <c r="AQF1" t="n">
+        <v>0.1311432144048404</v>
+      </c>
+      <c r="AQG1" t="n">
+        <v>0.1069201752336933</v>
+      </c>
+      <c r="AQH1" t="n">
+        <v>0.08106681198644959</v>
+      </c>
+      <c r="AQI1" t="n">
+        <v>0.01929812843117536</v>
+      </c>
+      <c r="AQJ1" t="n">
+        <v>0.2836778438612271</v>
+      </c>
+      <c r="AQK1" t="n">
+        <v>0.2460229903267413</v>
+      </c>
+      <c r="AQL1" t="n">
+        <v>0.2134187100024522</v>
+      </c>
+      <c r="AQM1" t="n">
+        <v>0.1242229116078181</v>
+      </c>
+      <c r="AQN1" t="n">
+        <v>0.3064167054803894</v>
+      </c>
+      <c r="AQO1" t="n">
+        <v>0.447603410226524</v>
+      </c>
+      <c r="AQP1" t="n">
+        <v>0.08114367739516939</v>
+      </c>
+      <c r="AQQ1" t="n">
+        <v>0.05330009129071331</v>
+      </c>
+      <c r="AQR1" t="n">
+        <v>0.2836501950178332</v>
+      </c>
+      <c r="AQS1" t="n">
+        <v>0.5182961571194231</v>
+      </c>
+      <c r="AQT1" t="n">
+        <v>0.05330352564441249</v>
+      </c>
+      <c r="AQU1" t="n">
+        <v>0.1703859453179341</v>
+      </c>
+      <c r="AQV1" t="n">
+        <v>0.2433890582272882</v>
+      </c>
+      <c r="AQW1" t="n">
+        <v>0.4475392680610151</v>
+      </c>
+      <c r="AQX1" t="n">
+        <v>-0.02841759067883824</v>
+      </c>
+      <c r="AQY1" t="n">
+        <v>0.3374032860088519</v>
+      </c>
+      <c r="AQZ1" t="n">
+        <v>0.4428603781824106</v>
+      </c>
+      <c r="ARA1" t="n">
+        <v>0.3514117593590522</v>
+      </c>
+      <c r="ARB1" t="n">
+        <v>-0.04145698568919266</v>
+      </c>
+      <c r="ARC1" t="n">
+        <v>0.1705036288010392</v>
+      </c>
+      <c r="ARD1" t="n">
+        <v>0.7125337917256758</v>
+      </c>
+      <c r="ARE1" t="n">
+        <v>0.1828937400213081</v>
+      </c>
+      <c r="ARF1" t="n">
+        <v>-0.02984369469902781</v>
+      </c>
+      <c r="ARG1" t="n">
+        <v>0.05286564007377023</v>
+      </c>
+      <c r="ARH1" t="n">
+        <v>0.4427987759980129</v>
+      </c>
+      <c r="ARI1" t="n">
+        <v>0.2461900848973691</v>
+      </c>
+      <c r="ARJ1" t="n">
+        <v>0.05287609372032162</v>
+      </c>
+      <c r="ARK1" t="n">
+        <v>0.08125307368783513</v>
+      </c>
+      <c r="ARL1" t="n">
+        <v>0.3695883359442618</v>
+      </c>
+      <c r="ARM1" t="n">
+        <v>0.2994527241281263</v>
+      </c>
+      <c r="ARN1" t="n">
+        <v>0.02887438362681928</v>
+      </c>
+      <c r="ARO1" t="n">
+        <v>-0.009386684722860791</v>
+      </c>
+      <c r="ARP1" t="n">
+        <v>0.2761391777908069</v>
+      </c>
+      <c r="ARQ1" t="n">
+        <v>0.337798498698361</v>
+      </c>
+      <c r="ARR1" t="n">
+        <v>0.05271326394874584</v>
+      </c>
+      <c r="ARS1" t="n">
+        <v>0.08127809075306741</v>
+      </c>
+      <c r="ART1" t="n">
+        <v>0.5143696186651001</v>
+      </c>
+      <c r="ARU1" t="n">
+        <v>0.3526541777797589</v>
+      </c>
+      <c r="ARV1" t="n">
+        <v>0.08131188690233496</v>
+      </c>
+      <c r="ARW1" t="n">
+        <v>0.05275845328915668</v>
+      </c>
+      <c r="ARX1" t="n">
+        <v>0.6269511407856311</v>
+      </c>
+      <c r="ARY1" t="n">
+        <v>0.3377374603883272</v>
+      </c>
+      <c r="ARZ1" t="n">
+        <v>0.1067927158755834</v>
+      </c>
+      <c r="ASA1" t="n">
+        <v>0.08136014414796928</v>
+      </c>
+      <c r="ASB1" t="n">
+        <v>0.7124065394394936</v>
+      </c>
+      <c r="ASC1" t="n">
+        <v>0.3525308564702408</v>
+      </c>
+      <c r="ASD1" t="n">
+        <v>0.1245330394043009</v>
+      </c>
+      <c r="ASE1" t="n">
+        <v>0.1068415420940525</v>
+      </c>
+      <c r="ASF1" t="n">
+        <v>0.6269040564663335</v>
+      </c>
+      <c r="ASG1" t="n">
+        <v>0.1899310855618448</v>
+      </c>
+      <c r="ASH1" t="n">
+        <v>0.1068603805508433</v>
+      </c>
+      <c r="ASI1" t="n">
+        <v>0.2478696189184222</v>
+      </c>
+      <c r="ASJ1" t="n">
+        <v>0.7124000874969447</v>
+      </c>
+      <c r="ASK1" t="n">
+        <v>0.2593807559182382</v>
+      </c>
+      <c r="ASL1" t="n">
+        <v>0.08141714788631731</v>
+      </c>
+      <c r="ASM1" t="n">
+        <v>0.2136156994024892</v>
+      </c>
+      <c r="ASN1" t="n">
+        <v>0.4427326892086116</v>
+      </c>
+      <c r="ASO1" t="n">
+        <v>0.3933777019816988</v>
+      </c>
+      <c r="ASP1" t="n">
+        <v>0.2136011425683326</v>
+      </c>
+      <c r="ASQ1" t="n">
+        <v>0.08146642788683787</v>
+      </c>
+      <c r="ASR1" t="n">
+        <v>0.3696003770722949</v>
+      </c>
+      <c r="ASS1" t="n">
+        <v>0.6233432074348099</v>
+      </c>
+      <c r="AST1" t="n">
+        <v>0.2478344543753817</v>
+      </c>
+      <c r="ASU1" t="n">
+        <v>0.1314377165269849</v>
+      </c>
+      <c r="ASV1" t="n">
+        <v>0.1935263210692766</v>
+      </c>
+      <c r="ASW1" t="n">
+        <v>0.5965160079109331</v>
+      </c>
+      <c r="ASX1" t="n">
+        <v>0.4408153074673706</v>
+      </c>
+      <c r="ASY1" t="n">
+        <v>0.2834773215403809</v>
+      </c>
+      <c r="ASZ1" t="n">
+        <v>0.3695849058151071</v>
+      </c>
+      <c r="ATA1" t="n">
+        <v>0.3599838918988764</v>
+      </c>
+      <c r="ATB1" t="n">
+        <v>0.4479310356926177</v>
+      </c>
+      <c r="ATC1" t="n">
+        <v>0.2434532945892319</v>
+      </c>
+      <c r="ATD1" t="n">
+        <v>0.4426467780775637</v>
+      </c>
+      <c r="ATE1" t="n">
+        <v>0.3935513736785101</v>
+      </c>
+      <c r="ATF1" t="n">
+        <v>0.4407380229975896</v>
+      </c>
+      <c r="ATG1" t="n">
+        <v>0.1848010211008953</v>
+      </c>
+      <c r="ATH1" t="n">
+        <v>0.3695611851215026</v>
+      </c>
+      <c r="ATI1" t="n">
+        <v>0.3598801434401507</v>
+      </c>
+      <c r="ATJ1" t="n">
+        <v>0.4480573980997782</v>
+      </c>
+      <c r="ATK1" t="n">
+        <v>0.213991056906838</v>
+      </c>
+      <c r="ATL1" t="n">
+        <v>0.6268042532956002</v>
+      </c>
+      <c r="ATM1" t="n">
+        <v>0.1847893058789699</v>
+      </c>
+      <c r="ATN1" t="n">
+        <v>0.4179107163002431</v>
+      </c>
+      <c r="ATO1" t="n">
+        <v>0.1902146804336781</v>
+      </c>
+      <c r="ATP1" t="n">
+        <v>0.5143705800809784</v>
+      </c>
+      <c r="ATQ1" t="n">
+        <v>0.3597739585479644</v>
+      </c>
+      <c r="ATR1" t="n">
+        <v>0.4493686241547173</v>
+      </c>
+      <c r="ATS1" t="n">
+        <v>0.1710319138469806</v>
+      </c>
+      <c r="ATT1" t="n">
+        <v>0.2761603338162245</v>
+      </c>
+      <c r="ATU1" t="n">
+        <v>0.1846878811658875</v>
+      </c>
+      <c r="ATV1" t="n">
+        <v>0.2669423071998245</v>
+      </c>
+      <c r="ATW1" t="n">
+        <v>0.1901674351290604</v>
+      </c>
+      <c r="ATX1" t="n">
+        <v>0.3696156099296436</v>
+      </c>
+      <c r="ATY1" t="n">
+        <v>0.06175903310255123</v>
+      </c>
+      <c r="ATZ1" t="n">
+        <v>0.1244657177944869</v>
+      </c>
+      <c r="AUA1" t="n">
+        <v>0.06984604897534354</v>
+      </c>
+      <c r="AUB1" t="n">
+        <v>0.6267494074672425</v>
+      </c>
+      <c r="AUC1" t="n">
+        <v>0.08373049035231181</v>
+      </c>
+      <c r="AUD1" t="n">
+        <v>0.0257191941899821</v>
+      </c>
+      <c r="AUE1" t="n">
+        <v>0.05358832056380777</v>
+      </c>
+      <c r="AUF1" t="n">
+        <v>0.5144614684367191</v>
+      </c>
+      <c r="AUG1" t="n">
+        <v>0.09499263048691672</v>
+      </c>
+      <c r="AUH1" t="n">
+        <v>0.03741344873756317</v>
+      </c>
+      <c r="AUI1" t="n">
+        <v>0.06906996300737318</v>
+      </c>
+      <c r="AUJ1" t="n">
+        <v>0.6266657340719211</v>
+      </c>
+      <c r="AUK1" t="n">
+        <v>0.06721325215241149</v>
+      </c>
+      <c r="AUL1" t="n">
+        <v>0.02466831000323374</v>
+      </c>
+      <c r="AUM1" t="n">
+        <v>0.05357372991313732</v>
+      </c>
+      <c r="AUN1" t="n">
+        <v>0.9758986364164536</v>
+      </c>
+      <c r="AUO1" t="n">
+        <v>0.0951179135111091</v>
+      </c>
+      <c r="AUP1" t="n">
+        <v>-0.03654420389758956</v>
+      </c>
+      <c r="AUQ1" t="n">
+        <v>0.06837842190668253</v>
+      </c>
+      <c r="AUR1" t="n">
+        <v>0.6267327448711111</v>
+      </c>
+      <c r="AUS1" t="n">
+        <v>0.1165045415370995</v>
+      </c>
+      <c r="AUT1" t="n">
+        <v>0.02321386681925798</v>
+      </c>
+      <c r="AUU1" t="n">
+        <v>0.1901335029427297</v>
+      </c>
+      <c r="AUV1" t="n">
+        <v>0.9759959245656137</v>
+      </c>
+      <c r="AUW1" t="n">
+        <v>0.09524967354569928</v>
+      </c>
+      <c r="AUX1" t="n">
+        <v>0.009638755946780651</v>
+      </c>
+      <c r="AUY1" t="n">
+        <v>0.2598991376226797</v>
+      </c>
+      <c r="AUZ1" t="n">
+        <v>0.6267667308987628</v>
+      </c>
+      <c r="AVA1" t="n">
+        <v>0.2322674838538156</v>
+      </c>
+      <c r="AVB1" t="n">
+        <v>0.1069488871865256</v>
+      </c>
+      <c r="AVC1" t="n">
+        <v>0.1165035191966977</v>
+      </c>
+      <c r="AVD1" t="n">
+        <v>0.4737211979263984</v>
+      </c>
+      <c r="AVE1" t="n">
+        <v>0.09528940693463116</v>
+      </c>
+      <c r="AVF1" t="n">
+        <v>0.08182776830837658</v>
+      </c>
+      <c r="AVG1" t="n">
+        <v>0.2598953882739451</v>
+      </c>
+      <c r="AVH1" t="n">
+        <v>0.2563823378256516</v>
+      </c>
+      <c r="AVI1" t="n">
+        <v>0.2322820115492863</v>
+      </c>
+      <c r="AVJ1" t="n">
+        <v>0.2135625716573293</v>
+      </c>
+      <c r="AVK1" t="n">
+        <v>0.2322910621815445</v>
+      </c>
+      <c r="AVL1" t="n">
+        <v>0.1242175227458223</v>
+      </c>
+      <c r="AVM1" t="n">
+        <v>0.1927946943707902</v>
+      </c>
+      <c r="AVN1" t="n">
+        <v>0.1706814106317285</v>
+      </c>
+      <c r="AVO1" t="n">
+        <v>0.192818112027594</v>
+      </c>
+      <c r="AVP1" t="n">
+        <v>0.256499444230048</v>
+      </c>
+      <c r="AVQ1" t="n">
+        <v>0.232299875374859</v>
+      </c>
+      <c r="AVR1" t="n">
+        <v>0.2135940336579481</v>
+      </c>
+      <c r="AVS1" t="n">
+        <v>0.06740965726292419</v>
+      </c>
+      <c r="AVT1" t="n">
+        <v>0.3374372793293045</v>
+      </c>
+      <c r="AVU1" t="n">
+        <v>0.2598708855522489</v>
+      </c>
+      <c r="AVV1" t="n">
+        <v>0.4002496395436034</v>
+      </c>
+      <c r="AVW1" t="n">
+        <v>0.09534159324992836</v>
+      </c>
+      <c r="AVX1" t="n">
+        <v>0.1707486632355433</v>
+      </c>
+      <c r="AVY1" t="n">
+        <v>0.2322939004739814</v>
+      </c>
+      <c r="AVZ1" t="n">
+        <v>0.6526217212251542</v>
+      </c>
+      <c r="AWA1" t="n">
+        <v>0.1165323102811138</v>
+      </c>
+      <c r="AWB1" t="n">
+        <v>0.05313136012858603</v>
+      </c>
+      <c r="AWC1" t="n">
+        <v>0.09537217952564762</v>
+      </c>
+      <c r="AWD1" t="n">
+        <v>0.4002214890451883</v>
+      </c>
+      <c r="AWE1" t="n">
+        <v>0.1292120540488748</v>
+      </c>
+      <c r="AWF1" t="n">
+        <v>0.08191906417959122</v>
+      </c>
+      <c r="AWG1" t="n">
+        <v>0.05355724213698521</v>
+      </c>
+      <c r="AWH1" t="n">
+        <v>0.2136060012692839</v>
+      </c>
+      <c r="AWI1" t="n">
+        <v>0.1165754403436567</v>
+      </c>
+      <c r="AWJ1" t="n">
+        <v>0.2136148010717069</v>
+      </c>
+      <c r="AWK1" t="n">
+        <v>0.1714752197181466</v>
+      </c>
+      <c r="AWL1" t="n">
+        <v>0.08196291591352488</v>
+      </c>
+      <c r="AWM1" t="n">
+        <v>0.2598705563431611</v>
+      </c>
+      <c r="AWN1" t="n">
+        <v>0.1707674320816375</v>
+      </c>
+      <c r="AWO1" t="n">
+        <v>0.1900466922556864</v>
+      </c>
+      <c r="AWP1" t="n">
+        <v>0.2136426799965017</v>
+      </c>
+      <c r="AWQ1" t="n">
+        <v>0.2323373290176194</v>
+      </c>
+      <c r="AWR1" t="n">
+        <v>0.3374143695624626</v>
+      </c>
+      <c r="AWS1" t="n">
+        <v>0.06836228228686149</v>
+      </c>
+      <c r="AWT1" t="n">
+        <v>0.08199223486387774</v>
+      </c>
+      <c r="AWU1" t="n">
+        <v>0.2480494830155812</v>
+      </c>
+      <c r="AWV1" t="n">
+        <v>0.4001992541278778</v>
+      </c>
+      <c r="AWW1" t="n">
+        <v>0.05362485044221051</v>
+      </c>
+      <c r="AWX1" t="n">
+        <v>-0.00895160412028455</v>
+      </c>
+      <c r="AWY1" t="n">
+        <v>0.2668814685373012</v>
+      </c>
+      <c r="AWZ1" t="n">
+        <v>0.2136435401329237</v>
+      </c>
+      <c r="AXA1" t="n">
+        <v>0.1714640482556092</v>
+      </c>
+      <c r="AXB1" t="n">
+        <v>0.08201825931090963</v>
+      </c>
+      <c r="AXC1" t="n">
+        <v>0.2480289058913664</v>
+      </c>
+      <c r="AXD1" t="n">
+        <v>0.248017698411918</v>
+      </c>
+      <c r="AXE1" t="n">
+        <v>0.1419794959113701</v>
+      </c>
+      <c r="AXF1" t="n">
+        <v>0.1071567687710535</v>
+      </c>
+      <c r="AXG1" t="n">
+        <v>0.1071780094854755</v>
+      </c>
+      <c r="AXH1" t="n">
+        <v>0.4406528332388848</v>
+      </c>
+      <c r="AXI1" t="n">
+        <v>0.1715006157942535</v>
+      </c>
+      <c r="AXJ1" t="n">
+        <v>0.0820777571806957</v>
+      </c>
+      <c r="AXK1" t="n">
+        <v>0.08209834681979754</v>
+      </c>
+      <c r="AXL1" t="n">
+        <v>0.4491675279469174</v>
+      </c>
+      <c r="AXM1" t="n">
+        <v>0.05370948786744369</v>
+      </c>
+      <c r="AXN1" t="n">
+        <v>0.05324796377550867</v>
+      </c>
+      <c r="AXO1" t="n">
+        <v>0.2136882593561095</v>
+      </c>
+      <c r="AXP1" t="n">
+        <v>0.4406669158638318</v>
+      </c>
+      <c r="AXQ1" t="n">
+        <v>0.06841993399062601</v>
+      </c>
+      <c r="AXR1" t="n">
+        <v>0.01949098082170292</v>
+      </c>
+      <c r="AXS1" t="n">
+        <v>0.2480386994345741</v>
+      </c>
+      <c r="AXT1" t="n">
+        <v>0.400131730835437</v>
+      </c>
+      <c r="AXU1" t="n">
+        <v>0.1900266636497393</v>
+      </c>
+      <c r="AXV1" t="n">
+        <v>0.04377216193899273</v>
+      </c>
+      <c r="AXW1" t="n">
+        <v>0.4405898143924616</v>
+      </c>
+      <c r="AXX1" t="n">
+        <v>0.6524584490733975</v>
+      </c>
+      <c r="AXY1" t="n">
+        <v>0.1715092409213333</v>
+      </c>
+      <c r="AXZ1" t="n">
+        <v>0.1578641426138233</v>
+      </c>
+      <c r="AYA1" t="n">
+        <v>0.248012997403085</v>
+      </c>
+      <c r="AYB1" t="n">
+        <v>1.010392965703647</v>
+      </c>
+      <c r="AYC1" t="n">
+        <v>0.05378292206908526</v>
+      </c>
+      <c r="AYD1" t="n">
+        <v>0.124935329180219</v>
+      </c>
+      <c r="AYE1" t="n">
+        <v>0.2136473301909083</v>
+      </c>
+      <c r="AYF1" t="n">
+        <v>0.9066930453093043</v>
+      </c>
+      <c r="AYG1" t="n">
+        <v>0.1715303139209378</v>
+      </c>
+      <c r="AYH1" t="n">
+        <v>0.2741352022019487</v>
+      </c>
+      <c r="AYI1" t="n">
+        <v>0.4001075317865621</v>
+      </c>
+      <c r="AYJ1" t="n">
+        <v>0.5777436444790919</v>
+      </c>
+      <c r="AYK1" t="n">
+        <v>0.1420720015895856</v>
+      </c>
+      <c r="AYL1" t="n">
+        <v>0.4086730761221237</v>
+      </c>
+      <c r="AYM1" t="n">
+        <v>0.3372645981108683</v>
+      </c>
+      <c r="AYN1" t="n">
+        <v>0.4739099957544363</v>
+      </c>
+      <c r="AYO1" t="n">
+        <v>0.1715519666287211</v>
+      </c>
+      <c r="AYP1" t="n">
+        <v>0.2194424605714858</v>
+      </c>
+      <c r="AYQ1" t="n">
+        <v>0.2564357568587831</v>
+      </c>
+      <c r="AYR1" t="n">
+        <v>0.2565669103408572</v>
+      </c>
+      <c r="AYS1" t="n">
+        <v>0.1420745185999406</v>
+      </c>
+      <c r="AYT1" t="n">
+        <v>0.08721132762380242</v>
+      </c>
+      <c r="AYU1" t="n">
+        <v>0.1244474528948773</v>
+      </c>
+      <c r="AYV1" t="n">
+        <v>0.3373644859455884</v>
+      </c>
+      <c r="AYW1" t="n">
+        <v>0.03217079005620655</v>
+      </c>
+      <c r="AYX1" t="n">
+        <v>0.2195069608557048</v>
+      </c>
+      <c r="AYY1" t="n">
+        <v>0.09035486560325701</v>
+      </c>
+      <c r="AYZ1" t="n">
+        <v>0.400040925807474</v>
+      </c>
+      <c r="AZA1" t="n">
+        <v>0.007272003687676157</v>
+      </c>
+      <c r="AZB1" t="n">
+        <v>0.2649447941306387</v>
+      </c>
+      <c r="AZC1" t="n">
+        <v>0.1249721268849696</v>
+      </c>
+      <c r="AZD1" t="n">
+        <v>0.2136503331489633</v>
+      </c>
+      <c r="AZE1" t="n">
+        <v>-0.01165780528925161</v>
+      </c>
+      <c r="AZF1" t="n">
+        <v>0.2195409262464</v>
+      </c>
+      <c r="AZG1" t="n">
+        <v>0.09011863566744516</v>
+      </c>
+      <c r="AZH1" t="n">
+        <v>0.4000198164637405</v>
+      </c>
+      <c r="AZI1" t="n">
+        <v>0.07350901901981796</v>
+      </c>
+      <c r="AZJ1" t="n">
+        <v>0.1477166865889828</v>
+      </c>
+      <c r="AZK1" t="n">
+        <v>0.08710232618233127</v>
+      </c>
+      <c r="AZL1" t="n">
+        <v>0.2136952823010924</v>
+      </c>
+      <c r="AZM1" t="n">
+        <v>0.1830439979800539</v>
+      </c>
+      <c r="AZN1" t="n">
+        <v>0.03957317339075608</v>
+      </c>
+      <c r="AZO1" t="n">
+        <v>0.1183868658211783</v>
+      </c>
+      <c r="AZP1" t="n">
+        <v>0.08228632111932577</v>
+      </c>
+      <c r="AZQ1" t="n">
+        <v>0.3521117984580662</v>
+      </c>
+      <c r="AZR1" t="n">
+        <v>0.06767290796812549</v>
+      </c>
+      <c r="AZS1" t="n">
+        <v>0.08711583082974589</v>
+      </c>
+      <c r="AZT1" t="n">
+        <v>0.213721516120121</v>
+      </c>
+      <c r="AZU1" t="n">
+        <v>0.1831506534578952</v>
+      </c>
+      <c r="AZV1" t="n">
+        <v>0.09581405376639335</v>
+      </c>
+      <c r="AZW1" t="n">
+        <v>0.2195825576500233</v>
+      </c>
+      <c r="AZX1" t="n">
+        <v>0.08233011399716277</v>
+      </c>
+      <c r="AZY1" t="n">
+        <v>0.2463688897860987</v>
+      </c>
+      <c r="AZZ1" t="n">
+        <v>0.2323594010610898</v>
+      </c>
+      <c r="BAA1" t="n">
+        <v>0.1664609640242297</v>
+      </c>
+      <c r="BAB1" t="n">
+        <v>-0.008833991339740221</v>
+      </c>
+      <c r="BAC1" t="n">
+        <v>0.1832421875685945</v>
+      </c>
+      <c r="BAD1" t="n">
+        <v>0.2597380140669626</v>
+      </c>
+      <c r="BAE1" t="n">
+        <v>0.3253593730635562</v>
+      </c>
+      <c r="BAF1" t="n">
+        <v>0.04937466618322656</v>
+      </c>
+      <c r="BAG1" t="n">
+        <v>0.246445470113082</v>
+      </c>
+      <c r="BAH1" t="n">
+        <v>0.2323450582632191</v>
+      </c>
+      <c r="BAI1" t="n">
+        <v>0.4087921695233168</v>
+      </c>
+      <c r="BAJ1" t="n">
+        <v>0.1671394446021885</v>
+      </c>
+      <c r="BAK1" t="n">
+        <v>0.2991210251423335</v>
+      </c>
+      <c r="BAL1" t="n">
+        <v>0.2597117261315676</v>
+      </c>
+      <c r="BAM1" t="n">
+        <v>0.6729995163523405</v>
+      </c>
+      <c r="BAN1" t="n">
+        <v>0.1580071686096842</v>
+      </c>
+      <c r="BAO1" t="n">
+        <v>0.5172268870401813</v>
+      </c>
+      <c r="BAP1" t="n">
+        <v>0.2686426305323314</v>
+      </c>
+      <c r="BAQ1" t="n">
+        <v>0.4087304348212577</v>
+      </c>
+      <c r="BAR1" t="n">
+        <v>0.320504047787032</v>
+      </c>
+      <c r="BAS1" t="n">
+        <v>0.812080436091934</v>
+      </c>
+      <c r="BAT1" t="n">
+        <v>0.2596271713430003</v>
+      </c>
+      <c r="BAU1" t="n">
+        <v>0.6730604930519017</v>
+      </c>
+      <c r="BAV1" t="n">
+        <v>0.3487809901716158</v>
+      </c>
+      <c r="BAW1" t="n">
+        <v>1.277290614033898</v>
+      </c>
+      <c r="BAX1" t="n">
+        <v>0.2322710642237327</v>
+      </c>
+      <c r="BAY1" t="n">
+        <v>0.4086774193640589</v>
+      </c>
+      <c r="BAZ1" t="n">
+        <v>0.5615523823544292</v>
+      </c>
+      <c r="BBA1" t="n">
+        <v>1.121850219328019</v>
+      </c>
+      <c r="BBB1" t="n">
+        <v>0.2596108668831382</v>
+      </c>
+      <c r="BBC1" t="n">
+        <v>0.4693793114601697</v>
+      </c>
+      <c r="BBD1" t="n">
+        <v>0.8478908022145045</v>
+      </c>
+      <c r="BBE1" t="n">
+        <v>0.7297944002329975</v>
+      </c>
+      <c r="BBF1" t="n">
+        <v>0.2288585425611946</v>
+      </c>
+      <c r="BBG1" t="n">
+        <v>0.4084368361627277</v>
+      </c>
+      <c r="BBH1" t="n">
+        <v>0.5635676239860241</v>
+      </c>
+      <c r="BBI1" t="n">
+        <v>0.4470561542828576</v>
+      </c>
+      <c r="BBJ1" t="n">
+        <v>0.1286492841983249</v>
+      </c>
+      <c r="BBK1" t="n">
+        <v>0.3997602836534507</v>
+      </c>
+      <c r="BBL1" t="n">
+        <v>0.5423306702366035</v>
+      </c>
+      <c r="BBM1" t="n">
+        <v>0.5174045788063889</v>
+      </c>
+      <c r="BBN1" t="n">
+        <v>0.1166009520136189</v>
+      </c>
+      <c r="BBO1" t="n">
+        <v>0.2135101523914589</v>
+      </c>
+      <c r="BBP1" t="n">
+        <v>0.3202646200669846</v>
+      </c>
+      <c r="BBQ1" t="n">
+        <v>0.2987245515400795</v>
+      </c>
+      <c r="BBR1" t="n">
+        <v>0.2594526935642453</v>
+      </c>
+      <c r="BBS1" t="n">
+        <v>0.2476856549043626</v>
+      </c>
+      <c r="BBT1" t="n">
+        <v>0.1578921549681093</v>
+      </c>
+      <c r="BBU1" t="n">
+        <v>0.5173503585015408</v>
+      </c>
+      <c r="BBV1" t="n">
+        <v>0.232050792516048</v>
+      </c>
+      <c r="BBW1" t="n">
+        <v>0.2664571094359189</v>
+      </c>
+      <c r="BBX1" t="n">
+        <v>0.1820635212330752</v>
+      </c>
+      <c r="BBY1" t="n">
+        <v>0.5583872669140266</v>
+      </c>
+      <c r="BBZ1" t="n">
+        <v>0.09591686642700312</v>
+      </c>
+      <c r="BCA1" t="n">
+        <v>0.2476845128101569</v>
+      </c>
+      <c r="BCB1" t="n">
+        <v>0.3489808963303441</v>
+      </c>
+      <c r="BCC1" t="n">
+        <v>0.517326196821142</v>
+      </c>
+      <c r="BCD1" t="n">
+        <v>0.2320381033590487</v>
+      </c>
+      <c r="BCE1" t="n">
+        <v>0.2135010793527137</v>
+      </c>
+      <c r="BCF1" t="n">
+        <v>0.1820511286374658</v>
+      </c>
+      <c r="BCG1" t="n">
+        <v>0.4469655009445058</v>
+      </c>
+      <c r="BCH1" t="n">
+        <v>0.4233993540828929</v>
+      </c>
+      <c r="BCI1" t="n">
+        <v>0.2009752059006578</v>
+      </c>
+      <c r="BCJ1" t="n">
+        <v>0.1579196269399672</v>
+      </c>
+      <c r="BCK1" t="n">
+        <v>0.3706568515232896</v>
+      </c>
+      <c r="BCL1" t="n">
+        <v>0.2320435906837985</v>
+      </c>
+      <c r="BCM1" t="n">
+        <v>0.379363803650469</v>
+      </c>
+      <c r="BCN1" t="n">
+        <v>0.3201518047666146</v>
+      </c>
+      <c r="BCO1" t="n">
+        <v>0.2989690912855484</v>
+      </c>
+      <c r="BCP1" t="n">
+        <v>0.2593572698500975</v>
+      </c>
+      <c r="BCQ1" t="n">
+        <v>0.2009552430219239</v>
+      </c>
+      <c r="BCR1" t="n">
+        <v>0.1579132717643624</v>
+      </c>
+      <c r="BCS1" t="n">
+        <v>0.1480689989982654</v>
+      </c>
+      <c r="BCT1" t="n">
+        <v>0.1166221844130638</v>
+      </c>
+      <c r="BCU1" t="n">
+        <v>0.1670910913462144</v>
+      </c>
+      <c r="BCV1" t="n">
+        <v>0.1252114520701446</v>
+      </c>
+      <c r="BCW1" t="n">
+        <v>0.1929543781500483</v>
+      </c>
+      <c r="BCX1" t="n">
+        <v>0.2593517644531184</v>
+      </c>
+      <c r="BCY1" t="n">
+        <v>0.1281683789566408</v>
+      </c>
+      <c r="BCZ1" t="n">
+        <v>0.1579408282221156</v>
+      </c>
+      <c r="BDA1" t="n">
+        <v>0.3706565132013738</v>
+      </c>
+      <c r="BDB1" t="n">
+        <v>0.1166334249061261</v>
+      </c>
+      <c r="BDC1" t="n">
+        <v>0.08843292147409532</v>
+      </c>
+      <c r="BDD1" t="n">
+        <v>0.3201465160924368</v>
+      </c>
+      <c r="BDE1" t="n">
+        <v>0.423288017882514</v>
+      </c>
+      <c r="BDF1" t="n">
+        <v>0.2593270549174591</v>
+      </c>
+      <c r="BDG1" t="n">
+        <v>0.1281098817451621</v>
+      </c>
+      <c r="BDH1" t="n">
+        <v>0.1579455121771391</v>
+      </c>
+      <c r="BDI1" t="n">
+        <v>0.2320225603244597</v>
+      </c>
+      <c r="BDJ1" t="n">
+        <v>0.2320243617327573</v>
+      </c>
+      <c r="BDK1" t="n">
+        <v>0.167130163254431</v>
+      </c>
+      <c r="BDL1" t="n">
+        <v>0.04425353412067227</v>
+      </c>
+      <c r="BDM1" t="n">
+        <v>0.1929691233671576</v>
+      </c>
+      <c r="BDN1" t="n">
+        <v>0.1929782081512607</v>
+      </c>
+      <c r="BDO1" t="n">
+        <v>0.04966533198000405</v>
+      </c>
+      <c r="BDP1" t="n">
+        <v>0.1579797614786529</v>
+      </c>
+      <c r="BDQ1" t="n">
+        <v>0.148010897987194</v>
+      </c>
+      <c r="BDR1" t="n">
+        <v>0.1938509187007145</v>
+      </c>
+      <c r="BDS1" t="n">
+        <v>0.07455297877445435</v>
+      </c>
+      <c r="BDT1" t="n">
+        <v>0.1075046506358091</v>
+      </c>
+      <c r="BDU1" t="n">
+        <v>0.1001968894358351</v>
+      </c>
+      <c r="BDV1" t="n">
+        <v>0.1379185359500487</v>
+      </c>
+      <c r="BDW1" t="n">
+        <v>0.2010166230385953</v>
+      </c>
+      <c r="BDX1" t="n">
+        <v>0.2476362372690597</v>
+      </c>
+      <c r="BDY1" t="n">
+        <v>0.01731698701805624</v>
+      </c>
+      <c r="BDZ1" t="n">
+        <v>0.1938552729070047</v>
+      </c>
+      <c r="BEA1" t="n">
+        <v>0.2972631946705913</v>
+      </c>
+      <c r="BEB1" t="n">
+        <v>0.4406226026441127</v>
+      </c>
+      <c r="BEC1" t="n">
+        <v>0.03927394669988384</v>
+      </c>
+      <c r="BED1" t="n">
+        <v>0.1076236663234576</v>
+      </c>
+      <c r="BEE1" t="n">
+        <v>0.3094159953449107</v>
+      </c>
+      <c r="BEF1" t="n">
+        <v>0.2475656763555916</v>
+      </c>
+      <c r="BEG1" t="n">
+        <v>0.06804926513218637</v>
+      </c>
+      <c r="BEH1" t="n">
+        <v>0.07284563635553964</v>
+      </c>
+      <c r="BEI1" t="n">
+        <v>0.2971900682998916</v>
+      </c>
+      <c r="BEJ1" t="n">
+        <v>0.2662089259707493</v>
+      </c>
+      <c r="BEK1" t="n">
+        <v>-0.007542530059336084</v>
+      </c>
+      <c r="BEL1" t="n">
+        <v>0.1829951492916992</v>
+      </c>
+      <c r="BEM1" t="n">
+        <v>0.1432633441460999</v>
+      </c>
+      <c r="BEN1" t="n">
+        <v>0.4499999323128003</v>
+      </c>
+      <c r="BEO1" t="n">
+        <v>0.01658657381290147</v>
+      </c>
+      <c r="BEP1" t="n">
+        <v>0.246295483663242</v>
+      </c>
+      <c r="BEQ1" t="n">
+        <v>0.118680451257917</v>
+      </c>
+      <c r="BER1" t="n">
+        <v>0.4405775915589033</v>
+      </c>
+      <c r="BES1" t="n">
+        <v>0.03503588716387556</v>
+      </c>
+      <c r="BET1" t="n">
+        <v>0.447029887227971</v>
+      </c>
+      <c r="BEU1" t="n">
+        <v>0.01658475269514059</v>
+      </c>
+      <c r="BEV1" t="n">
+        <v>0.4500781752301584</v>
+      </c>
+      <c r="BEW1" t="n">
+        <v>-0.03559064484014888</v>
+      </c>
+      <c r="BEX1" t="n">
+        <v>0.7295568902283476</v>
+      </c>
+      <c r="BEY1" t="n">
+        <v>0.1187160084021699</v>
+      </c>
+      <c r="BEZ1" t="n">
+        <v>0.6769487151555054</v>
+      </c>
+      <c r="BFA1" t="n">
+        <v>-0.0242985287803239</v>
+      </c>
+      <c r="BFB1" t="n">
+        <v>1.121838690766851</v>
+      </c>
+      <c r="BFC1" t="n">
+        <v>0.264495709202488</v>
+      </c>
+      <c r="BFD1" t="n">
+        <v>0.4515133708478048</v>
+      </c>
+      <c r="BFE1" t="n">
+        <v>-0.03694882241249153</v>
+      </c>
+      <c r="BFF1" t="n">
+        <v>0.7296782998413704</v>
+      </c>
+      <c r="BFG1" t="n">
+        <v>0.2195217554314711</v>
+      </c>
+      <c r="BFH1" t="n">
+        <v>0.4409428730800651</v>
+      </c>
+      <c r="BFI1" t="n">
+        <v>-0.02604166049684854</v>
+      </c>
+      <c r="BFJ1" t="n">
+        <v>0.6228996328021417</v>
+      </c>
+      <c r="BFK1" t="n">
+        <v>0.08759829682159626</v>
+      </c>
+      <c r="BFL1" t="n">
+        <v>0.3993139429265649</v>
+      </c>
+      <c r="BFM1" t="n">
+        <v>-0.0380716374068289</v>
+      </c>
+      <c r="BFN1" t="n">
+        <v>0.4952822790659451</v>
+      </c>
+      <c r="BFO1" t="n">
+        <v>0.05639449733719057</v>
+      </c>
+      <c r="BFP1" t="n">
+        <v>0.4902372784071393</v>
+      </c>
+      <c r="BFQ1" t="n">
+        <v>0.03408488842612957</v>
+      </c>
+      <c r="BFR1" t="n">
+        <v>0.6226478583476018</v>
+      </c>
+      <c r="BFS1" t="n">
+        <v>0.0293006662901225</v>
+      </c>
+      <c r="BFT1" t="n">
+        <v>0.2828426168496406</v>
+      </c>
+      <c r="BFU1" t="n">
+        <v>0.1432681372944631</v>
+      </c>
+      <c r="BFV1" t="n">
+        <v>0.9782236304909816</v>
+      </c>
+      <c r="BFW1" t="n">
+        <v>0.05587442359035989</v>
+      </c>
+      <c r="BFX1" t="n">
+        <v>0.2432149922716764</v>
+      </c>
+      <c r="BFY1" t="n">
+        <v>0.2972940886670726</v>
+      </c>
+      <c r="BFZ1" t="n">
+        <v>0.6225143495049994</v>
+      </c>
+      <c r="BGA1" t="n">
+        <v>0.08759783245546662</v>
+      </c>
+      <c r="BGB1" t="n">
+        <v>0.1938677390778455</v>
+      </c>
+      <c r="BGC1" t="n">
+        <v>0.2644957857531741</v>
+      </c>
+      <c r="BGD1" t="n">
+        <v>0.3521021332646229</v>
+      </c>
+      <c r="BGE1" t="n">
+        <v>0.05579887803791291</v>
+      </c>
+      <c r="BGF1" t="n">
+        <v>0.3694399402129321</v>
+      </c>
+      <c r="BGG1" t="n">
+        <v>0.2739059389164525</v>
+      </c>
+      <c r="BGH1" t="n">
+        <v>0.3222169831649786</v>
+      </c>
+      <c r="BGI1" t="n">
+        <v>0.1662120594499446</v>
+      </c>
+      <c r="BGJ1" t="n">
+        <v>0.3052912426527106</v>
+      </c>
+      <c r="BGK1" t="n">
+        <v>0.2158964630090089</v>
+      </c>
+      <c r="BGL1" t="n">
+        <v>0.157471659788759</v>
+      </c>
+      <c r="BGM1" t="n">
+        <v>0.2195886958777947</v>
+      </c>
+      <c r="BGN1" t="n">
+        <v>0.3587437164360587</v>
+      </c>
+      <c r="BGO1" t="n">
+        <v>0.2738601135365871</v>
+      </c>
+      <c r="BGP1" t="n">
+        <v>0.2369775168872446</v>
+      </c>
+      <c r="BGQ1" t="n">
+        <v>0.4082026952606118</v>
+      </c>
+      <c r="BGR1" t="n">
+        <v>0.3937577382876106</v>
+      </c>
+      <c r="BGS1" t="n">
+        <v>0.3198637010488011</v>
+      </c>
+      <c r="BGT1" t="n">
+        <v>0.3052802607085853</v>
+      </c>
+      <c r="BGU1" t="n">
+        <v>0.6728079589789333</v>
+      </c>
+      <c r="BGV1" t="n">
+        <v>0.3999873400150705</v>
+      </c>
+      <c r="BGW1" t="n">
+        <v>0.3490387966390911</v>
+      </c>
+      <c r="BGX1" t="n">
+        <v>0.1480862542443209</v>
+      </c>
+      <c r="BGY1" t="n">
+        <v>0.7445168844631374</v>
+      </c>
+      <c r="BGZ1" t="n">
+        <v>0.3718555897109052</v>
+      </c>
+      <c r="BHA1" t="n">
+        <v>0.3524020656050633</v>
+      </c>
+      <c r="BHB1" t="n">
+        <v>0.1851320795561515</v>
+      </c>
+      <c r="BHC1" t="n">
+        <v>0.6728511800012924</v>
+      </c>
+      <c r="BHD1" t="n">
+        <v>0.2273471520068995</v>
+      </c>
+      <c r="BHE1" t="n">
+        <v>0.3490691760487969</v>
+      </c>
+      <c r="BHF1" t="n">
+        <v>0.06316323545403346</v>
+      </c>
+      <c r="BHG1" t="n">
+        <v>1.041243463519044</v>
+      </c>
+      <c r="BHH1" t="n">
+        <v>0.1039727388635929</v>
+      </c>
+      <c r="BHI1" t="n">
+        <v>0.3198137276258305</v>
+      </c>
+      <c r="BHJ1" t="n">
+        <v>0.1851516208925668</v>
+      </c>
+      <c r="BHK1" t="n">
+        <v>0.8500575423166807</v>
+      </c>
+      <c r="BHL1" t="n">
+        <v>0.09648638978690491</v>
+      </c>
+      <c r="BHM1" t="n">
+        <v>0.2738486363074421</v>
+      </c>
+      <c r="BHN1" t="n">
+        <v>0.1481067753452779</v>
+      </c>
+      <c r="BHO1" t="n">
+        <v>1.28628737316558</v>
+      </c>
+      <c r="BHP1" t="n">
+        <v>0.08380827631570853</v>
+      </c>
+      <c r="BHQ1" t="n">
+        <v>0.1255222891086762</v>
+      </c>
+      <c r="BHR1" t="n">
+        <v>0.305248438743811</v>
+      </c>
+      <c r="BHS1" t="n">
+        <v>0.8504670140868776</v>
+      </c>
+      <c r="BHT1" t="n">
+        <v>0.06319379781860575</v>
+      </c>
+      <c r="BHU1" t="n">
+        <v>0.1581069237870214</v>
+      </c>
+      <c r="BHV1" t="n">
+        <v>0.5302661696558283</v>
+      </c>
+      <c r="BHW1" t="n">
+        <v>0.9630531715371357</v>
+      </c>
+      <c r="BHX1" t="n">
+        <v>0.08384427260127469</v>
+      </c>
+      <c r="BHY1" t="n">
+        <v>0.3198056299234961</v>
+      </c>
+      <c r="BHZ1" t="n">
+        <v>0.8401871703451873</v>
+      </c>
+      <c r="BIA1" t="n">
+        <v>0.9264404337344405</v>
+      </c>
+      <c r="BIB1" t="n">
+        <v>0.2139101546649171</v>
+      </c>
+      <c r="BIC1" t="n">
+        <v>0.1851674670803272</v>
+      </c>
+      <c r="BID1" t="n">
+        <v>0.9269778155070372</v>
+      </c>
+      <c r="BIE1" t="n">
+        <v>0.5967739613390182</v>
+      </c>
+      <c r="BIF1" t="n">
+        <v>0.1851565971475767</v>
+      </c>
+      <c r="BIG1" t="n">
+        <v>0.2138965042859761</v>
+      </c>
+      <c r="BIH1" t="n">
+        <v>0.9584930145062358</v>
+      </c>
+      <c r="BII1" t="n">
+        <v>0.5304058997885599</v>
+      </c>
+      <c r="BIJ1" t="n">
+        <v>0.0633203260529092</v>
+      </c>
+      <c r="BIK1" t="n">
+        <v>0.2286756697184678</v>
+      </c>
+      <c r="BIL1" t="n">
+        <v>1.569967535888977</v>
+      </c>
+      <c r="BIM1" t="n">
+        <v>0.3050264475049031</v>
+      </c>
+      <c r="BIN1" t="n">
+        <v>0.1851405302539919</v>
+      </c>
+      <c r="BIO1" t="n">
+        <v>0.2263451324700392</v>
+      </c>
+      <c r="BIP1" t="n">
+        <v>0.9622707291337584</v>
+      </c>
+      <c r="BIQ1" t="n">
+        <v>0.1482371152715533</v>
+      </c>
+      <c r="BIR1" t="n">
+        <v>0.358440079020136</v>
       </c>
     </row>
   </sheetData>
